--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2D7F4-E677-44C3-88D0-F663C1431E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71E152-1358-4D5D-B14E-B8584D8A0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="412">
   <si>
     <t>UNIT</t>
   </si>
@@ -853,9 +852,6 @@
     <t>chemical_treat</t>
   </si>
   <si>
-    <t>chemical name</t>
-  </si>
-  <si>
     <t>exposure_time</t>
   </si>
   <si>
@@ -1266,18 +1262,6 @@
     <t>polymer</t>
   </si>
   <si>
-    <t>polymer_name</t>
-  </si>
-  <si>
-    <t>IUPAC_name</t>
-  </si>
-  <si>
-    <t>Mw_kDa</t>
-  </si>
-  <si>
-    <t>Mn_kDa</t>
-  </si>
-  <si>
     <t>wt_pct</t>
   </si>
   <si>
@@ -1311,9 +1295,6 @@
     <t>solvent</t>
   </si>
   <si>
-    <t>solvent_name</t>
-  </si>
-  <si>
     <t>pubchem_cid</t>
   </si>
   <si>
@@ -1468,6 +1449,18 @@
   </si>
   <si>
     <t>uv_vis_solution</t>
+  </si>
+  <si>
+    <t>iupac_name</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>other_name</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2330,13 +2323,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2672,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -2702,7 +2688,7 @@
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="94"/>
       <c r="C2" s="56"/>
@@ -2718,7 +2704,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -2734,7 +2720,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>25</v>
@@ -2749,7 +2735,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
@@ -2761,7 +2747,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
@@ -2780,7 +2766,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="29" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>206</v>
@@ -2806,12 +2792,12 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="61"/>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -2819,28 +2805,28 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="61"/>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="61"/>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2903,7 +2889,7 @@
       <c r="B25" s="26"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2913,7 +2899,7 @@
       <c r="B26" s="26"/>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2923,7 +2909,7 @@
       <c r="B27" s="26"/>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2933,7 +2919,7 @@
       <c r="B28" s="26"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>29</v>
@@ -2946,7 +2932,7 @@
       <c r="B29" s="26"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2956,7 +2942,7 @@
       <c r="B30" s="26"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2966,7 +2952,7 @@
       <c r="B31" s="26"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2976,7 +2962,7 @@
       <c r="B32" s="26"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2986,7 +2972,7 @@
       <c r="B33" s="26"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2996,7 +2982,7 @@
       <c r="B34" s="26"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3006,7 +2992,7 @@
       <c r="B35" s="26"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3016,7 +3002,7 @@
       <c r="B36" s="26"/>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3026,7 +3012,7 @@
       <c r="B37" s="26"/>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>39</v>
@@ -3039,7 +3025,7 @@
       <c r="B38" s="28"/>
       <c r="C38" s="61"/>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
@@ -3458,7 +3444,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -3467,16 +3453,16 @@
         <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F27" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G27" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H27" t="s">
         <v>84</v>
@@ -3487,7 +3473,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
@@ -3496,16 +3482,16 @@
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F28" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H28" t="s">
         <v>88</v>
@@ -3519,10 +3505,10 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H29" t="s">
         <v>85</v>
@@ -3536,7 +3522,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H30" s="21" t="s">
         <v>86</v>
@@ -3659,10 +3645,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D46" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E46" t="s">
         <v>157</v>
@@ -3671,10 +3657,10 @@
         <v>132</v>
       </c>
       <c r="G46" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H46" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3685,10 +3671,10 @@
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -3697,10 +3683,10 @@
         <v>161</v>
       </c>
       <c r="G47" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3708,10 +3694,10 @@
         <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D48" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E48" t="s">
         <v>158</v>
@@ -3725,10 +3711,10 @@
         <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3750,18 +3736,18 @@
         <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
@@ -3773,18 +3759,18 @@
         <v>178</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
@@ -3796,18 +3782,18 @@
         <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s">
         <v>172</v>
@@ -3816,15 +3802,15 @@
         <v>176</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3837,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3866,31 +3852,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B4" s="110" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="33" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
@@ -3910,12 +3896,12 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="77" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>122</v>
@@ -3929,16 +3915,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="35" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>118</v>
@@ -3950,13 +3936,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="35" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B13" s="15">
         <v>7239</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="54" t="s">
         <v>1</v>
@@ -3964,14 +3950,14 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="35" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B14" s="15"/>
       <c r="D14" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1">
@@ -3981,12 +3967,12 @@
       <c r="B15" s="41"/>
       <c r="C15" s="46"/>
       <c r="D15" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75">
@@ -4028,12 +4014,12 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>122</v>
@@ -4047,16 +4033,16 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>344</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>345</v>
       </c>
       <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="35" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>112</v>
@@ -4065,7 +4051,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="35" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>193</v>
@@ -4074,38 +4060,38 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="35" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="B32" s="15"/>
       <c r="D32" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="35" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="B33" s="15"/>
       <c r="D33" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="35" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B34" s="15"/>
       <c r="D34" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="35" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B35" s="15"/>
       <c r="D35" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4114,68 +4100,68 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="106" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D37" s="72"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="35" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B38" s="15"/>
       <c r="D38" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="35" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B39" s="15"/>
       <c r="D39" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="35" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B40" s="15"/>
       <c r="D40" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="107" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B41" s="15"/>
       <c r="D41" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="107" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1">
       <c r="A43" s="108" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="46"/>
       <c r="D43" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
@@ -4260,10 +4246,10 @@
     </row>
     <row r="95" spans="1:2" ht="26.25">
       <c r="A95" s="109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4340,19 +4326,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4433,7 +4419,7 @@
       </c>
       <c r="B7" s="68"/>
       <c r="D7" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>216</v>
@@ -4443,7 +4429,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="35" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B8" s="15">
         <v>250</v>
@@ -4452,14 +4438,14 @@
         <v>16</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>215</v>
       </c>
       <c r="H8" s="68"/>
       <c r="J8" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4473,15 +4459,15 @@
         <v>17</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="35" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4495,14 +4481,14 @@
         <v>132</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H10" s="15"/>
       <c r="J10" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -4512,7 +4498,7 @@
       <c r="B11" s="41"/>
       <c r="C11" s="46"/>
       <c r="D11" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G11" s="45" t="s">
         <v>217</v>
@@ -4520,7 +4506,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="46"/>
       <c r="J11" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4546,10 +4532,9 @@
       <c r="G14" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="111" t="s">
+      <c r="H14" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="112"/>
       <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10">
@@ -4557,7 +4542,6 @@
         <v>216</v>
       </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="112"/>
       <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10">
@@ -4565,21 +4549,20 @@
         <v>215</v>
       </c>
       <c r="H16" s="68"/>
-      <c r="I16" s="112"/>
       <c r="J16" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="35" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="112" t="s">
+      <c r="I17" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="7:10">
@@ -4587,11 +4570,11 @@
         <v>218</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="112" t="s">
+      <c r="I18" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="7:10">
@@ -4599,11 +4582,11 @@
         <v>219</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="112" t="s">
+      <c r="I19" t="s">
         <v>132</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
@@ -4613,7 +4596,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="46"/>
       <c r="J20" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
@@ -4655,7 +4638,7 @@
       </c>
       <c r="H25" s="68"/>
       <c r="J25" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="7:10">
@@ -4667,16 +4650,16 @@
         <v>161</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H27" s="15"/>
       <c r="J27" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="7:10">
@@ -4688,7 +4671,7 @@
         <v>134</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="7:10">
@@ -4700,19 +4683,19 @@
         <v>7</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="7:10">
       <c r="G30" s="35" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="7:10">
@@ -4724,7 +4707,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="7:10" ht="16.5" thickBot="1">
@@ -4734,7 +4717,7 @@
       <c r="H32" s="41"/>
       <c r="I32" s="46"/>
       <c r="J32" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
@@ -4777,7 +4760,7 @@
       </c>
       <c r="H37" s="68"/>
       <c r="J37" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4789,7 +4772,7 @@
         <v>17</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4801,7 +4784,7 @@
         <v>132</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" thickBot="1">
@@ -4811,7 +4794,7 @@
       <c r="H40" s="41"/>
       <c r="I40" s="46"/>
       <c r="J40" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1">
@@ -4836,10 +4819,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>207</v>
@@ -4862,7 +4845,7 @@
       </c>
       <c r="H45" s="68"/>
       <c r="J45" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4874,16 +4857,16 @@
         <v>161</v>
       </c>
       <c r="J46" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="G47" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H47" s="15"/>
       <c r="J47" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4895,7 +4878,7 @@
         <v>133</v>
       </c>
       <c r="J48" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -4907,7 +4890,7 @@
         <v>134</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="7:10" ht="16.5" thickBot="1">
@@ -4917,7 +4900,7 @@
       <c r="H50" s="41"/>
       <c r="I50" s="46"/>
       <c r="J50" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5003,10 +4986,10 @@
         <v>225</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5020,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5034,7 +5017,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5046,7 +5029,7 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5057,7 +5040,7 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5079,26 +5062,26 @@
         <v>226</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="33" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B13" s="82" t="s">
         <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="33" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B14" s="81">
         <v>350</v>
@@ -5107,25 +5090,25 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="33" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B15" s="82"/>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="33" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B16" s="81"/>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5139,7 +5122,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="33" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B19" s="81">
         <v>0.17199999999999999</v>
@@ -5148,19 +5131,19 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5170,7 +5153,7 @@
       <c r="B21" s="81"/>
       <c r="C21" s="33"/>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5180,7 +5163,7 @@
       <c r="B22" s="81"/>
       <c r="C22" s="33"/>
       <c r="D22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5190,7 +5173,7 @@
       <c r="B23" s="81"/>
       <c r="C23" s="33"/>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5257,8 +5240,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5279,19 +5262,19 @@
         <v>224</v>
       </c>
       <c r="E1" s="58"/>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5366,7 +5349,7 @@
       </c>
       <c r="H8" s="68"/>
       <c r="J8" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5378,11 +5361,11 @@
       </c>
       <c r="D9" s="71"/>
       <c r="G9" s="35" t="s">
-        <v>239</v>
+        <v>408</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5393,7 +5376,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>218</v>
@@ -5403,28 +5386,28 @@
         <v>17</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>239</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>240</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" t="s">
         <v>132</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -5438,7 +5421,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>217</v>
@@ -5446,12 +5429,12 @@
       <c r="H12" s="41"/>
       <c r="I12" s="46"/>
       <c r="J12" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="85">
         <v>0.25</v>
@@ -5460,7 +5443,7 @@
         <v>132</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G13" s="21"/>
       <c r="I13" s="3"/>
@@ -5473,10 +5456,10 @@
       <c r="B14" s="86"/>
       <c r="C14" s="46"/>
       <c r="D14" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>122</v>
@@ -5493,7 +5476,7 @@
         <v>207</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J15" s="71"/>
     </row>
@@ -5506,7 +5489,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>122</v>
@@ -5525,7 +5508,7 @@
         <v>161</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5533,15 +5516,15 @@
         <v>207</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D18" s="71"/>
       <c r="G18" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H18" s="15"/>
       <c r="J18" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5560,7 +5543,7 @@
         <v>134</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
@@ -5574,7 +5557,7 @@
         <v>161</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>217</v>
@@ -5582,18 +5565,18 @@
       <c r="H20" s="41"/>
       <c r="I20" s="46"/>
       <c r="J20" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
@@ -5605,10 +5588,10 @@
         <v>134</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G22" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>122</v>
@@ -5627,13 +5610,13 @@
       <c r="B23" s="86"/>
       <c r="C23" s="46"/>
       <c r="D23" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>207</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J23" s="71"/>
     </row>
@@ -5650,12 +5633,12 @@
       </c>
       <c r="H25" s="68"/>
       <c r="J25" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>122</v>
@@ -5667,11 +5650,11 @@
         <v>224</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H26" s="25"/>
       <c r="J26" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5679,7 +5662,7 @@
         <v>207</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="71"/>
       <c r="G27" s="35" t="s">
@@ -5690,7 +5673,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5702,14 +5685,14 @@
       </c>
       <c r="D28" s="71"/>
       <c r="G28" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" t="s">
         <v>132</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1">
@@ -5720,7 +5703,7 @@
         <v>102</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>217</v>
@@ -5728,18 +5711,18 @@
       <c r="H29" s="41"/>
       <c r="I29" s="46"/>
       <c r="J29" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="82" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
@@ -5753,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G31" s="77" t="s">
         <v>139</v>
@@ -5770,7 +5753,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="85">
         <v>8</v>
@@ -5779,13 +5762,13 @@
         <v>132</v>
       </c>
       <c r="D32" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>207</v>
       </c>
       <c r="H32" s="83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J32" s="71"/>
     </row>
@@ -5796,7 +5779,7 @@
       <c r="B33" s="86"/>
       <c r="C33" s="46"/>
       <c r="D33" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>216</v>
@@ -5806,53 +5789,53 @@
     </row>
     <row r="34" spans="1:10">
       <c r="G34" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H34" s="15"/>
       <c r="J34" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="G35" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" t="s">
         <v>132</v>
       </c>
       <c r="J36" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H37" s="37"/>
       <c r="J37" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H38" s="37"/>
       <c r="J38" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1">
@@ -5862,15 +5845,15 @@
       <c r="H39" s="41"/>
       <c r="I39" s="46"/>
       <c r="J39" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5908,7 +5891,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
@@ -5926,7 +5909,7 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -5935,26 +5918,26 @@
       <c r="D1" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
-    </row>
-    <row r="2" spans="1:11" ht="93" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1">
+      <c r="A2" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="84"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="52"/>
       <c r="F3" s="44" t="s">
         <v>143</v>
@@ -5963,13 +5946,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="F4" s="50" t="s">
         <v>144</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>146</v>
       </c>
@@ -5984,7 +5967,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="38" t="s">
         <v>136</v>
       </c>
@@ -5996,19 +5979,19 @@
         <v>224</v>
       </c>
       <c r="F6" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="69" t="s">
-        <v>256</v>
-      </c>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>255</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>256</v>
       </c>
       <c r="D7" s="36"/>
       <c r="F7" s="35" t="s">
@@ -6016,75 +5999,74 @@
       </c>
       <c r="G7" s="87"/>
       <c r="I7" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="35" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="87"/>
       <c r="D8" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="83"/>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" s="83"/>
       <c r="H9" t="s">
         <v>160</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="83"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="112"/>
-    </row>
-    <row r="11" spans="1:11">
+        <v>336</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="35" t="s">
         <v>218</v>
       </c>
@@ -6093,7 +6075,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>218</v>
@@ -6103,36 +6085,36 @@
         <v>17</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="83"/>
       <c r="D12" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" s="83"/>
       <c r="I12" s="36" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="43" t="s">
         <v>217</v>
       </c>
       <c r="B13" s="88"/>
       <c r="C13" s="49"/>
       <c r="D13" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>217</v>
@@ -6140,13 +6122,13 @@
       <c r="G13" s="88"/>
       <c r="H13" s="49"/>
       <c r="I13" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="F15" s="89" t="s">
         <v>137</v>
       </c>
@@ -6158,12 +6140,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="F16" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I16" s="36"/>
     </row>
@@ -6173,34 +6155,34 @@
       </c>
       <c r="G17" s="92"/>
       <c r="I17" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="15"/>
       <c r="I18" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G19" s="15"/>
       <c r="I19" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" s="15"/>
       <c r="I20" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J20" s="47" t="s">
         <v>171</v>
@@ -6208,11 +6190,11 @@
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="15"/>
       <c r="I21" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="6:10">
@@ -6224,7 +6206,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="6:10">
@@ -6236,37 +6218,37 @@
         <v>142</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="35" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G24" s="15"/>
       <c r="I24" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G26" s="25"/>
       <c r="I26" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
@@ -6276,7 +6258,7 @@
       <c r="G27" s="88"/>
       <c r="H27" s="49"/>
       <c r="I27" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
@@ -6297,10 +6279,10 @@
     </row>
     <row r="30" spans="6:10">
       <c r="F30" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I30" s="36"/>
     </row>
@@ -6310,19 +6292,19 @@
       </c>
       <c r="G31" s="87"/>
       <c r="I31" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
       <c r="F32" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="41"/>
       <c r="H32" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
@@ -6333,7 +6315,7 @@
     </row>
     <row r="34" spans="6:10" ht="15.75">
       <c r="F34" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G34" s="90"/>
       <c r="H34" s="90" t="s">
@@ -6343,12 +6325,12 @@
         <v>224</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G35" s="92"/>
       <c r="I35" s="36"/>
@@ -6359,16 +6341,16 @@
       </c>
       <c r="G36" s="92"/>
       <c r="I36" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G37" s="15"/>
       <c r="I37" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="6:10">
@@ -6380,16 +6362,16 @@
         <v>17</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G39" s="25"/>
       <c r="I39" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="6:10">
@@ -6398,59 +6380,59 @@
       </c>
       <c r="G40" s="15"/>
       <c r="I40" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="6:10">
       <c r="F41" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="6:10">
       <c r="F42" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G42" s="37"/>
       <c r="I42" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="6:10">
       <c r="F43" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G43" s="15"/>
       <c r="I43" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="6:10">
       <c r="F44" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G44" s="37"/>
       <c r="I44" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
       <c r="F45" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G45" s="88"/>
       <c r="H45" s="49"/>
       <c r="I45" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6507,7 +6489,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="58"/>
@@ -6515,19 +6497,19 @@
         <v>224</v>
       </c>
       <c r="E1" s="58"/>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="114" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="A2" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6543,7 +6525,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -6556,10 +6538,10 @@
       <c r="C5" s="39"/>
       <c r="D5" s="70"/>
       <c r="G5" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I5" s="39" t="s">
         <v>123</v>
@@ -6576,7 +6558,7 @@
         <v>207</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J6" s="71"/>
     </row>
@@ -6599,7 +6581,7 @@
       </c>
       <c r="H8" s="68"/>
       <c r="J8" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6614,7 +6596,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6629,7 +6611,7 @@
         <v>132</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -6643,7 +6625,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="46"/>
       <c r="J11" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -6656,7 +6638,7 @@
         <v>237</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I13" s="39" t="s">
         <v>123</v>
@@ -6687,16 +6669,16 @@
       </c>
       <c r="H16" s="68"/>
       <c r="J16" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="35" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H17" s="15"/>
       <c r="J17" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="7:10">
@@ -6708,7 +6690,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="7:10">
@@ -6720,7 +6702,7 @@
         <v>132</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
@@ -6730,7 +6712,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="46"/>
       <c r="J20" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1"/>
@@ -6739,7 +6721,7 @@
         <v>139</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>123</v>
@@ -6753,7 +6735,7 @@
         <v>207</v>
       </c>
       <c r="H23" s="83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J23" s="71"/>
     </row>
@@ -6766,35 +6748,35 @@
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H25" s="15"/>
       <c r="J25" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
         <v>132</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="7:10" ht="16.5" thickBot="1">
@@ -6804,15 +6786,15 @@
       <c r="H28" s="41"/>
       <c r="I28" s="46"/>
       <c r="J28" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6870,25 +6852,25 @@
         <v>45</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>224</v>
       </c>
       <c r="G1"/>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" ht="15.75">
       <c r="A2" s="94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="16"/>
       <c r="F2" s="3"/>
@@ -6902,7 +6884,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="3"/>
@@ -6910,7 +6892,7 @@
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2"/>
       <c r="F4" s="50"/>
@@ -6921,17 +6903,17 @@
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="H5" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="97"/>
       <c r="J5" s="97" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="97" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" s="97" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="98" t="s">
         <v>224</v>
@@ -6939,31 +6921,31 @@
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" s="97" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="97" t="s">
         <v>286</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>287</v>
       </c>
       <c r="F6" s="98" t="s">
         <v>224</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -6972,71 +6954,71 @@
       <c r="F7" s="47"/>
       <c r="G7" s="3"/>
       <c r="H7" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J7"/>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C8"/>
       <c r="F8" s="36"/>
       <c r="G8" s="3"/>
       <c r="H8" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I8" s="82"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A9" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="82"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I9" s="85">
         <v>2.02E-4</v>
       </c>
       <c r="J9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="25"/>
       <c r="M9" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="85">
         <v>2.02E-4</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="32">
         <v>1.2999999999999999E-5</v>
@@ -7045,43 +7027,43 @@
         <v>105</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I10" s="82" t="s">
         <v>179</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A11" s="100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="82" t="s">
         <v>179</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I11" s="85"/>
       <c r="J11"/>
       <c r="K11" s="32"/>
       <c r="L11" s="25"/>
       <c r="M11" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="85">
         <v>-10</v>
@@ -7094,34 +7076,34 @@
         <v>104</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I12" s="85"/>
       <c r="J12"/>
       <c r="K12" s="32"/>
       <c r="L12" s="25"/>
       <c r="M12" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13"/>
       <c r="D13" s="32"/>
       <c r="E13" s="25"/>
       <c r="F13" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I13" s="85"/>
       <c r="J13" t="s">
@@ -7130,12 +7112,12 @@
       <c r="K13" s="32"/>
       <c r="L13" s="25"/>
       <c r="M13" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" t="s">
@@ -7144,7 +7126,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="25"/>
       <c r="F14" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H14" s="35"/>
       <c r="M14" s="47"/>
@@ -7153,13 +7135,13 @@
       <c r="A15" s="35"/>
       <c r="F15" s="47"/>
       <c r="H15" s="99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M15" s="47"/>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="3"/>
@@ -7167,10 +7149,10 @@
         <v>215</v>
       </c>
       <c r="I16" s="68" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M16" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7181,7 +7163,7 @@
         <v>101</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="35" t="s">
@@ -7192,7 +7174,7 @@
         <v>17</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7204,10 +7186,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I18" s="83">
         <v>-3</v>
@@ -7216,12 +7198,12 @@
         <v>48</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A19" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="83">
         <v>-3</v>
@@ -7232,11 +7214,11 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I19" s="83"/>
       <c r="J19" t="s">
@@ -7245,12 +7227,12 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A20" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="83"/>
       <c r="C20" t="s">
@@ -7259,11 +7241,11 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I20" s="83" t="s">
         <v>180</v>
@@ -7272,12 +7254,12 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="83" t="s">
         <v>180</v>
@@ -7286,7 +7268,7 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="35" t="s">
@@ -7297,7 +7279,7 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -7306,14 +7288,14 @@
       </c>
       <c r="B22" s="83"/>
       <c r="F22" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>234</v>
       </c>
       <c r="I22" s="83"/>
       <c r="M22" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7322,14 +7304,14 @@
       </c>
       <c r="B23" s="83"/>
       <c r="F23" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>235</v>
       </c>
       <c r="I23" s="102"/>
       <c r="M23" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7338,29 +7320,29 @@
       </c>
       <c r="B24" s="102"/>
       <c r="F24" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I24" s="102"/>
       <c r="M24" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B25" s="102"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>217</v>
@@ -7370,7 +7352,7 @@
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -7382,7 +7364,7 @@
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
       <c r="F26" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -7408,17 +7390,17 @@
     <row r="29" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G29" s="3"/>
       <c r="H29" s="96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I29" s="97"/>
       <c r="J29" s="97" t="s">
         <v>45</v>
       </c>
       <c r="K29" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" s="97" t="s">
         <v>286</v>
-      </c>
-      <c r="L29" s="97" t="s">
-        <v>287</v>
       </c>
       <c r="M29" s="98" t="s">
         <v>224</v>
@@ -7433,7 +7415,7 @@
       <c r="F30"/>
       <c r="G30" s="3"/>
       <c r="H30" s="99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -7444,10 +7426,10 @@
     <row r="31" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="F31" s="50"/>
       <c r="H31" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I31" s="69" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J31"/>
       <c r="M31" s="36"/>
@@ -7461,37 +7443,37 @@
       <c r="F32"/>
       <c r="G32" s="3"/>
       <c r="H32" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I32" s="82"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G33" s="3"/>
       <c r="H33" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I33" s="85">
         <v>2.02E-4</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="25"/>
       <c r="M33" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G34" s="3"/>
       <c r="H34" s="100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I34" s="82" t="s">
         <v>179</v>
@@ -7500,24 +7482,24 @@
     </row>
     <row r="35" spans="1:13">
       <c r="H35" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I35" s="85"/>
       <c r="K35" s="32"/>
       <c r="L35" s="25"/>
       <c r="M35" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="H36" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I36" s="85"/>
       <c r="K36" s="32"/>
       <c r="L36" s="25"/>
       <c r="M36" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -7529,7 +7511,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="3"/>
       <c r="H37" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I37" s="85"/>
       <c r="J37" t="s">
@@ -7538,7 +7520,7 @@
       <c r="K37" s="32"/>
       <c r="L37" s="25"/>
       <c r="M37" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -7560,7 +7542,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="H39" s="99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M39" s="47"/>
     </row>
@@ -7570,13 +7552,13 @@
         <v>215</v>
       </c>
       <c r="I40" s="68" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -7594,7 +7576,7 @@
         <v>17</v>
       </c>
       <c r="M41" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -7605,7 +7587,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="H42" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I42" s="83">
         <v>-3</v>
@@ -7614,13 +7596,13 @@
         <v>48</v>
       </c>
       <c r="M42" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G43" s="3"/>
       <c r="H43" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I43" s="83"/>
       <c r="J43" t="s">
@@ -7629,7 +7611,7 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7641,7 +7623,7 @@
       <c r="F44"/>
       <c r="G44" s="3"/>
       <c r="H44" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44" s="83" t="s">
         <v>180</v>
@@ -7650,7 +7632,7 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7669,7 +7651,7 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7687,7 +7669,7 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7705,7 +7687,7 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7715,14 +7697,14 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="H48" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I48" s="102"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -7739,7 +7721,7 @@
       <c r="K49" s="49"/>
       <c r="L49" s="49"/>
       <c r="M49" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -7753,10 +7735,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -7836,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7860,34 +7842,34 @@
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="H2" s="3"/>
@@ -7897,14 +7879,14 @@
     </row>
     <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="H3" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I3" s="44"/>
       <c r="J3" s="3"/>
@@ -7926,16 +7908,16 @@
         <v>148</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>224</v>
@@ -7945,16 +7927,16 @@
         <v>148</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="40" t="s">
         <v>224</v>
@@ -10008,20 +9990,20 @@
     </row>
     <row r="6" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A6" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" s="36"/>
       <c r="H6" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -10030,33 +10012,33 @@
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A7" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A8" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" s="32">
         <v>0.54</v>
@@ -10065,10 +10047,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="25"/>
       <c r="F8" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I8" s="32">
         <v>0.54</v>
@@ -10077,12 +10059,12 @@
       <c r="K8" s="32"/>
       <c r="L8" s="25"/>
       <c r="M8" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A9" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="32">
         <v>50</v>
@@ -10093,10 +10075,10 @@
       <c r="D9" s="32"/>
       <c r="E9" s="25"/>
       <c r="F9" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I9" s="32">
         <v>50</v>
@@ -10107,73 +10089,73 @@
       <c r="K9" s="32"/>
       <c r="L9" s="25"/>
       <c r="M9" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A10" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10"/>
       <c r="D10" s="32"/>
       <c r="E10" s="25"/>
       <c r="F10" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10"/>
       <c r="K10" s="32"/>
       <c r="L10" s="25"/>
       <c r="M10" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A11" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A12" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1"/>
@@ -10182,16 +10164,16 @@
         <v>152</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>224</v>
@@ -10199,10 +10181,10 @@
     </row>
     <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A15" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -10212,16 +10194,16 @@
         <v>149</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>224</v>
@@ -10229,20 +10211,20 @@
     </row>
     <row r="16" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A16" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I16" s="69" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -10251,7 +10233,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="32">
         <v>27</v>
@@ -10262,46 +10244,46 @@
       <c r="D17" s="32"/>
       <c r="E17" s="25"/>
       <c r="F17" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18"/>
       <c r="D18" s="32"/>
       <c r="E18" s="25"/>
       <c r="F18" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18"/>
       <c r="K18" s="32"/>
       <c r="L18" s="25"/>
       <c r="M18" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" t="s">
@@ -10310,10 +10292,10 @@
       <c r="D19" s="32"/>
       <c r="E19" s="25"/>
       <c r="F19" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" t="s">
@@ -10322,34 +10304,34 @@
       <c r="K19" s="32"/>
       <c r="L19" s="25"/>
       <c r="M19" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20"/>
       <c r="D20" s="32"/>
       <c r="E20" s="25"/>
       <c r="F20" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" t="s">
@@ -10358,34 +10340,34 @@
       <c r="D21" s="32"/>
       <c r="E21" s="25"/>
       <c r="F21" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
       <c r="M21" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22"/>
       <c r="D22" s="32"/>
       <c r="E22" s="25"/>
       <c r="F22" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" t="s">
@@ -10394,34 +10376,34 @@
       <c r="D23" s="32"/>
       <c r="E23" s="25"/>
       <c r="F23" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24"/>
       <c r="D24" s="32"/>
       <c r="E24" s="25"/>
       <c r="F24" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>150</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K24" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>224</v>
@@ -10429,7 +10411,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" t="s">
@@ -10438,13 +10420,13 @@
       <c r="D25" s="32"/>
       <c r="E25" s="25"/>
       <c r="F25" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I25" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -10453,17 +10435,17 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26"/>
       <c r="D26" s="32"/>
       <c r="E26" s="25"/>
       <c r="F26" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I26" s="32" t="s">
         <v>181</v>
@@ -10472,22 +10454,22 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" t="s">
@@ -10496,34 +10478,34 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28"/>
       <c r="K28" s="32"/>
       <c r="L28" s="25"/>
       <c r="M28" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="H29" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" t="s">
@@ -10532,12 +10514,12 @@
       <c r="K29" s="32"/>
       <c r="L29" s="25"/>
       <c r="M29" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="H30" s="35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I30" s="55"/>
       <c r="J30" t="s">
@@ -10546,12 +10528,12 @@
       <c r="K30" s="32"/>
       <c r="L30" s="25"/>
       <c r="M30" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I31" s="55"/>
       <c r="J31" t="s">
@@ -10560,31 +10542,31 @@
       <c r="K31" s="32"/>
       <c r="L31" s="25"/>
       <c r="M31" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="H32" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="8:13" ht="15.75" thickBot="1">
       <c r="H33" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I33" s="53"/>
       <c r="J33" s="49"/>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
       <c r="M33" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="8:13" ht="15.75" thickBot="1"/>
@@ -10593,16 +10575,16 @@
         <v>152</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J36" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K36" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="M36" s="40" t="s">
         <v>224</v>
@@ -10610,10 +10592,10 @@
     </row>
     <row r="37" spans="8:13">
       <c r="H37" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I37" s="69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -10622,19 +10604,19 @@
     </row>
     <row r="38" spans="8:13">
       <c r="H38" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" t="s">
@@ -10643,24 +10625,24 @@
       <c r="K39" s="32"/>
       <c r="L39" s="25"/>
       <c r="M39" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" s="35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40"/>
       <c r="K40" s="32"/>
       <c r="L40" s="25"/>
       <c r="M40" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" t="s">
@@ -10669,24 +10651,24 @@
       <c r="K41" s="32"/>
       <c r="L41" s="25"/>
       <c r="M41" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42"/>
       <c r="K42" s="32"/>
       <c r="L42" s="25"/>
       <c r="M42" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" t="s">
@@ -10695,24 +10677,24 @@
       <c r="K43" s="32"/>
       <c r="L43" s="25"/>
       <c r="M43" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44"/>
       <c r="K44" s="32"/>
       <c r="L44" s="25"/>
       <c r="M44" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" t="s">
@@ -10721,24 +10703,24 @@
       <c r="K45" s="32"/>
       <c r="L45" s="25"/>
       <c r="M45" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46"/>
       <c r="K46" s="32"/>
       <c r="L46" s="25"/>
       <c r="M46" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" t="s">
@@ -10747,43 +10729,43 @@
       <c r="K47" s="32"/>
       <c r="L47" s="25"/>
       <c r="M47" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48"/>
       <c r="K48" s="32"/>
       <c r="L48" s="25"/>
       <c r="M48" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="H49" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="H50" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I50" s="53"/>
       <c r="J50" s="49"/>
       <c r="K50" s="49"/>
       <c r="L50" s="49"/>
       <c r="M50" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
@@ -10792,16 +10774,16 @@
         <v>154</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J52" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K52" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L52" s="39" t="s">
         <v>286</v>
-      </c>
-      <c r="L52" s="39" t="s">
-        <v>287</v>
       </c>
       <c r="M52" s="40" t="s">
         <v>224</v>
@@ -10809,10 +10791,10 @@
     </row>
     <row r="53" spans="1:13">
       <c r="H53" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I53" s="69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -10821,19 +10803,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="H54" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="H55" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" t="s">
@@ -10842,31 +10824,31 @@
       <c r="K55" s="32"/>
       <c r="L55" s="25"/>
       <c r="M55" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="H56" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="H57" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I57" s="53"/>
       <c r="J57" s="49"/>
       <c r="K57" s="49"/>
       <c r="L57" s="49"/>
       <c r="M57" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -10915,10 +10897,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71E152-1358-4D5D-B14E-B8584D8A0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F719E-70AC-41DC-ABC1-2E4F8CA841F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2662,15 +2662,15 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="75.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -2695,14 +2695,14 @@
       <c r="D2" s="56"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>339</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="D4" s="56"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="29" t="s">
         <v>199</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="29" t="s">
         <v>200</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="29" t="s">
         <v>201</v>
       </c>
@@ -2750,13 +2750,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="29"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="10" t="s">
         <v>203</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="29" t="s">
         <v>375</v>
       </c>
@@ -2774,17 +2774,17 @@
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="29"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="66" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="66" t="s">
         <v>204</v>
       </c>
@@ -2845,12 +2845,12 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="15.6">
       <c r="A22" s="10" t="s">
         <v>110</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="10"/>
     </row>
   </sheetData>
@@ -3189,17 +3189,17 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="21" t="s">
         <v>117</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="21" t="s">
         <v>66</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="20" t="s">
         <v>118</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="20" t="s">
         <v>116</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="B30" t="s">
         <v>78</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="B31" t="s">
         <v>79</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="B32" t="s">
         <v>80</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -3581,12 +3581,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="G35" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="G36" s="21" t="s">
         <v>93</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="G38" s="21" t="s">
         <v>95</v>
       </c>
@@ -3823,16 +3823,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3858,7 +3858,7 @@
       <c r="B2" s="112"/>
       <c r="C2" s="112"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>363</v>
       </c>
@@ -3889,17 +3889,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="77" t="s">
         <v>354</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+    <row r="15" spans="1:5" ht="16.2" thickBot="1">
       <c r="A15" s="45" t="s">
         <v>217</v>
       </c>
@@ -3970,12 +3970,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="77"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -4001,23 +4001,23 @@
       <c r="B22" s="15"/>
       <c r="D22" s="72"/>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1">
+    <row r="23" spans="1:4" ht="16.2" thickBot="1">
       <c r="A23" s="45"/>
       <c r="B23" s="41"/>
       <c r="C23" s="46"/>
       <c r="D23" s="73"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
+    <row r="26" spans="1:4" ht="15.6">
       <c r="A26" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1">
+    <row r="27" spans="1:4" ht="16.2" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:4" ht="15.6">
       <c r="A28" s="77" t="s">
         <v>342</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="15" thickBot="1">
       <c r="A43" s="108" t="s">
         <v>353</v>
       </c>
@@ -4159,12 +4159,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1">
+    <row r="45" spans="1:4" ht="16.2" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75">
+    <row r="46" spans="1:4" ht="15.6">
       <c r="A46" s="77"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -4238,13 +4238,13 @@
       <c r="B60" s="15"/>
       <c r="D60" s="72"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+    <row r="61" spans="1:4" ht="15" thickBot="1">
       <c r="A61" s="108"/>
       <c r="B61" s="41"/>
       <c r="C61" s="46"/>
       <c r="D61" s="73"/>
     </row>
-    <row r="95" spans="1:2" ht="26.25">
+    <row r="95" spans="1:2" ht="25.8">
       <c r="A95" s="109" t="s">
         <v>274</v>
       </c>
@@ -4302,20 +4302,20 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="I1" s="114"/>
       <c r="J1" s="115"/>
     </row>
-    <row r="2" spans="1:10" ht="130.15" customHeight="1">
+    <row r="2" spans="1:10" ht="130.19999999999999" customHeight="1">
       <c r="A2" s="111" t="s">
         <v>121</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.2" thickBot="1">
       <c r="A3" s="14"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4357,7 +4357,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="77" t="s">
         <v>223</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="35" t="s">
         <v>207</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="45" t="s">
         <v>217</v>
       </c>
@@ -4509,12 +4509,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="21"/>
       <c r="I12" s="3"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="G13" s="77" t="s">
         <v>223</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="16.2" thickBot="1">
       <c r="G20" s="45" t="s">
         <v>217</v>
       </c>
@@ -4599,10 +4599,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1">
+    <row r="21" spans="7:10" ht="15" thickBot="1">
       <c r="J21" s="75"/>
     </row>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="22" spans="7:10" ht="15.6">
       <c r="G22" s="77" t="s">
         <v>128</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="7:10" ht="16.5" thickBot="1">
+    <row r="32" spans="7:10" ht="16.2" thickBot="1">
       <c r="G32" s="45" t="s">
         <v>217</v>
       </c>
@@ -4720,11 +4720,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="G33" s="14"/>
       <c r="J33" s="75"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.6">
       <c r="G34" s="77" t="s">
         <v>129</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" thickBot="1">
+    <row r="40" spans="1:10" ht="16.2" thickBot="1">
       <c r="G40" s="45" t="s">
         <v>217</v>
       </c>
@@ -4797,13 +4797,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+    <row r="41" spans="1:10" ht="15" thickBot="1">
       <c r="G41" s="3"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="76"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="15.6">
       <c r="G42" s="77" t="s">
         <v>130</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="7:10" ht="16.5" thickBot="1">
+    <row r="50" spans="7:10" ht="16.2" thickBot="1">
       <c r="G50" s="45" t="s">
         <v>217</v>
       </c>
@@ -4945,12 +4945,12 @@
       <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -4968,15 +4968,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="13" t="s">
         <v>231</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>232</v>
       </c>
@@ -5114,7 +5114,7 @@
     <row r="17" spans="1:4">
       <c r="B17" s="80"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="10" t="s">
         <v>190</v>
       </c>
@@ -5239,20 +5239,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>236</v>
       </c>
@@ -5288,13 +5288,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="G5" s="77" t="s">
         <v>237</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="G6" s="35" t="s">
         <v>207</v>
       </c>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J6" s="71"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="77" t="s">
         <v>237</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="A12" s="35" t="s">
         <v>218</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="A13" s="35" t="s">
         <v>239</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>336</v>
@@ -5449,7 +5449,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="74"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+    <row r="14" spans="1:10" ht="16.2" thickBot="1">
       <c r="A14" s="45" t="s">
         <v>217</v>
       </c>
@@ -5480,14 +5480,14 @@
       </c>
       <c r="J15" s="71"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="G16" s="35" t="s">
         <v>216</v>
       </c>
       <c r="H16" s="25"/>
       <c r="J16" s="71"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="77" t="s">
         <v>240</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="16.2" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>212</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>242</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="35" t="s">
         <v>214</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+    <row r="23" spans="1:10" ht="16.2" thickBot="1">
       <c r="A23" s="45" t="s">
         <v>217</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="H24" s="25"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="G25" s="35" t="s">
         <v>215</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="77" t="s">
         <v>243</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1">
+    <row r="29" spans="1:10" ht="16.2" thickBot="1">
       <c r="A29" s="35" t="s">
         <v>215</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="35" t="s">
         <v>245</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="35" t="s">
         <v>218</v>
       </c>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="J32" s="71"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="A33" s="45" t="s">
         <v>217</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" thickBot="1">
+    <row r="39" spans="1:10" ht="16.2" thickBot="1">
       <c r="G39" s="45" t="s">
         <v>217</v>
       </c>
@@ -5897,19 +5897,19 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -5937,7 +5937,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="52"/>
       <c r="F3" s="44" t="s">
         <v>143</v>
@@ -5946,13 +5946,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="F4" s="50" t="s">
         <v>144</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>146</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="38" t="s">
         <v>136</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="43" t="s">
         <v>217</v>
       </c>
@@ -6125,10 +6125,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="F15" s="89" t="s">
         <v>137</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="6:10" ht="15.75" thickBot="1">
+    <row r="27" spans="6:10" ht="15" thickBot="1">
       <c r="F27" s="43" t="s">
         <v>217</v>
       </c>
@@ -6261,11 +6261,11 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="6:10" ht="16.5" thickBot="1">
+    <row r="28" spans="6:10" ht="16.2" thickBot="1">
       <c r="F28" s="14"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="6:10" ht="15.75">
+    <row r="29" spans="6:10" ht="15.6">
       <c r="F29" s="38" t="s">
         <v>140</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="6:10" ht="15.75" thickBot="1">
+    <row r="32" spans="6:10" ht="15" thickBot="1">
       <c r="F32" s="43" t="s">
         <v>265</v>
       </c>
@@ -6307,13 +6307,13 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15.75" thickBot="1">
+    <row r="33" spans="6:10" ht="15" thickBot="1">
       <c r="F33" s="3"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="6:10" ht="15.75">
+    <row r="34" spans="6:10" ht="15.6">
       <c r="F34" s="89" t="s">
         <v>269</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="15.75" thickBot="1">
+    <row r="45" spans="6:10" ht="15" thickBot="1">
       <c r="F45" s="43" t="s">
         <v>268</v>
       </c>
@@ -6477,17 +6477,17 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>250</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="103" t="s">
         <v>303</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="77"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -6614,7 +6614,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="45"/>
       <c r="B11" s="41"/>
       <c r="C11" s="46"/>
@@ -6628,12 +6628,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="21"/>
       <c r="I12" s="3"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="G13" s="77" t="s">
         <v>237</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="16.2" thickBot="1">
       <c r="G20" s="45" t="s">
         <v>217</v>
       </c>
@@ -6715,8 +6715,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1"/>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="21" spans="7:10" ht="15" thickBot="1"/>
+    <row r="22" spans="7:10" ht="15.6">
       <c r="G22" s="77" t="s">
         <v>139</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="7:10" ht="16.5" thickBot="1">
+    <row r="28" spans="7:10" ht="16.2" thickBot="1">
       <c r="G28" s="45" t="s">
         <v>217</v>
       </c>
@@ -6832,18 +6832,18 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>145</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="J1" s="114"/>
       <c r="K1" s="115"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="15.6">
       <c r="A2" s="94" t="s">
         <v>305</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A4" s="103" t="s">
         <v>303</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="I4"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="H5" s="96" t="s">
         <v>288</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:13" ht="15.6">
       <c r="A6" s="96" t="s">
         <v>288</v>
       </c>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="M6" s="47"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A7" s="99" t="s">
         <v>298</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="J7"/>
       <c r="M7" s="36"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A8" s="35" t="s">
         <v>276</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A9" s="35" t="s">
         <v>289</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>282</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A11" s="100" t="s">
         <v>291</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A12" s="35" t="s">
         <v>280</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A13" s="35" t="s">
         <v>281</v>
       </c>
@@ -7131,7 +7131,7 @@
       <c r="H14" s="35"/>
       <c r="M14" s="47"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" ht="15.6">
       <c r="A15" s="35"/>
       <c r="F15" s="47"/>
       <c r="H15" s="99" t="s">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="M15" s="47"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13" ht="15.6">
       <c r="A16" s="99" t="s">
         <v>299</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="19" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A19" s="35" t="s">
         <v>292</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>293</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>242</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A25" s="35" t="s">
         <v>308</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A26" s="43" t="s">
         <v>217</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="G28" s="3"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -7387,7 +7387,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G29" s="3"/>
       <c r="H29" s="96" t="s">
         <v>300</v>
@@ -7406,7 +7406,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="30" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -7423,7 +7423,7 @@
       <c r="L30"/>
       <c r="M30" s="47"/>
     </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="F31" s="50"/>
       <c r="H31" s="35" t="s">
         <v>276</v>
@@ -7434,7 +7434,7 @@
       <c r="J31"/>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="32" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -7453,7 +7453,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="33" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G33" s="3"/>
       <c r="H33" s="35" t="s">
         <v>282</v>
@@ -7470,7 +7470,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="34" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G34" s="3"/>
       <c r="H34" s="100" t="s">
         <v>291</v>
@@ -7534,7 +7534,7 @@
       <c r="H38" s="35"/>
       <c r="M38" s="47"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:13" ht="15.6">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="M39" s="47"/>
     </row>
-    <row r="40" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="40" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G40"/>
       <c r="H40" s="35" t="s">
         <v>215</v>
@@ -7599,7 +7599,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="43" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G43" s="3"/>
       <c r="H43" s="35" t="s">
         <v>293</v>
@@ -7614,7 +7614,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="44" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7635,7 +7635,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="45" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -7654,7 +7654,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="46" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -7672,7 +7672,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="47" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -7690,7 +7690,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="48" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -7707,7 +7707,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="49" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -7760,7 +7760,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75">
+    <row r="54" spans="1:13" ht="15.6">
       <c r="A54" s="95"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -7768,7 +7768,7 @@
       <c r="E54" s="7"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75">
+    <row r="55" spans="1:13" ht="15.6">
       <c r="A55" s="95"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -7822,25 +7822,25 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>306</v>
       </c>
@@ -7877,7 +7877,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A3" s="104" t="s">
         <v>303</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A4" s="104"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -7903,7 +7903,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
+    <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
       <c r="A5" s="38" t="s">
         <v>148</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
       <c r="A12" s="43" t="s">
         <v>333</v>
       </c>
@@ -10158,8 +10158,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="16.5" thickBot="1">
+    <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1"/>
+    <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="16.2" thickBot="1">
       <c r="A14" s="38" t="s">
         <v>152</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
+    <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
       <c r="A15" s="35" t="s">
         <v>276</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1">
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>330</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="35" t="s">
         <v>317</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15.6">
       <c r="A24" s="35" t="s">
         <v>318</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+    <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="43" t="s">
         <v>333</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="8:13" ht="15.75" thickBot="1">
+    <row r="33" spans="8:13" ht="15" thickBot="1">
       <c r="H33" s="43" t="s">
         <v>333</v>
       </c>
@@ -10569,8 +10569,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="8:13" ht="15.75" thickBot="1"/>
-    <row r="36" spans="8:13" ht="15.75">
+    <row r="35" spans="8:13" ht="15" thickBot="1"/>
+    <row r="36" spans="8:13" ht="15.6">
       <c r="H36" s="38" t="s">
         <v>152</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1">
+    <row r="50" spans="1:13" ht="15" thickBot="1">
       <c r="H50" s="43" t="s">
         <v>333</v>
       </c>
@@ -10768,8 +10768,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="52" spans="1:13" ht="15.75">
+    <row r="51" spans="1:13" ht="15" thickBot="1"/>
+    <row r="52" spans="1:13" ht="15.6">
       <c r="H52" s="38" t="s">
         <v>154</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1">
+    <row r="57" spans="1:13" ht="15" thickBot="1">
       <c r="H57" s="43" t="s">
         <v>333</v>
       </c>

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A96BFF4-0697-4BA0-BABD-49E96AB714EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF250E24-EA05-4E5C-AA7D-4BA7BB4A40EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="408">
   <si>
     <t>UNIT</t>
   </si>
@@ -216,9 +216,6 @@
     <t>Surface Modifier-Name</t>
   </si>
   <si>
-    <t>Surface Modifier - Solvent Name</t>
-  </si>
-  <si>
     <t>1. Data Origin</t>
   </si>
   <si>
@@ -280,43 +277,10 @@
     <t>6FDA-DABC</t>
   </si>
   <si>
-    <t>Untreated</t>
-  </si>
-  <si>
-    <t>decyltriethoxysilane (DTS)</t>
-  </si>
-  <si>
-    <t>Methyltrichlorosilane (MTS)</t>
-  </si>
-  <si>
     <t>octadecyltrichlorosilane (OTS-18)</t>
   </si>
   <si>
-    <t>phenyltrichlorosilane  (PTS)</t>
-  </si>
-  <si>
-    <t>octyltrichlorosilane (OTS-8)</t>
-  </si>
-  <si>
-    <t>Methyltrichlorosilane (MTS)/octadecyltrichlorosilane (OTS-18)</t>
-  </si>
-  <si>
-    <t>octadecyltrichlorosilane (OTS-18)/Methyltrichlorosilane (MTS)</t>
-  </si>
-  <si>
-    <t>octadecyltrichlorosilane (OTS-18)/octyltrichlorosilane (OTS-8)</t>
-  </si>
-  <si>
-    <t>octadecyltrichlorosilane (OTS-18)/phenyltrichlorosilane  (PTS)</t>
-  </si>
-  <si>
-    <t>phenyltrichlorosilane  (PTS)/octadecyltrichlorosilane (OTS-18)</t>
-  </si>
-  <si>
     <t>O2-Plasma</t>
-  </si>
-  <si>
-    <t>Toluene</t>
   </si>
   <si>
     <t>4. Coating Process</t>
@@ -778,9 +742,6 @@
     <t>sam</t>
   </si>
   <si>
-    <t>SAM name</t>
-  </si>
-  <si>
     <t>(fill in here)</t>
   </si>
   <si>
@@ -1059,9 +1020,6 @@
     <t>Cary 60 UV-vis</t>
   </si>
   <si>
-    <t>filepath</t>
-  </si>
-  <si>
     <t>include extension!-&gt;</t>
   </si>
   <si>
@@ -1113,9 +1071,6 @@
     <t>A00_A01</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
     <t>params</t>
   </si>
   <si>
@@ -1441,6 +1396,54 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>sam_name</t>
+  </si>
+  <si>
+    <t>cytop</t>
+  </si>
+  <si>
+    <t>hexamethyldisilane</t>
+  </si>
+  <si>
+    <t>octyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>octadecyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>decyltriethoxysilane</t>
+  </si>
+  <si>
+    <t>phenyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>perfluorodecyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>methyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>OTS-18</t>
+  </si>
+  <si>
+    <t>OTS-8</t>
+  </si>
+  <si>
+    <t>HDMS</t>
+  </si>
+  <si>
+    <t>FDTS</t>
   </si>
 </sst>
 </file>
@@ -2215,24 +2218,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2428,11 +2413,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2773,17 +2776,17 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="39" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="130"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2796,150 +2799,150 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="121" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
+      <c r="A4" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>157</v>
+      <c r="A5" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>158</v>
+      <c r="A6" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>146</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>159</v>
+      <c r="A7" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>147</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="122"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="121" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
+      <c r="A9" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
+      <c r="A10" s="116" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="122"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="61"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="125" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="126" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="126" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="126"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="123" t="s">
-        <v>177</v>
+      <c r="A18" s="117" t="s">
+        <v>165</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -2947,92 +2950,92 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="A19" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
+      <c r="A22" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="128" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
+      <c r="A23" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="110"/>
+        <v>73</v>
+      </c>
+      <c r="B25" s="104"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="110"/>
+        <v>74</v>
+      </c>
+      <c r="B26" s="104"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="110"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="110"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>25</v>
@@ -3042,90 +3045,90 @@
       <c r="A29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="110"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="110"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="110"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="110"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="110"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="110"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>35</v>
@@ -3135,10 +3138,10 @@
       <c r="A38" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="120"/>
-      <c r="C38" s="116"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -3305,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="G21" zoomScale="114" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3319,19 +3322,19 @@
     <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="15"/>
     </row>
@@ -3341,12 +3344,12 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3365,30 +3368,30 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3396,9 +3399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="18" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>6212</v>
@@ -3407,21 +3410,21 @@
         <v>61.2</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>7964</v>
@@ -3430,21 +3433,21 @@
         <v>132</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>4685</v>
@@ -3453,21 +3456,21 @@
         <v>180.5</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3476,18 +3479,18 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E20" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>1140</v>
@@ -3496,18 +3499,18 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E21" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3516,18 +3519,18 @@
         <v>138.4</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="17" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B23">
         <v>887</v>
@@ -3536,18 +3539,18 @@
         <v>64.7</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3556,18 +3559,18 @@
         <v>82.5</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3576,21 +3579,21 @@
         <v>56</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="16" t="s">
         <v>8</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>9</v>
@@ -3616,174 +3619,202 @@
         <v>45</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" t="s">
-        <v>360</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D32" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" t="s">
+        <v>401</v>
+      </c>
+      <c r="I32" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="H33" t="s">
+        <v>402</v>
+      </c>
+      <c r="I33" t="s">
+        <v>397</v>
+      </c>
+      <c r="J33">
+        <v>76261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H34" t="s">
+        <v>403</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="J34">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="J35">
+        <v>8157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" t="s">
+        <v>405</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="J36">
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" t="s">
+        <v>406</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="J37">
+        <v>74057</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" t="s">
+        <v>407</v>
+      </c>
+      <c r="I38" t="s">
+        <v>399</v>
+      </c>
+      <c r="J38">
+        <v>21932446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
+      <c r="H41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" t="s">
-        <v>359</v>
-      </c>
-      <c r="F32" t="s">
-        <v>327</v>
-      </c>
-      <c r="G32" t="s">
-        <v>355</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>361</v>
-      </c>
-      <c r="F33" t="s">
-        <v>328</v>
-      </c>
-      <c r="H33" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" t="s">
-        <v>329</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="G39" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="G40" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75">
-      <c r="G42" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10">
       <c r="A48" s="16" t="s">
         <v>10</v>
       </c>
@@ -3791,112 +3822,112 @@
         <v>11</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="F49" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="H50" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D51" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="H51" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D52" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3904,90 +3935,90 @@
         <v>42</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F57" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G59" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4000,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4015,59 +4046,59 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="104" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="135" t="s">
-        <v>325</v>
+      <c r="A4" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>310</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="134" t="s">
-        <v>323</v>
+      <c r="A5" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>308</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="103" t="s">
-        <v>342</v>
+      <c r="A6" s="97" t="s">
+        <v>327</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="103"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="23" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4077,61 +4108,61 @@
       <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="121" t="s">
-        <v>162</v>
+      <c r="A8" s="115" t="s">
+        <v>150</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A9" s="121" t="s">
-        <v>318</v>
+      <c r="A9" s="115" t="s">
+        <v>303</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="89" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>101</v>
+      <c r="A10" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="75" t="s">
-        <v>305</v>
+      <c r="A11" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="131" t="s">
-        <v>94</v>
+      <c r="A12" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="75" t="s">
-        <v>317</v>
+      <c r="A13" s="69" t="s">
+        <v>302</v>
       </c>
       <c r="B13" s="51">
         <f>_xlfn.XLOOKUP(B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$B$16:$B$25)</f>
@@ -4139,47 +4170,47 @@
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="75" t="s">
-        <v>386</v>
+      <c r="A14" s="69" t="s">
+        <v>371</v>
       </c>
       <c r="B14" s="51">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$C$16:$C$25)</f>
         <v>110.6</v>
       </c>
-      <c r="C14" s="132" t="s">
-        <v>387</v>
+      <c r="C14" s="126" t="s">
+        <v>372</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="75" t="s">
-        <v>343</v>
+      <c r="A15" s="69" t="s">
+        <v>328</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="45"/>
       <c r="D15" s="43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="91" t="s">
-        <v>189</v>
+      <c r="A16" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="B16" s="55"/>
-      <c r="C16" s="133"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="44" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4189,54 +4220,54 @@
       <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="129" t="s">
-        <v>319</v>
+      <c r="A18" s="123" t="s">
+        <v>304</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="89"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="75"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="77"/>
+      <c r="D20" s="71"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="75"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="50"/>
       <c r="C21" s="48"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="75"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="53"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="78"/>
+      <c r="D22" s="72"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="75"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="78"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="75"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="53"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="78"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A25" s="91"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="75"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="48"/>
@@ -4245,58 +4276,58 @@
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="121" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="125"/>
+      <c r="A27" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="119"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A28" s="121" t="s">
-        <v>321</v>
-      </c>
-      <c r="B28" s="125"/>
+      <c r="A28" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="119"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="B29" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="130" t="s">
-        <v>101</v>
+      <c r="A29" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>89</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="75" t="s">
-        <v>305</v>
+      <c r="A30" s="69" t="s">
+        <v>290</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="75" t="s">
-        <v>388</v>
-      </c>
-      <c r="B31" s="131" t="s">
-        <v>91</v>
+      <c r="A31" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B31" s="125" t="s">
+        <v>79</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="75" t="s">
-        <v>369</v>
+      <c r="A32" s="69" t="s">
+        <v>354</v>
       </c>
       <c r="B32" s="51" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4306,121 +4337,121 @@
       <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="75" t="s">
-        <v>370</v>
+      <c r="A33" s="69" t="s">
+        <v>355</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="45" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="75" t="s">
-        <v>371</v>
+      <c r="A34" s="69" t="s">
+        <v>356</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="45" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="75" t="s">
-        <v>307</v>
+      <c r="A35" s="69" t="s">
+        <v>292</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="45"/>
       <c r="D35" s="43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="75" t="s">
-        <v>405</v>
+      <c r="A36" s="69" t="s">
+        <v>390</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="45"/>
       <c r="D36" s="43" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="75"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="106" t="s">
-        <v>308</v>
+      <c r="A38" s="100" t="s">
+        <v>293</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
       <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="75" t="s">
-        <v>309</v>
+      <c r="A39" s="69" t="s">
+        <v>294</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="45"/>
       <c r="D39" s="43" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="75" t="s">
-        <v>310</v>
+      <c r="A40" s="69" t="s">
+        <v>295</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="45"/>
       <c r="D40" s="43" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="75" t="s">
-        <v>311</v>
+      <c r="A41" s="69" t="s">
+        <v>296</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="45"/>
       <c r="D41" s="43" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="107" t="s">
-        <v>312</v>
+      <c r="A42" s="101" t="s">
+        <v>297</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="45"/>
       <c r="D42" s="43" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="107" t="s">
-        <v>313</v>
+      <c r="A43" s="101" t="s">
+        <v>298</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="45"/>
       <c r="D43" s="43" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A44" s="108" t="s">
-        <v>314</v>
+      <c r="A44" s="102" t="s">
+        <v>299</v>
       </c>
       <c r="B44" s="55"/>
-      <c r="C44" s="133"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="44" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4430,115 +4461,115 @@
       <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A46" s="121" t="s">
-        <v>322</v>
+      <c r="A46" s="115" t="s">
+        <v>307</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="89"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="75"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="40"/>
       <c r="C48" s="45"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="75"/>
-      <c r="B49" s="131"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="45"/>
       <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="75"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="51"/>
       <c r="C50" s="45"/>
       <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="75"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="51"/>
       <c r="C51" s="45"/>
       <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="75"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="51"/>
       <c r="C52" s="45"/>
       <c r="D52" s="43"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="75"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="51"/>
       <c r="C53" s="45"/>
       <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="75"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="51"/>
       <c r="C54" s="45"/>
       <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="75"/>
+      <c r="A55" s="69"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="106"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="75"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="51"/>
       <c r="C57" s="45"/>
       <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="75"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="51"/>
       <c r="C58" s="45"/>
       <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="75"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="51"/>
       <c r="C59" s="45"/>
       <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="107"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="51"/>
       <c r="C60" s="45"/>
       <c r="D60" s="43"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="107"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="51"/>
       <c r="C61" s="45"/>
       <c r="D61" s="43"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="108"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="55"/>
-      <c r="C62" s="133"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="44"/>
     </row>
     <row r="96" spans="1:2" ht="26.25">
       <c r="A96" s="62" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B96" s="62" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4575,8 +4606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4594,28 +4625,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="G1" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4628,95 +4659,95 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="G3" s="29" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A4" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="101"/>
+      <c r="A4" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="95"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>194</v>
+      <c r="A5" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>182</v>
       </c>
       <c r="C5" s="48"/>
-      <c r="D5" s="77"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>196</v>
+      <c r="G5" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="75" t="s">
-        <v>188</v>
+      <c r="A6" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="78"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
-      <c r="G6" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>182</v>
+      <c r="G6" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>170</v>
       </c>
       <c r="I6" s="48"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="75" t="s">
-        <v>187</v>
+      <c r="A7" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="78" t="s">
-        <v>298</v>
+      <c r="D7" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="75" t="s">
-        <v>188</v>
+      <c r="G7" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="75" t="s">
-        <v>344</v>
+      <c r="A8" s="69" t="s">
+        <v>329</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4724,23 +4755,23 @@
       <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="78" t="s">
-        <v>298</v>
+      <c r="D8" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="75" t="s">
-        <v>187</v>
+      <c r="G8" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="78" t="s">
-        <v>298</v>
+      <c r="J8" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B9" s="53">
         <v>60</v>
@@ -4748,62 +4779,60 @@
       <c r="C9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="78" t="s">
-        <v>298</v>
+      <c r="D9" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="H9" s="53"/>
+      <c r="G9" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="125"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="48" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B10" s="53">
         <v>1</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>298</v>
+        <v>98</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>283</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" s="53"/>
+      <c r="G10" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="51"/>
       <c r="I10" s="48"/>
-      <c r="J10" s="78" t="s">
-        <v>298</v>
+      <c r="J10" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A11" s="91" t="s">
-        <v>189</v>
+      <c r="A11" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="B11" s="54"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="81" t="s">
-        <v>261</v>
+      <c r="C11" s="86"/>
+      <c r="D11" s="75" t="s">
+        <v>248</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="81" t="s">
-        <v>261</v>
+      <c r="G11" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4813,46 +4842,46 @@
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
+      <c r="G12" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="54"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="48"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="G13" s="87"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="77"/>
+      <c r="G14" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="48"/>
@@ -4861,12 +4890,14 @@
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
-      <c r="G15" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15" s="50"/>
+      <c r="G15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>182</v>
+      </c>
       <c r="I15" s="48"/>
-      <c r="J15" s="78"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="48"/>
@@ -4875,14 +4906,12 @@
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="56"/>
+      <c r="G16" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="50"/>
       <c r="I16" s="48"/>
-      <c r="J16" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="48"/>
@@ -4891,15 +4920,13 @@
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
-      <c r="G17" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>298</v>
+      <c r="G17" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4909,15 +4936,15 @@
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
-      <c r="G18" s="75" t="s">
-        <v>190</v>
+      <c r="G18" s="69" t="s">
+        <v>329</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="78" t="s">
-        <v>298</v>
+        <v>12</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4927,80 +4954,82 @@
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="75" t="s">
-        <v>191</v>
+      <c r="G19" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="G20" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
+      <c r="G21" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="61"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="77"/>
+      <c r="G23" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="48"/>
@@ -5009,12 +5038,14 @@
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="50"/>
+      <c r="G24" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>169</v>
+      </c>
       <c r="I24" s="48"/>
-      <c r="J24" s="77"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="48"/>
@@ -5023,14 +5054,12 @@
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
-      <c r="G25" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="56"/>
+      <c r="G25" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="50"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="48"/>
@@ -5039,15 +5068,13 @@
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
-      <c r="G26" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="78" t="s">
-        <v>298</v>
+      <c r="G26" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5057,13 +5084,15 @@
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
-      <c r="G27" s="75" t="s">
-        <v>213</v>
+      <c r="G27" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="H27" s="53"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="78" t="s">
-        <v>261</v>
+      <c r="I27" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5073,15 +5102,13 @@
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="75" t="s">
-        <v>186</v>
+      <c r="G28" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="H28" s="53"/>
-      <c r="I28" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>261</v>
+      <c r="I28" s="48"/>
+      <c r="J28" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5091,15 +5118,15 @@
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
-      <c r="G29" s="75" t="s">
-        <v>192</v>
+      <c r="G29" s="69" t="s">
+        <v>174</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="78" t="s">
-        <v>261</v>
+        <v>100</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5109,15 +5136,15 @@
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="75" t="s">
-        <v>344</v>
+      <c r="G30" s="69" t="s">
+        <v>180</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="78" t="s">
-        <v>261</v>
+        <v>4</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5127,31 +5154,33 @@
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="75" t="s">
-        <v>190</v>
+      <c r="G31" s="69" t="s">
+        <v>329</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="78" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="81" t="s">
-        <v>261</v>
+      <c r="G32" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
@@ -5161,46 +5190,46 @@
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="61"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75">
+      <c r="G33" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" thickBot="1">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
-      <c r="G34" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="G34" s="94"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="61"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="77"/>
+      <c r="G35" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="68" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="48"/>
@@ -5209,12 +5238,14 @@
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="50"/>
+      <c r="G36" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>171</v>
+      </c>
       <c r="I36" s="48"/>
-      <c r="J36" s="77"/>
+      <c r="J36" s="71"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="48"/>
@@ -5223,14 +5254,12 @@
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
-      <c r="G37" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="56"/>
+      <c r="G37" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="50"/>
       <c r="I37" s="48"/>
-      <c r="J37" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="48"/>
@@ -5239,15 +5268,13 @@
       <c r="D38" s="48"/>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
-      <c r="G38" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="78" t="s">
-        <v>298</v>
+      <c r="G38" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="56"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5257,80 +5284,82 @@
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="75" t="s">
-        <v>191</v>
+      <c r="G39" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" thickBot="1">
+        <v>13</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+      <c r="G40" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="53"/>
+      <c r="I40" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75">
+      <c r="G41" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="48"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
-      <c r="G42" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" s="74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="G42" s="61"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H43" s="90" t="s">
+      <c r="G43" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="48"/>
@@ -5339,12 +5368,14 @@
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
-      <c r="G44" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="50"/>
+      <c r="G44" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="84" t="s">
+        <v>172</v>
+      </c>
       <c r="I44" s="48"/>
-      <c r="J44" s="77"/>
+      <c r="J44" s="71"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="48"/>
@@ -5353,14 +5384,12 @@
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
-      <c r="G45" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="56"/>
+      <c r="G45" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="50"/>
       <c r="I45" s="48"/>
-      <c r="J45" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="J45" s="71"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="48"/>
@@ -5369,15 +5398,13 @@
       <c r="D46" s="48"/>
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
-      <c r="G46" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="H46" s="53"/>
-      <c r="I46" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="78" t="s">
-        <v>298</v>
+      <c r="G46" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="56"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5387,13 +5414,15 @@
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
-      <c r="G47" s="75" t="s">
-        <v>213</v>
+      <c r="G47" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="H47" s="53"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="78" t="s">
-        <v>261</v>
+      <c r="I47" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J47" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5403,15 +5432,13 @@
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="75" t="s">
-        <v>185</v>
+      <c r="G48" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="H48" s="53"/>
-      <c r="I48" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="J48" s="78" t="s">
-        <v>261</v>
+      <c r="I48" s="48"/>
+      <c r="J48" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5421,39 +5448,51 @@
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
-      <c r="G49" s="75" t="s">
-        <v>186</v>
+      <c r="G49" s="69" t="s">
+        <v>173</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="J49" s="78" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" thickBot="1">
+        <v>99</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
-      <c r="G50" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="54"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="81" t="s">
-        <v>261</v>
+      <c r="G50" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="I50" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="72" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" thickBot="1">
+      <c r="G51" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="54"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5465,7 +5504,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{516E6F7D-20E1-4F3C-BB23-91F084FFA7DA}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!#REF!</xm:f>
@@ -5476,13 +5515,19 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$G$16:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 H7 H15 H24 H36 H44</xm:sqref>
+          <xm:sqref>B6 H7 H16 H25 H37 H45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{31C19637-AA6D-4C23-B08C-C857FAD81443}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>B7 H8 H16 H25 H37 H45</xm:sqref>
+          <xm:sqref>B7 H17 H26 H38 H46 H8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{FEC24CB8-9E2B-476F-B3B5-F5AF60A2C8E5}">
+          <x14:formula1>
+            <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>H9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5508,97 +5553,97 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="21" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="102" t="s">
-        <v>203</v>
+      <c r="A4" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="103" t="s">
-        <v>197</v>
+      <c r="A5" s="97" t="s">
+        <v>185</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="103" t="s">
-        <v>199</v>
+      <c r="A6" s="97" t="s">
+        <v>187</v>
       </c>
       <c r="B6" s="49">
         <v>80</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="93" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="103" t="s">
-        <v>200</v>
+      <c r="A7" s="97" t="s">
+        <v>188</v>
       </c>
       <c r="B7" s="49">
         <v>1500</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="93" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="103" t="s">
-        <v>201</v>
+      <c r="A8" s="97" t="s">
+        <v>189</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" s="99"/>
+        <v>343</v>
+      </c>
+      <c r="C8" s="93"/>
       <c r="D8" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="103" t="s">
-        <v>202</v>
+      <c r="A9" s="97" t="s">
+        <v>190</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5608,40 +5653,40 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="102" t="s">
-        <v>204</v>
+      <c r="A11" s="96" t="s">
+        <v>192</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="103" t="s">
-        <v>198</v>
+      <c r="A12" s="97" t="s">
+        <v>186</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="103" t="s">
-        <v>330</v>
+      <c r="A13" s="97" t="s">
+        <v>315</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="103" t="s">
-        <v>331</v>
+      <c r="A14" s="97" t="s">
+        <v>316</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5650,27 +5695,27 @@
         <v>4</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="103" t="s">
-        <v>332</v>
+      <c r="A15" s="97" t="s">
+        <v>317</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="103" t="s">
-        <v>333</v>
+      <c r="A16" s="97" t="s">
+        <v>318</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5680,67 +5725,67 @@
       <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="104" t="s">
-        <v>165</v>
+      <c r="A18" s="98" t="s">
+        <v>153</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="103" t="s">
-        <v>335</v>
+      <c r="A19" s="97" t="s">
+        <v>320</v>
       </c>
       <c r="B19" s="49">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="97" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="103" t="s">
-        <v>334</v>
+      <c r="A20" s="97" t="s">
+        <v>319</v>
       </c>
       <c r="B20" s="49"/>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="97" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="48" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B21" s="49"/>
-      <c r="C21" s="103"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="48" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B22" s="49"/>
-      <c r="C22" s="103"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="48" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B23" s="49"/>
-      <c r="C23" s="103"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="48" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5806,9 +5851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5821,27 +5866,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="G1" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5849,7 +5894,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="G3" s="29" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3"/>
@@ -5862,132 +5907,134 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="G5" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>196</v>
+      <c r="G5" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="G6" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>210</v>
+      <c r="G6" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="I6" s="48"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>188</v>
+      <c r="A7" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="90" t="s">
-        <v>210</v>
+      <c r="A8" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="C8" s="48"/>
-      <c r="D8" s="77"/>
-      <c r="G8" s="75" t="s">
-        <v>187</v>
+      <c r="D8" s="71"/>
+      <c r="G8" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="78" t="s">
-        <v>298</v>
+      <c r="J8" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="75" t="s">
-        <v>188</v>
+      <c r="A9" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
       </c>
       <c r="C9" s="48"/>
-      <c r="D9" s="77"/>
-      <c r="G9" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="H9" s="53"/>
+      <c r="D9" s="71"/>
+      <c r="G9" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>230</v>
+      </c>
       <c r="I9" s="48"/>
-      <c r="J9" s="78" t="s">
-        <v>298</v>
+      <c r="J9" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="75" t="s">
-        <v>187</v>
+      <c r="A10" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C10" s="48"/>
-      <c r="D10" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>190</v>
+      <c r="D10" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="78" t="s">
-        <v>298</v>
+      <c r="J10" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="75" t="s">
-        <v>369</v>
+      <c r="A11" s="69" t="s">
+        <v>354</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C11" s="48"/>
-      <c r="D11" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>191</v>
+      <c r="D11" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>298</v>
+        <v>127</v>
+      </c>
+      <c r="J11" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A12" s="75" t="s">
-        <v>190</v>
+      <c r="A12" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="B12" s="53">
         <v>25</v>
@@ -5995,56 +6042,56 @@
       <c r="C12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" s="91" t="s">
-        <v>189</v>
+      <c r="D12" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="H12" s="54"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="81" t="s">
-        <v>261</v>
+      <c r="I12" s="86"/>
+      <c r="J12" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A13" s="75" t="s">
-        <v>191</v>
+      <c r="A13" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="B13" s="53">
         <v>15</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="93"/>
+        <v>127</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" s="87"/>
       <c r="H13" s="48"/>
       <c r="I13" s="61"/>
       <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A14" s="91" t="s">
-        <v>189</v>
+      <c r="A14" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>196</v>
+      <c r="C14" s="86"/>
+      <c r="D14" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6052,121 +6099,121 @@
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
-      <c r="G15" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15" s="90" t="s">
-        <v>212</v>
+      <c r="G15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="84" t="s">
+        <v>200</v>
       </c>
       <c r="I15" s="48"/>
-      <c r="J15" s="77"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
-      <c r="G16" s="75" t="s">
-        <v>188</v>
+      <c r="G16" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
-      <c r="J16" s="77"/>
+      <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="75" t="s">
-        <v>191</v>
+      <c r="A17" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="78" t="s">
-        <v>298</v>
+        <v>127</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>212</v>
+      <c r="A18" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>200</v>
       </c>
       <c r="C18" s="48"/>
-      <c r="D18" s="77"/>
-      <c r="G18" s="75" t="s">
-        <v>213</v>
+      <c r="D18" s="71"/>
+      <c r="G18" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48"/>
-      <c r="J18" s="78" t="s">
-        <v>261</v>
+      <c r="J18" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="75" t="s">
-        <v>188</v>
+      <c r="A19" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="B19" s="50">
         <v>2</v>
       </c>
       <c r="C19" s="48"/>
-      <c r="D19" s="77"/>
-      <c r="G19" s="75" t="s">
-        <v>186</v>
+      <c r="D19" s="71"/>
+      <c r="G19" s="69" t="s">
+        <v>174</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>261</v>
+        <v>100</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="75" t="s">
-        <v>191</v>
+      <c r="A20" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="B20" s="53">
         <v>30</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>189</v>
+        <v>127</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="H20" s="54"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="81" t="s">
-        <v>261</v>
+      <c r="I20" s="86"/>
+      <c r="J20" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="75" t="s">
-        <v>213</v>
+      <c r="A21" s="69" t="s">
+        <v>201</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C21" s="48"/>
-      <c r="D21" s="78" t="s">
-        <v>261</v>
+      <c r="D21" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -6174,174 +6221,182 @@
       <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="75" t="s">
-        <v>186</v>
+      <c r="A22" s="69" t="s">
+        <v>174</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="74" t="s">
-        <v>196</v>
+      <c r="D22" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="91" t="s">
-        <v>189</v>
+      <c r="A23" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>215</v>
+      <c r="C23" s="86"/>
+      <c r="D23" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>203</v>
       </c>
       <c r="I23" s="48"/>
-      <c r="J23" s="77"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
-      <c r="G24" s="75" t="s">
-        <v>188</v>
+      <c r="G24" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="77"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
-      <c r="G25" s="75" t="s">
-        <v>187</v>
+      <c r="G25" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="78" t="s">
-        <v>298</v>
+      <c r="J25" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="50"/>
+      <c r="A26" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>405</v>
+      </c>
       <c r="I26" s="48"/>
-      <c r="J26" s="78" t="s">
-        <v>298</v>
+      <c r="J26" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>215</v>
+      <c r="A27" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>203</v>
       </c>
       <c r="C27" s="48"/>
-      <c r="D27" s="77"/>
-      <c r="G27" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="D27" s="71"/>
+      <c r="G27" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="53" t="str">
+        <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
+        <v>octyltrichlorosilane</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="72"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="75" t="s">
-        <v>188</v>
+      <c r="A28" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="B28" s="50">
         <v>3</v>
       </c>
       <c r="C28" s="48"/>
-      <c r="D28" s="77"/>
-      <c r="G28" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="J28" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A29" s="75" t="s">
-        <v>187</v>
+      <c r="D28" s="71"/>
+      <c r="G28" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" s="53">
+        <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
+        <v>21354</v>
+      </c>
+      <c r="I28" s="48"/>
+      <c r="J28" s="72"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C29" s="48"/>
-      <c r="D29" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A30" s="75" t="s">
-        <v>215</v>
+      <c r="D29" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="53"/>
+      <c r="I29" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="69" t="s">
+        <v>203</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="75" t="s">
-        <v>190</v>
+      <c r="D30" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="53"/>
+      <c r="I30" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A31" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="B31" s="53">
         <v>25</v>
@@ -6349,130 +6404,146 @@
       <c r="C31" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G31" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J31" s="74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="75" t="s">
-        <v>191</v>
+      <c r="D31" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A32" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="B32" s="53">
         <v>8</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G32" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>217</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="D32" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="48"/>
-      <c r="J32" s="77"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A33" s="91" t="s">
-        <v>189</v>
+      <c r="A33" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="G33" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="77"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="G34" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" s="53"/>
+      <c r="G34" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>204</v>
+      </c>
       <c r="I34" s="48"/>
-      <c r="J34" s="78" t="s">
-        <v>298</v>
-      </c>
+      <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="G35" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="48" t="s">
+      <c r="G35" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="50"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="71"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="G36" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="53"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="G37" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="53"/>
+      <c r="I37" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="G36" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="G37" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="H37" s="69"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="77" t="s">
-        <v>261</v>
+      <c r="J37" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="G38" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="77" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G39" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="81" t="s">
-        <v>261</v>
+      <c r="G38" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="G39" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="63"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="G40" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="63"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+      <c r="G41" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6483,13 +6554,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB212A2E-343E-405B-BB66-03095B3EB57D}">
-          <x14:formula1>
-            <xm:f>'Dropdown Items'!$H$32:$H$36</xm:f>
-          </x14:formula1>
-          <xm:sqref>H26</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{68149A0C-A220-4E64-BFBE-2735CA070B2D}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
@@ -6500,19 +6565,31 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$G$16:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B9 H16 H24 H33 H7 B19 B28</xm:sqref>
+          <xm:sqref>B9 H16 H24 H35 H7 B19 B28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C92B0664-7E77-4AD9-9D78-A9912FEAF99B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
+          <xm:sqref>B11 H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E4977031-504F-408B-9CAC-F7DD8C575A61}">
           <x14:formula1>
-            <xm:f>'Dropdown Items'!$H$32:$H$36</xm:f>
+            <xm:f>'Dropdown Items'!$I$32:$I$36</xm:f>
           </x14:formula1>
           <xm:sqref>B30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{BB212A2E-343E-405B-BB66-03095B3EB57D}">
+          <x14:formula1>
+            <xm:f>'Dropdown Items'!$H$32:$H$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>H26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{608CDF99-375A-47E3-B685-2E89DEFD2400}">
+          <x14:formula1>
+            <xm:f>'Dropdown Items'!$I$32:$I$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>H27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6524,8 +6601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6542,26 +6619,26 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
+        <v>184</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6571,7 +6648,7 @@
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="34"/>
       <c r="F3" s="29" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="3"/>
@@ -6579,187 +6656,187 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="F4" s="33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="74" t="s">
-        <v>196</v>
+        <v>112</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="76" t="s">
-        <v>226</v>
+      <c r="A6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="77"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>226</v>
+      <c r="A7" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>213</v>
       </c>
       <c r="C7" s="48"/>
-      <c r="D7" s="77"/>
-      <c r="F7" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="94"/>
+      <c r="D7" s="71"/>
+      <c r="F7" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="88"/>
       <c r="H7" s="48"/>
-      <c r="I7" s="77" t="s">
-        <v>298</v>
+      <c r="I7" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="94"/>
+      <c r="A8" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="88"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>229</v>
+      <c r="D8" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>216</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="77" t="s">
-        <v>298</v>
+      <c r="I8" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="75" t="s">
-        <v>229</v>
+      <c r="A9" s="69" t="s">
+        <v>216</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>230</v>
+      <c r="D9" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>217</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>298</v>
+        <v>126</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="75" t="s">
-        <v>230</v>
+      <c r="A10" s="69" t="s">
+        <v>217</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>236</v>
+        <v>126</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>223</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>298</v>
+        <v>224</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>283</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="75" t="s">
-        <v>190</v>
+      <c r="A11" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>190</v>
+      <c r="D11" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="77" t="s">
-        <v>298</v>
+      <c r="I11" s="71" t="s">
+        <v>283</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="75" t="s">
-        <v>231</v>
+      <c r="A12" s="69" t="s">
+        <v>218</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>231</v>
+      <c r="D12" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>218</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="48"/>
-      <c r="I12" s="77" t="s">
-        <v>298</v>
+      <c r="I12" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="79" t="s">
-        <v>189</v>
+      <c r="A13" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="B13" s="54"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="95" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>189</v>
+      <c r="C13" s="74"/>
+      <c r="D13" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="G13" s="54"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="95" t="s">
-        <v>261</v>
+      <c r="H13" s="74"/>
+      <c r="I13" s="89" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -6769,336 +6846,336 @@
       <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="F15" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97" t="s">
+      <c r="F15" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="98" t="s">
-        <v>196</v>
+      <c r="I15" s="92" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="F16" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>228</v>
+      <c r="F16" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>215</v>
       </c>
       <c r="H16" s="48"/>
-      <c r="I16" s="77"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="6:10">
-      <c r="F17" s="75" t="s">
-        <v>187</v>
+      <c r="F17" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="48"/>
-      <c r="I17" s="77" t="s">
-        <v>298</v>
+      <c r="I17" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="6:10">
-      <c r="F18" s="75" t="s">
-        <v>232</v>
+      <c r="F18" s="69" t="s">
+        <v>219</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="I18" s="77" t="s">
-        <v>298</v>
+        <v>376</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="6:10">
-      <c r="F19" s="75" t="s">
-        <v>233</v>
+      <c r="F19" s="69" t="s">
+        <v>220</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="48"/>
-      <c r="I19" s="77" t="s">
-        <v>298</v>
+      <c r="I19" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="6:10">
-      <c r="F20" s="75" t="s">
-        <v>234</v>
+      <c r="F20" s="69" t="s">
+        <v>221</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="48"/>
-      <c r="I20" s="77" t="s">
-        <v>261</v>
+      <c r="I20" s="71" t="s">
+        <v>248</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="6:10">
-      <c r="F21" s="75" t="s">
-        <v>235</v>
+      <c r="F21" s="69" t="s">
+        <v>222</v>
       </c>
       <c r="G21" s="53"/>
-      <c r="H21" s="99" t="s">
+      <c r="H21" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="77" t="s">
-        <v>298</v>
+      <c r="I21" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="6:10">
-      <c r="F22" s="75" t="s">
-        <v>190</v>
+      <c r="F22" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="77" t="s">
-        <v>298</v>
+      <c r="I22" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="6:10">
-      <c r="F23" s="75" t="s">
-        <v>185</v>
+      <c r="F23" s="69" t="s">
+        <v>173</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="77" t="s">
-        <v>298</v>
+        <v>108</v>
+      </c>
+      <c r="I23" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="6:10">
-      <c r="F24" s="75" t="s">
-        <v>364</v>
+      <c r="F24" s="69" t="s">
+        <v>349</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
-      <c r="I24" s="77" t="s">
-        <v>298</v>
+      <c r="I24" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="6:10">
-      <c r="F25" s="75" t="s">
-        <v>236</v>
+      <c r="F25" s="69" t="s">
+        <v>223</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>298</v>
+        <v>224</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="6:10">
-      <c r="F26" s="75" t="s">
-        <v>362</v>
+      <c r="F26" s="69" t="s">
+        <v>347</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
-      <c r="I26" s="77" t="s">
-        <v>298</v>
+      <c r="I26" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F27" s="79" t="s">
-        <v>189</v>
+      <c r="F27" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="G27" s="54"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="95" t="s">
-        <v>261</v>
+      <c r="H27" s="74"/>
+      <c r="I27" s="89" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
-      <c r="F28" s="100"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="61"/>
     </row>
     <row r="29" spans="6:10" ht="15.75">
-      <c r="F29" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>196</v>
+      <c r="F29" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="6:10">
-      <c r="F30" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" s="76" t="s">
-        <v>227</v>
+      <c r="F30" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>214</v>
       </c>
       <c r="H30" s="48"/>
-      <c r="I30" s="77"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="6:10">
-      <c r="F31" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" s="94"/>
+      <c r="F31" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="88"/>
       <c r="H31" s="48"/>
-      <c r="I31" s="77" t="s">
-        <v>298</v>
+      <c r="I31" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F32" s="79" t="s">
-        <v>236</v>
+      <c r="F32" s="73" t="s">
+        <v>223</v>
       </c>
       <c r="G32" s="54"/>
-      <c r="H32" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="I32" s="95" t="s">
-        <v>298</v>
+      <c r="H32" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
       <c r="F33" s="61"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
     </row>
     <row r="34" spans="6:10" ht="15.75">
-      <c r="F34" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97" t="s">
+      <c r="F34" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="98" t="s">
-        <v>196</v>
+      <c r="I34" s="92" t="s">
+        <v>184</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="6:10">
-      <c r="F35" s="75" t="s">
-        <v>225</v>
+      <c r="F35" s="69" t="s">
+        <v>212</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="48"/>
-      <c r="I35" s="77"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="6:10">
-      <c r="F36" s="75" t="s">
-        <v>187</v>
+      <c r="F36" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="48"/>
-      <c r="I36" s="77" t="s">
-        <v>298</v>
+      <c r="I36" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="6:10">
-      <c r="F37" s="75" t="s">
-        <v>232</v>
+      <c r="F37" s="69" t="s">
+        <v>219</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="I37" s="77" t="s">
-        <v>298</v>
+        <v>376</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="6:10">
-      <c r="F38" s="75" t="s">
-        <v>190</v>
+      <c r="F38" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="77" t="s">
-        <v>298</v>
+      <c r="I38" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="6:10">
-      <c r="F39" s="75" t="s">
-        <v>362</v>
+      <c r="F39" s="69" t="s">
+        <v>347</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
-      <c r="I39" s="77" t="s">
-        <v>298</v>
+      <c r="I39" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="6:10">
-      <c r="F40" s="75" t="s">
-        <v>189</v>
+      <c r="F40" s="69" t="s">
+        <v>177</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="77" t="s">
-        <v>261</v>
+      <c r="I40" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="6:10">
-      <c r="F41" s="75" t="s">
-        <v>236</v>
+      <c r="F41" s="69" t="s">
+        <v>223</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I41" s="77" t="s">
-        <v>298</v>
+        <v>224</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="6:10">
-      <c r="F42" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="G42" s="69"/>
+      <c r="F42" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="63"/>
       <c r="H42" s="48"/>
-      <c r="I42" s="77" t="s">
-        <v>298</v>
+      <c r="I42" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="6:10">
-      <c r="F43" s="75" t="s">
-        <v>300</v>
+      <c r="F43" s="69" t="s">
+        <v>285</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="48"/>
-      <c r="I43" s="77" t="s">
-        <v>298</v>
+      <c r="I43" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="6:10">
-      <c r="F44" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="69"/>
+      <c r="F44" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="63"/>
       <c r="H44" s="48"/>
-      <c r="I44" s="77" t="s">
-        <v>261</v>
+      <c r="I44" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F45" s="79" t="s">
-        <v>239</v>
+      <c r="F45" s="73" t="s">
+        <v>226</v>
       </c>
       <c r="G45" s="54"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="95" t="s">
-        <v>261</v>
+      <c r="H45" s="74"/>
+      <c r="I45" s="89" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7140,7 +7217,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7155,27 +7232,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="G1" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7183,7 +7260,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="G3" s="29" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3"/>
@@ -7191,7 +7268,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -7203,84 +7280,84 @@
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="41"/>
-      <c r="G5" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>196</v>
+      <c r="G5" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="25"/>
       <c r="B6" s="40"/>
       <c r="D6" s="42"/>
-      <c r="G6" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>224</v>
+      <c r="G6" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>211</v>
       </c>
       <c r="I6" s="48"/>
-      <c r="J6" s="77"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="25"/>
       <c r="B7" s="50"/>
       <c r="D7" s="42"/>
-      <c r="G7" s="75" t="s">
-        <v>188</v>
+      <c r="G7" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
-      <c r="J7" s="77"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="25"/>
       <c r="B8" s="56"/>
       <c r="D8" s="43"/>
-      <c r="G8" s="75" t="s">
-        <v>187</v>
+      <c r="G8" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="78" t="s">
-        <v>298</v>
+      <c r="J8" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="25"/>
       <c r="B9" s="12"/>
       <c r="D9" s="43"/>
-      <c r="G9" s="75" t="s">
-        <v>190</v>
+      <c r="G9" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="78" t="s">
-        <v>298</v>
+      <c r="J9" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="25"/>
       <c r="B10" s="12"/>
       <c r="D10" s="43"/>
-      <c r="G10" s="75" t="s">
-        <v>191</v>
+      <c r="G10" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="J10" s="78" t="s">
-        <v>298</v>
+        <v>391</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -7288,105 +7365,105 @@
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="44"/>
-      <c r="G11" s="91" t="s">
-        <v>189</v>
+      <c r="G11" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="81" t="s">
-        <v>261</v>
+      <c r="I11" s="86"/>
+      <c r="J11" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G12" s="93"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="48"/>
       <c r="I12" s="61"/>
       <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="G13" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>196</v>
+      <c r="G13" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="G14" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>210</v>
+      <c r="G14" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="I14" s="48"/>
-      <c r="J14" s="77"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="G15" s="75" t="s">
-        <v>188</v>
+      <c r="G15" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="48"/>
-      <c r="J15" s="77"/>
+      <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="G16" s="75" t="s">
-        <v>187</v>
+      <c r="G16" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="48"/>
-      <c r="J16" s="78" t="s">
-        <v>298</v>
+      <c r="J16" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="75" t="s">
-        <v>363</v>
+      <c r="G17" s="69" t="s">
+        <v>348</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="78" t="s">
-        <v>298</v>
+      <c r="J17" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="7:10">
-      <c r="G18" s="75" t="s">
-        <v>190</v>
+      <c r="G18" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="78" t="s">
-        <v>298</v>
+      <c r="J18" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="7:10">
-      <c r="G19" s="75" t="s">
-        <v>191</v>
+      <c r="G19" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>298</v>
+        <v>127</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
-      <c r="G20" s="91" t="s">
-        <v>189</v>
+      <c r="G20" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="H20" s="54"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="81" t="s">
-        <v>261</v>
+      <c r="I20" s="86"/>
+      <c r="J20" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
@@ -7396,95 +7473,95 @@
       <c r="J21" s="48"/>
     </row>
     <row r="22" spans="7:10" ht="15.75">
-      <c r="G22" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="74" t="s">
-        <v>196</v>
+      <c r="G22" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="7:10">
-      <c r="G23" s="75" t="s">
-        <v>180</v>
+      <c r="G23" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I23" s="48"/>
-      <c r="J23" s="77"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="7:10">
-      <c r="G24" s="75" t="s">
-        <v>188</v>
+      <c r="G24" s="69" t="s">
+        <v>176</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="77"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" spans="7:10">
-      <c r="G25" s="75" t="s">
-        <v>187</v>
+      <c r="G25" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="77" t="s">
-        <v>298</v>
+      <c r="J25" s="71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="75" t="s">
-        <v>218</v>
+      <c r="G26" s="69" t="s">
+        <v>205</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="48"/>
-      <c r="J26" s="78" t="s">
-        <v>298</v>
+      <c r="J26" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="7:10">
-      <c r="G27" s="75" t="s">
-        <v>219</v>
+      <c r="G27" s="69" t="s">
+        <v>206</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="78" t="s">
-        <v>298</v>
+      <c r="J27" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="75" t="s">
-        <v>220</v>
+      <c r="G28" s="69" t="s">
+        <v>207</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="78" t="s">
-        <v>298</v>
+      <c r="J28" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="16.5" thickBot="1">
-      <c r="G29" s="91" t="s">
-        <v>189</v>
+      <c r="G29" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="H29" s="54"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="81" t="s">
-        <v>261</v>
+      <c r="I29" s="86"/>
+      <c r="J29" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7518,8 +7595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7535,32 +7612,32 @@
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G1"/>
-      <c r="H1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="H1" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B2" s="13"/>
       <c r="F2" s="3"/>
@@ -7574,7 +7651,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
@@ -7582,7 +7659,7 @@
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B4" s="2"/>
       <c r="F4" s="33"/>
@@ -7592,182 +7669,182 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="H5" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83" t="s">
+      <c r="H5" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="79" t="s">
         <v>256</v>
-      </c>
-      <c r="L5" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="M5" s="84" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75">
-      <c r="A6" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="85" t="s">
-        <v>269</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="78"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A7" s="85" t="s">
-        <v>269</v>
+      <c r="A7" s="79" t="s">
+        <v>256</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="78"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
+      <c r="A8" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="69" t="s">
         <v>247</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>365</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="77"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A8" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="75" t="s">
-        <v>260</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="77" t="s">
-        <v>258</v>
+      <c r="L8" s="80"/>
+      <c r="M8" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A9" s="75" t="s">
-        <v>260</v>
+      <c r="A9" s="69" t="s">
+        <v>247</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
-      <c r="F9" s="77" t="s">
-        <v>258</v>
+      <c r="F9" s="71" t="s">
+        <v>248</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="75" t="s">
-        <v>253</v>
+      <c r="H9" s="69" t="s">
+        <v>240</v>
       </c>
       <c r="I9" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
-      <c r="M9" s="77" t="s">
-        <v>258</v>
+      <c r="M9" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="75" t="s">
-        <v>253</v>
+      <c r="A10" s="69" t="s">
+        <v>240</v>
       </c>
       <c r="B10" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D10" s="49">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>262</v>
+        <v>378</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="77" t="s">
-        <v>261</v>
+        <v>143</v>
+      </c>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="87" t="s">
-        <v>262</v>
+      <c r="A11" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="77" t="s">
-        <v>261</v>
+        <v>143</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="71" t="s">
+        <v>248</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="75" t="s">
-        <v>251</v>
+      <c r="H11" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
       <c r="L11" s="50"/>
-      <c r="M11" s="77" t="s">
-        <v>258</v>
+      <c r="M11" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="75" t="s">
-        <v>251</v>
+      <c r="A12" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="B12" s="53">
         <v>-10</v>
@@ -7777,37 +7854,37 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F12" s="77" t="s">
-        <v>258</v>
+        <v>379</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="75" t="s">
-        <v>252</v>
+      <c r="H12" s="69" t="s">
+        <v>239</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="48"/>
       <c r="K12" s="49"/>
       <c r="L12" s="50"/>
-      <c r="M12" s="77" t="s">
-        <v>258</v>
+      <c r="M12" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A13" s="75" t="s">
-        <v>252</v>
+      <c r="A13" s="69" t="s">
+        <v>239</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
       <c r="E13" s="50"/>
-      <c r="F13" s="77" t="s">
-        <v>258</v>
+      <c r="F13" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="75" t="s">
-        <v>268</v>
+      <c r="H13" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="48" t="s">
@@ -7815,13 +7892,13 @@
       </c>
       <c r="K13" s="49"/>
       <c r="L13" s="50"/>
-      <c r="M13" s="77" t="s">
-        <v>258</v>
+      <c r="M13" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="75" t="s">
-        <v>268</v>
+      <c r="A14" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="48" t="s">
@@ -7829,71 +7906,71 @@
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="75"/>
+      <c r="F14" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="69"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
-      <c r="M14" s="78"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="1:13" ht="15.75">
-      <c r="A15" s="75"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
-      <c r="F15" s="78"/>
-      <c r="H15" s="85" t="s">
-        <v>270</v>
+      <c r="F15" s="72"/>
+      <c r="H15" s="79" t="s">
+        <v>257</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
-      <c r="M15" s="78"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="85" t="s">
-        <v>270</v>
+      <c r="A16" s="79" t="s">
+        <v>257</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="78"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="75" t="s">
-        <v>187</v>
+      <c r="H16" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
-      <c r="M16" s="77" t="s">
-        <v>261</v>
+      <c r="M16" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="75" t="s">
-        <v>187</v>
+      <c r="A17" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="77" t="s">
-        <v>261</v>
+      <c r="F17" s="71" t="s">
+        <v>248</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="75" t="s">
-        <v>190</v>
+      <c r="H17" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="48" t="s">
@@ -7901,13 +7978,13 @@
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="77" t="s">
-        <v>261</v>
+      <c r="M17" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="75" t="s">
-        <v>190</v>
+      <c r="A18" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
@@ -7915,11 +7992,11 @@
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>263</v>
+      <c r="F18" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="I18" s="53">
         <v>-3</v>
@@ -7929,13 +8006,13 @@
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
-      <c r="M18" s="78" t="s">
-        <v>261</v>
+      <c r="M18" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A19" s="75" t="s">
-        <v>263</v>
+      <c r="A19" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="B19" s="53">
         <v>-3</v>
@@ -7945,12 +8022,12 @@
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="78" t="s">
-        <v>261</v>
+      <c r="F19" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="G19"/>
-      <c r="H19" s="75" t="s">
-        <v>264</v>
+      <c r="H19" s="69" t="s">
+        <v>251</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="48" t="s">
@@ -7958,13 +8035,13 @@
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
-      <c r="M19" s="78" t="s">
-        <v>261</v>
+      <c r="M19" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A20" s="75" t="s">
-        <v>264</v>
+      <c r="A20" s="69" t="s">
+        <v>251</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="48" t="s">
@@ -7972,164 +8049,164 @@
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="78" t="s">
-        <v>261</v>
+      <c r="F20" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="75" t="s">
-        <v>213</v>
+      <c r="H20" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
-      <c r="M20" s="78" t="s">
-        <v>261</v>
+      <c r="M20" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="75" t="s">
-        <v>213</v>
+      <c r="A21" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
-      <c r="F21" s="78" t="s">
-        <v>261</v>
+      <c r="F21" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="75" t="s">
-        <v>205</v>
+      <c r="H21" s="69" t="s">
+        <v>193</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
-      <c r="M21" s="78" t="s">
-        <v>261</v>
+      <c r="M21" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="75" t="s">
-        <v>205</v>
+      <c r="A22" s="69" t="s">
+        <v>193</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
-      <c r="F22" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>206</v>
+      <c r="F22" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="69" t="s">
+        <v>194</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
-      <c r="M22" s="78" t="s">
-        <v>261</v>
+      <c r="M22" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="75" t="s">
-        <v>206</v>
+      <c r="A23" s="69" t="s">
+        <v>194</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H23" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="I23" s="69"/>
+      <c r="F23" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" s="63"/>
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="78" t="s">
-        <v>261</v>
+      <c r="M23" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="69"/>
+      <c r="A24" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="63"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="78" t="s">
-        <v>261</v>
+      <c r="F24" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="I24" s="69"/>
+        <v>266</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="I24" s="63"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
-      <c r="M24" s="78" t="s">
-        <v>261</v>
+      <c r="M24" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="69"/>
+      <c r="A25" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="63"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
-      <c r="F25" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>189</v>
+      <c r="F25" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="I25" s="54"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="81" t="s">
-        <v>261</v>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A26" s="79" t="s">
-        <v>189</v>
+      <c r="A26" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81" t="s">
-        <v>261</v>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75" t="s">
+        <v>248</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="G28" s="3"/>
@@ -8142,21 +8219,21 @@
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G29" s="3"/>
-      <c r="H29" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83" t="s">
+      <c r="H29" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="K29" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="L29" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="M29" s="84" t="s">
-        <v>196</v>
+      <c r="K29" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="78" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8167,27 +8244,27 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="85" t="s">
-        <v>269</v>
+      <c r="H30" s="79" t="s">
+        <v>256</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
-      <c r="M30" s="78"/>
+      <c r="M30" s="72"/>
     </row>
     <row r="31" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="F31" s="33"/>
-      <c r="H31" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="I31" s="76" t="s">
-        <v>366</v>
+      <c r="H31" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>351</v>
       </c>
       <c r="J31" s="48"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="77"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="71"/>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A32"/>
@@ -8197,69 +8274,69 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="75" t="s">
-        <v>260</v>
+      <c r="H32" s="69" t="s">
+        <v>247</v>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
-      <c r="M32" s="77" t="s">
-        <v>258</v>
+      <c r="M32" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G33" s="3"/>
-      <c r="H33" s="75" t="s">
-        <v>253</v>
+      <c r="H33" s="69" t="s">
+        <v>240</v>
       </c>
       <c r="I33" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="50"/>
-      <c r="M33" s="77" t="s">
-        <v>258</v>
+      <c r="M33" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G34" s="3"/>
-      <c r="H34" s="87" t="s">
-        <v>262</v>
+      <c r="H34" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="I34" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="88"/>
+        <v>143</v>
+      </c>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="H35" s="75" t="s">
-        <v>251</v>
+      <c r="H35" s="69" t="s">
+        <v>238</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="48"/>
       <c r="K35" s="49"/>
       <c r="L35" s="50"/>
-      <c r="M35" s="77" t="s">
-        <v>258</v>
+      <c r="M35" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="H36" s="75" t="s">
-        <v>252</v>
+      <c r="H36" s="69" t="s">
+        <v>239</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="48"/>
       <c r="K36" s="49"/>
       <c r="L36" s="50"/>
-      <c r="M36" s="77" t="s">
-        <v>258</v>
+      <c r="M36" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8270,8 +8347,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="75" t="s">
-        <v>268</v>
+      <c r="H37" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="48" t="s">
@@ -8279,8 +8356,8 @@
       </c>
       <c r="K37" s="49"/>
       <c r="L37" s="50"/>
-      <c r="M37" s="77" t="s">
-        <v>258</v>
+      <c r="M37" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -8291,12 +8368,12 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="75"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
-      <c r="M38" s="78"/>
+      <c r="M38" s="72"/>
     </row>
     <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="8"/>
@@ -8305,28 +8382,28 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="H39" s="85" t="s">
-        <v>270</v>
+      <c r="H39" s="79" t="s">
+        <v>257</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
-      <c r="M39" s="78"/>
+      <c r="M39" s="72"/>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G40"/>
-      <c r="H40" s="75" t="s">
-        <v>187</v>
+      <c r="H40" s="69" t="s">
+        <v>175</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
-      <c r="M40" s="77" t="s">
-        <v>261</v>
+      <c r="M40" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -8336,8 +8413,8 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="H41" s="75" t="s">
-        <v>190</v>
+      <c r="H41" s="69" t="s">
+        <v>178</v>
       </c>
       <c r="I41" s="53"/>
       <c r="J41" s="48" t="s">
@@ -8345,8 +8422,8 @@
       </c>
       <c r="K41" s="48"/>
       <c r="L41" s="48"/>
-      <c r="M41" s="77" t="s">
-        <v>261</v>
+      <c r="M41" s="71" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8356,8 +8433,8 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="H42" s="75" t="s">
-        <v>263</v>
+      <c r="H42" s="69" t="s">
+        <v>250</v>
       </c>
       <c r="I42" s="53">
         <v>-3</v>
@@ -8367,14 +8444,14 @@
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
-      <c r="M42" s="78" t="s">
-        <v>261</v>
+      <c r="M42" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G43" s="3"/>
-      <c r="H43" s="75" t="s">
-        <v>264</v>
+      <c r="H43" s="69" t="s">
+        <v>251</v>
       </c>
       <c r="I43" s="53"/>
       <c r="J43" s="48" t="s">
@@ -8382,8 +8459,8 @@
       </c>
       <c r="K43" s="48"/>
       <c r="L43" s="48"/>
-      <c r="M43" s="78" t="s">
-        <v>261</v>
+      <c r="M43" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8394,17 +8471,17 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="75" t="s">
-        <v>213</v>
+      <c r="H44" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I44" s="53" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
-      <c r="M44" s="78" t="s">
-        <v>261</v>
+      <c r="M44" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8415,15 +8492,15 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="75" t="s">
-        <v>205</v>
+      <c r="H45" s="69" t="s">
+        <v>193</v>
       </c>
       <c r="I45" s="53"/>
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
-      <c r="M45" s="78" t="s">
-        <v>261</v>
+      <c r="M45" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8433,15 +8510,15 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="75" t="s">
-        <v>206</v>
+      <c r="H46" s="69" t="s">
+        <v>194</v>
       </c>
       <c r="I46" s="53"/>
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
-      <c r="M46" s="78" t="s">
-        <v>261</v>
+      <c r="M46" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8451,15 +8528,15 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
-      <c r="H47" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="I47" s="69"/>
+      <c r="H47" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" s="63"/>
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
       <c r="L47" s="48"/>
-      <c r="M47" s="78" t="s">
-        <v>261</v>
+      <c r="M47" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8468,15 +8545,15 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="H48" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="I48" s="69"/>
+      <c r="H48" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="I48" s="63"/>
       <c r="J48" s="48"/>
       <c r="K48" s="48"/>
       <c r="L48" s="48"/>
-      <c r="M48" s="78" t="s">
-        <v>261</v>
+      <c r="M48" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -8485,15 +8562,15 @@
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="H49" s="79" t="s">
-        <v>189</v>
+      <c r="H49" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="I49" s="54"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="81" t="s">
-        <v>261</v>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8507,10 +8584,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -8555,7 +8632,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{F576FF07-91DD-47FB-9E5A-B5DCBCB1E130}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
@@ -8566,7 +8643,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$B$59:$B$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L11:L13 L16:L17 E17:E18 E12:E14 L40:L41 L35:L37 L32:L33 E9 L9</xm:sqref>
+          <xm:sqref>L11:L13 L16:L17 E17:E18 E12:E14 L40:L41 L35:L37 L32:L33 L9 E9:E10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A804F1F-40D3-43ED-AAA3-2475022AB8DB}">
           <x14:formula1>
@@ -8580,12 +8657,6 @@
           </x14:formula1>
           <xm:sqref>I8 B9 I32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{46C1E28F-953E-4209-9598-96C55CEF3022}">
-          <x14:formula1>
-            <xm:f>'Dropdown Items'!$B$59:$B$61</xm:f>
-          </x14:formula1>
-          <xm:sqref>E10</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -8596,8 +8667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEX120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -8620,34 +8691,34 @@
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+        <v>184</v>
+      </c>
+      <c r="H1" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="H2" s="3"/>
@@ -8657,14 +8728,14 @@
     </row>
     <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="29" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
@@ -8682,42 +8753,42 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
-      <c r="A5" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="73" t="s">
+      <c r="A5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>196</v>
+      <c r="D5" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>184</v>
       </c>
       <c r="G5"/>
-      <c r="H5" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" s="73" t="s">
+      <c r="H5" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="M5" s="74" t="s">
-        <v>196</v>
+      <c r="K5" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>184</v>
       </c>
       <c r="R5"/>
       <c r="Z5"/>
@@ -10767,54 +10838,54 @@
       <c r="XEX5"/>
     </row>
     <row r="6" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A6" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>367</v>
+      <c r="A6" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>352</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="77"/>
-      <c r="H6" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>367</v>
+      <c r="F6" s="71"/>
+      <c r="H6" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>352</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
-      <c r="M6" s="77"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A7" s="75" t="s">
-        <v>282</v>
+      <c r="A7" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>282</v>
+      <c r="F7" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
-      <c r="M7" s="78" t="s">
-        <v>261</v>
+      <c r="M7" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A8" s="75" t="s">
-        <v>296</v>
+      <c r="A8" s="69" t="s">
+        <v>282</v>
       </c>
       <c r="B8" s="49">
         <v>0.54</v>
@@ -10822,112 +10893,112 @@
       <c r="C8" s="48"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>296</v>
+      <c r="F8" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>282</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="48"/>
       <c r="K8" s="49"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="77" t="s">
-        <v>258</v>
+      <c r="M8" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A9" s="75" t="s">
-        <v>288</v>
+      <c r="A9" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="B9" s="49">
         <v>50</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="50"/>
-      <c r="F9" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>288</v>
+      <c r="F9" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="48" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
-      <c r="M9" s="77" t="s">
-        <v>258</v>
+      <c r="M9" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A10" s="75" t="s">
-        <v>289</v>
+      <c r="A10" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="48"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50"/>
-      <c r="F10" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>289</v>
+      <c r="F10" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="I10" s="49"/>
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
       <c r="L10" s="50"/>
-      <c r="M10" s="77" t="s">
-        <v>258</v>
+      <c r="M10" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A11" s="75" t="s">
-        <v>395</v>
+      <c r="A11" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>395</v>
+      <c r="F11" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="I11" s="49"/>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="48"/>
-      <c r="M11" s="78" t="s">
-        <v>261</v>
+      <c r="M11" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
-      <c r="A12" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
-        <v>261</v>
+      <c r="A12" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
@@ -10945,23 +11016,23 @@
       <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="16.5" thickBot="1">
-      <c r="A14" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="73" t="s">
+      <c r="A14" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>196</v>
+      <c r="D14" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>184</v>
       </c>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
@@ -10971,108 +11042,108 @@
       <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
-      <c r="A15" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>284</v>
+      <c r="A15" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>270</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
-      <c r="F15" s="77"/>
-      <c r="H15" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J15" s="73" t="s">
+      <c r="F15" s="71"/>
+      <c r="H15" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="M15" s="74" t="s">
-        <v>196</v>
+      <c r="K15" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A16" s="75" t="s">
-        <v>282</v>
+      <c r="A16" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>368</v>
+      <c r="F16" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>353</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
-      <c r="M16" s="77"/>
+      <c r="M16" s="71"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="75" t="s">
-        <v>397</v>
+      <c r="A17" s="69" t="s">
+        <v>382</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>282</v>
+      <c r="F17" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="78" t="s">
-        <v>261</v>
+      <c r="M17" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="75" t="s">
-        <v>398</v>
+      <c r="A18" s="69" t="s">
+        <v>383</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
       <c r="E18" s="50"/>
-      <c r="F18" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>396</v>
+      <c r="F18" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>381</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="48"/>
       <c r="K18" s="49"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="77" t="s">
-        <v>258</v>
+      <c r="M18" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="75" t="s">
-        <v>399</v>
+      <c r="A19" s="69" t="s">
+        <v>384</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11080,78 +11151,78 @@
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
-      <c r="F19" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>288</v>
+      <c r="F19" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="I19" s="49"/>
       <c r="J19" s="48" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K19" s="49"/>
       <c r="L19" s="50"/>
-      <c r="M19" s="77" t="s">
-        <v>258</v>
+      <c r="M19" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="75" t="s">
-        <v>400</v>
+      <c r="A20" s="69" t="s">
+        <v>385</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H20" s="75" t="s">
-        <v>395</v>
+      <c r="F20" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
-      <c r="M20" s="78" t="s">
-        <v>261</v>
+      <c r="M20" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="75" t="s">
-        <v>401</v>
+      <c r="A21" s="69" t="s">
+        <v>386</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
-      <c r="F21" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81" t="s">
-        <v>261</v>
+      <c r="F21" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="75" t="s">
-        <v>402</v>
+      <c r="A22" s="69" t="s">
+        <v>387</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
       <c r="E22" s="50"/>
-      <c r="F22" s="77" t="s">
-        <v>258</v>
+      <c r="F22" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
@@ -11161,8 +11232,8 @@
       <c r="M22" s="61"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="75" t="s">
-        <v>403</v>
+      <c r="A23" s="69" t="s">
+        <v>388</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11170,8 +11241,8 @@
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="50"/>
-      <c r="F23" s="77" t="s">
-        <v>258</v>
+      <c r="F23" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
@@ -11181,38 +11252,38 @@
       <c r="M23" s="61"/>
     </row>
     <row r="24" spans="1:13" ht="15.75">
-      <c r="A24" s="75" t="s">
-        <v>404</v>
+      <c r="A24" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="50"/>
-      <c r="F24" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H24" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J24" s="73" t="s">
+      <c r="F24" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="L24" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="M24" s="74" t="s">
-        <v>196</v>
+      <c r="K24" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="75" t="s">
-        <v>286</v>
+      <c r="A25" s="69" t="s">
+        <v>272</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="48" t="s">
@@ -11220,55 +11291,55 @@
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
-      <c r="F25" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>285</v>
+      <c r="F25" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>271</v>
       </c>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
-      <c r="M25" s="77"/>
+      <c r="M25" s="71"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="75" t="s">
-        <v>287</v>
+      <c r="A26" s="69" t="s">
+        <v>273</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="75" t="s">
-        <v>282</v>
+      <c r="F26" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I26" s="49"/>
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
-      <c r="M26" s="78" t="s">
-        <v>261</v>
+      <c r="M26" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="75" t="s">
-        <v>395</v>
+      <c r="A27" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
-      <c r="F27" s="78" t="s">
-        <v>261</v>
-      </c>
-      <c r="H27" s="75" t="s">
-        <v>290</v>
+      <c r="F27" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>276</v>
       </c>
       <c r="I27" s="49"/>
       <c r="J27" s="48" t="s">
@@ -11276,35 +11347,35 @@
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
-      <c r="M27" s="77" t="s">
-        <v>258</v>
+      <c r="M27" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="75" t="s">
-        <v>294</v>
+      <c r="A28" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>280</v>
       </c>
       <c r="I28" s="49"/>
       <c r="J28" s="48"/>
       <c r="K28" s="49"/>
       <c r="L28" s="50"/>
-      <c r="M28" s="77" t="s">
-        <v>258</v>
+      <c r="M28" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="H29" s="75" t="s">
-        <v>291</v>
+      <c r="H29" s="69" t="s">
+        <v>277</v>
       </c>
       <c r="I29" s="49"/>
       <c r="J29" s="48" t="s">
@@ -11312,60 +11383,60 @@
       </c>
       <c r="K29" s="49"/>
       <c r="L29" s="50"/>
-      <c r="M29" s="77" t="s">
-        <v>258</v>
+      <c r="M29" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="H30" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="I30" s="71"/>
+      <c r="H30" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="65"/>
       <c r="J30" s="48" t="s">
         <v>4</v>
       </c>
       <c r="K30" s="49"/>
       <c r="L30" s="50"/>
-      <c r="M30" s="77" t="s">
-        <v>258</v>
+      <c r="M30" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="H31" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="I31" s="71"/>
+      <c r="H31" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="65"/>
       <c r="J31" s="48" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="50"/>
-      <c r="M31" s="77" t="s">
-        <v>258</v>
+      <c r="M31" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="H32" s="75" t="s">
-        <v>395</v>
+      <c r="H32" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
-      <c r="M32" s="78" t="s">
-        <v>261</v>
+      <c r="M32" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="8:13" ht="15.75" thickBot="1">
-      <c r="H33" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="81" t="s">
-        <v>261</v>
+      <c r="H33" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" s="64"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="8:13">
@@ -11385,78 +11456,78 @@
       <c r="M35" s="61"/>
     </row>
     <row r="36" spans="8:13" ht="15.75">
-      <c r="H36" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J36" s="73" t="s">
+      <c r="H36" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="M36" s="74" t="s">
-        <v>196</v>
+      <c r="K36" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="M36" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="8:13">
-      <c r="H37" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="I37" s="76" t="s">
-        <v>284</v>
+      <c r="H37" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>270</v>
       </c>
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
       <c r="L37" s="48"/>
-      <c r="M37" s="77"/>
+      <c r="M37" s="71"/>
     </row>
     <row r="38" spans="8:13">
-      <c r="H38" s="75" t="s">
-        <v>282</v>
+      <c r="H38" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I38" s="49"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
-      <c r="M38" s="78" t="s">
-        <v>261</v>
+      <c r="M38" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="8:13">
-      <c r="H39" s="75" t="s">
-        <v>397</v>
+      <c r="H39" s="69" t="s">
+        <v>382</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="48" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="50"/>
-      <c r="M39" s="77" t="s">
-        <v>258</v>
+      <c r="M39" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="8:13">
-      <c r="H40" s="75" t="s">
-        <v>398</v>
+      <c r="H40" s="69" t="s">
+        <v>383</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
       <c r="K40" s="49"/>
       <c r="L40" s="50"/>
-      <c r="M40" s="77" t="s">
-        <v>258</v>
+      <c r="M40" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="8:13">
-      <c r="H41" s="75" t="s">
-        <v>399</v>
+      <c r="H41" s="69" t="s">
+        <v>384</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="48" t="s">
@@ -11464,51 +11535,51 @@
       </c>
       <c r="K41" s="49"/>
       <c r="L41" s="50"/>
-      <c r="M41" s="77" t="s">
-        <v>258</v>
+      <c r="M41" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="8:13">
-      <c r="H42" s="75" t="s">
-        <v>400</v>
+      <c r="H42" s="69" t="s">
+        <v>385</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="48"/>
       <c r="K42" s="49"/>
       <c r="L42" s="50"/>
-      <c r="M42" s="77" t="s">
-        <v>258</v>
+      <c r="M42" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="8:13">
-      <c r="H43" s="75" t="s">
-        <v>401</v>
+      <c r="H43" s="69" t="s">
+        <v>386</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="48" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K43" s="49"/>
       <c r="L43" s="50"/>
-      <c r="M43" s="77" t="s">
-        <v>258</v>
+      <c r="M43" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="8:13">
-      <c r="H44" s="75" t="s">
-        <v>402</v>
+      <c r="H44" s="69" t="s">
+        <v>387</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
       <c r="K44" s="49"/>
       <c r="L44" s="50"/>
-      <c r="M44" s="77" t="s">
-        <v>258</v>
+      <c r="M44" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="8:13">
-      <c r="H45" s="75" t="s">
-        <v>403</v>
+      <c r="H45" s="69" t="s">
+        <v>388</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="48" t="s">
@@ -11516,25 +11587,25 @@
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="50"/>
-      <c r="M45" s="77" t="s">
-        <v>258</v>
+      <c r="M45" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="8:13">
-      <c r="H46" s="75" t="s">
-        <v>404</v>
+      <c r="H46" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="48"/>
       <c r="K46" s="49"/>
       <c r="L46" s="50"/>
-      <c r="M46" s="77" t="s">
-        <v>258</v>
+      <c r="M46" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="8:13">
-      <c r="H47" s="75" t="s">
-        <v>286</v>
+      <c r="H47" s="69" t="s">
+        <v>272</v>
       </c>
       <c r="I47" s="49"/>
       <c r="J47" s="48" t="s">
@@ -11542,44 +11613,44 @@
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="50"/>
-      <c r="M47" s="77" t="s">
-        <v>258</v>
+      <c r="M47" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="8:13">
-      <c r="H48" s="75" t="s">
-        <v>287</v>
+      <c r="H48" s="69" t="s">
+        <v>273</v>
       </c>
       <c r="I48" s="49"/>
       <c r="J48" s="48"/>
       <c r="K48" s="49"/>
       <c r="L48" s="50"/>
-      <c r="M48" s="77" t="s">
-        <v>258</v>
+      <c r="M48" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="H49" s="75" t="s">
-        <v>395</v>
+      <c r="H49" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
-      <c r="M49" s="78" t="s">
-        <v>261</v>
+      <c r="M49" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
-      <c r="H50" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="81" t="s">
-        <v>261</v>
+      <c r="H50" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="I50" s="64"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
@@ -11591,52 +11662,52 @@
       <c r="M51" s="61"/>
     </row>
     <row r="52" spans="1:13" ht="15.75">
-      <c r="H52" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J52" s="73" t="s">
+      <c r="H52" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="J52" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="K52" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="L52" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="M52" s="74" t="s">
-        <v>196</v>
+      <c r="K52" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="M52" s="68" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="H53" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="I53" s="76" t="s">
-        <v>281</v>
+      <c r="H53" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="70" t="s">
+        <v>267</v>
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
       <c r="L53" s="48"/>
-      <c r="M53" s="77"/>
+      <c r="M53" s="71"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="H54" s="75" t="s">
-        <v>282</v>
+      <c r="H54" s="69" t="s">
+        <v>268</v>
       </c>
       <c r="I54" s="49"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" s="48"/>
-      <c r="M54" s="78" t="s">
-        <v>261</v>
+      <c r="M54" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="H55" s="75" t="s">
-        <v>283</v>
+      <c r="H55" s="69" t="s">
+        <v>269</v>
       </c>
       <c r="I55" s="49"/>
       <c r="J55" s="48" t="s">
@@ -11644,32 +11715,32 @@
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="50"/>
-      <c r="M55" s="77" t="s">
-        <v>258</v>
+      <c r="M55" s="71" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="H56" s="75" t="s">
-        <v>395</v>
+      <c r="H56" s="69" t="s">
+        <v>380</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
       <c r="L56" s="48"/>
-      <c r="M56" s="78" t="s">
-        <v>261</v>
+      <c r="M56" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
-      <c r="H57" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="I57" s="70"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="81" t="s">
-        <v>261</v>
+      <c r="H57" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="I57" s="64"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="75" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -11718,10 +11789,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF250E24-EA05-4E5C-AA7D-4BA7BB4A40EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C50BC40-EFB3-4E2A-AE4F-994A4A5716CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="408">
   <si>
     <t>UNIT</t>
   </si>
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="G21" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="E21" zoomScale="114" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4031,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4169,9 +4169,7 @@
         <v>1140</v>
       </c>
       <c r="C13" s="45"/>
-      <c r="D13" s="43" t="s">
-        <v>283</v>
-      </c>
+      <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
       </c>
@@ -4187,7 +4185,9 @@
       <c r="C14" s="126" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>248</v>
+      </c>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5">
@@ -4196,9 +4196,7 @@
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="43" t="s">
-        <v>283</v>
-      </c>
+      <c r="D15" s="43"/>
       <c r="E15" t="s">
         <v>305</v>
       </c>
@@ -4607,7 +4605,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5540,7 +5538,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5853,7 +5851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6601,8 +6599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -7595,7 +7593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C50BC40-EFB3-4E2A-AE4F-994A4A5716CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A43E2-D49D-412E-B51A-DE5D744A1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="408">
   <si>
     <t>UNIT</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>6FDA-DABC</t>
-  </si>
-  <si>
-    <t>octadecyltrichlorosilane (OTS-18)</t>
   </si>
   <si>
     <t>O2-Plasma</t>
@@ -1444,6 +1441,9 @@
   </si>
   <si>
     <t>FDTS</t>
+  </si>
+  <si>
+    <t>&lt;- e.g., [-80, 80]</t>
   </si>
 </sst>
 </file>
@@ -2755,7 +2755,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2776,7 +2776,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>20</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="130"/>
       <c r="C2" s="36"/>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="103"/>
       <c r="C4" s="103"/>
@@ -2809,14 +2809,14 @@
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -2824,26 +2824,26 @@
     </row>
     <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
@@ -2854,7 +2854,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="108"/>
       <c r="C9" s="107"/>
@@ -2862,10 +2862,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="109"/>
@@ -2896,12 +2896,12 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B14" s="104"/>
       <c r="C14" s="110"/>
       <c r="D14" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -2909,28 +2909,28 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="110"/>
       <c r="D15" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="104"/>
       <c r="C16" s="110"/>
       <c r="D16" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2942,7 +2942,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -2962,12 +2962,14 @@
         <v>22</v>
       </c>
       <c r="B20" s="111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="D20" s="109" t="s">
+        <v>247</v>
+      </c>
       <c r="E20" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2978,7 +2980,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -2986,7 +2988,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="112"/>
       <c r="C23" s="112"/>
@@ -3000,22 +3002,22 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="104"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="104"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3025,7 +3027,7 @@
       <c r="B27" s="104"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3035,7 +3037,7 @@
       <c r="B28" s="104"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>25</v>
@@ -3048,7 +3050,7 @@
       <c r="B29" s="104"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3058,7 +3060,7 @@
       <c r="B30" s="104"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3068,7 +3070,7 @@
       <c r="B31" s="104"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3078,7 +3080,7 @@
       <c r="B32" s="104"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3088,7 +3090,7 @@
       <c r="B33" s="104"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3098,7 +3100,7 @@
       <c r="B34" s="104"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3108,7 +3110,7 @@
       <c r="B35" s="104"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3118,7 +3120,7 @@
       <c r="B36" s="104"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3128,7 +3130,7 @@
       <c r="B37" s="104"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>35</v>
@@ -3141,7 +3143,7 @@
       <c r="B38" s="114"/>
       <c r="C38" s="110"/>
       <c r="D38" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -3344,12 +3346,12 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3373,25 +3375,25 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3401,7 +3403,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>6212</v>
@@ -3410,10 +3412,10 @@
         <v>61.2</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
         <v>50</v>
@@ -3433,10 +3435,10 @@
         <v>132</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
@@ -3447,7 +3449,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>4685</v>
@@ -3456,10 +3458,10 @@
         <v>180.5</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s">
         <v>52</v>
@@ -3470,7 +3472,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3479,10 +3481,10 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3490,7 +3492,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>1140</v>
@@ -3499,10 +3501,10 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3510,7 +3512,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3519,10 +3521,10 @@
         <v>138.4</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3530,7 +3532,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23">
         <v>887</v>
@@ -3542,7 +3544,7 @@
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -3550,7 +3552,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3562,7 +3564,7 @@
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -3570,7 +3572,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3582,7 +3584,7 @@
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -3607,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>9</v>
@@ -3622,12 +3624,12 @@
         <v>45</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
@@ -3636,21 +3638,21 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -3659,22 +3661,22 @@
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3688,16 +3690,16 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3711,13 +3713,13 @@
         <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3732,10 +3734,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3750,10 +3752,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3764,14 +3766,14 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3786,10 +3788,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -3803,7 +3805,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="H41" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
@@ -3811,7 +3813,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3822,112 +3824,112 @@
         <v>11</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="F49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" t="s">
         <v>332</v>
       </c>
-      <c r="D52" t="s">
-        <v>333</v>
-      </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3935,90 +3937,90 @@
         <v>42</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4031,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4046,49 +4048,49 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
       <c r="A2" s="131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>309</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>310</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
@@ -4098,7 +4100,7 @@
       </c>
       <c r="D6" s="97"/>
       <c r="E6" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4109,7 +4111,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -4117,7 +4119,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -4125,44 +4127,44 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="51">
         <f>_xlfn.XLOOKUP(B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$B$16:$B$25)</f>
@@ -4176,39 +4178,39 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B14" s="51">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$C$16:$C$25)</f>
         <v>110.6</v>
       </c>
       <c r="C14" s="126" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="45"/>
       <c r="D15" s="43"/>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
       <c r="A16" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="127"/>
       <c r="D16" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4219,7 +4221,7 @@
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1">
       <c r="A18" s="123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -4275,7 +4277,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="119"/>
       <c r="C27" s="48"/>
@@ -4283,7 +4285,7 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1">
       <c r="A28" s="115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B28" s="119"/>
       <c r="C28" s="48"/>
@@ -4291,41 +4293,41 @@
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="124" t="s">
-        <v>89</v>
-      </c>
       <c r="D29" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>290</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>291</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" s="51" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4336,47 +4338,39 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>283</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>283</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="45"/>
-      <c r="D35" s="43" t="s">
-        <v>283</v>
-      </c>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="45"/>
-      <c r="D36" s="43" t="s">
-        <v>283</v>
-      </c>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="69"/>
@@ -4386,7 +4380,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -4394,62 +4388,62 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="45"/>
       <c r="D39" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="45"/>
       <c r="D40" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="45"/>
       <c r="D41" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="45"/>
       <c r="D42" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="45"/>
       <c r="D43" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1">
       <c r="A44" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="127"/>
       <c r="D44" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4460,7 +4454,7 @@
     </row>
     <row r="46" spans="1:4" ht="16.5" thickBot="1">
       <c r="A46" s="115" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -4564,10 +4558,10 @@
     </row>
     <row r="96" spans="1:2" ht="26.25">
       <c r="A96" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B96" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4623,17 +4617,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
       <c r="G1" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -4641,7 +4635,7 @@
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
       <c r="A2" s="131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
@@ -4657,7 +4651,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="G3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3"/>
@@ -4665,16 +4659,16 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>184</v>
       </c>
       <c r="E4" s="95"/>
       <c r="F4" s="48"/>
@@ -4685,31 +4679,31 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="71"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="G5" s="83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J5" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="48"/>
@@ -4717,27 +4711,27 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="48"/>
       <c r="D7" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -4745,7 +4739,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4754,22 +4748,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="53">
         <v>60</v>
@@ -4778,12 +4772,12 @@
         <v>13</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
       <c r="G9" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H9" s="125"/>
       <c r="I9" s="48"/>
@@ -4791,46 +4785,46 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="53">
         <v>1</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="48"/>
       <c r="J10" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="86"/>
       <c r="D11" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48"/>
       <c r="J11" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4841,12 +4835,12 @@
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="86"/>
       <c r="J12" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
@@ -4869,16 +4863,16 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="68" t="s">
         <v>183</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4889,10 +4883,10 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
@@ -4905,7 +4899,7 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
@@ -4919,12 +4913,12 @@
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4935,14 +4929,14 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4953,14 +4947,14 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4971,14 +4965,14 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1">
@@ -4989,12 +4983,12 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="86"/>
       <c r="J21" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -5017,16 +5011,16 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>41</v>
       </c>
       <c r="J23" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5037,10 +5031,10 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="84" t="s">
         <v>168</v>
-      </c>
-      <c r="H24" s="84" t="s">
-        <v>169</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
@@ -5053,7 +5047,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="48"/>
@@ -5067,12 +5061,12 @@
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
       <c r="G26" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="56"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5083,14 +5077,14 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5101,12 +5095,12 @@
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5117,14 +5111,14 @@
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
       <c r="G29" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5135,14 +5129,14 @@
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
       <c r="G30" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5153,14 +5147,14 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5171,14 +5165,14 @@
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
@@ -5189,12 +5183,12 @@
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H33" s="54"/>
       <c r="I33" s="86"/>
       <c r="J33" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" thickBot="1">
@@ -5217,16 +5211,16 @@
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
       <c r="G35" s="83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J35" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5237,10 +5231,10 @@
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
       <c r="G36" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="71"/>
@@ -5253,7 +5247,7 @@
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
       <c r="G37" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="48"/>
@@ -5267,12 +5261,12 @@
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
       <c r="G38" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="56"/>
       <c r="I38" s="48"/>
       <c r="J38" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5283,14 +5277,14 @@
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
       <c r="G39" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5301,14 +5295,14 @@
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
       <c r="G40" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
@@ -5319,12 +5313,12 @@
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
       <c r="G41" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="86"/>
       <c r="J41" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
@@ -5347,16 +5341,16 @@
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
       <c r="G43" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H43" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J43" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5367,10 +5361,10 @@
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
       <c r="G44" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H44" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I44" s="48"/>
       <c r="J44" s="71"/>
@@ -5383,7 +5377,7 @@
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
       <c r="G45" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H45" s="50"/>
       <c r="I45" s="48"/>
@@ -5397,12 +5391,12 @@
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
       <c r="G46" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="56"/>
       <c r="I46" s="48"/>
       <c r="J46" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5413,14 +5407,14 @@
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H47" s="53"/>
       <c r="I47" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5431,12 +5425,12 @@
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
       <c r="G48" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="48"/>
       <c r="J48" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5447,14 +5441,14 @@
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H49" s="53"/>
       <c r="I49" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5465,32 +5459,32 @@
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H50" s="53"/>
       <c r="I50" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J50" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickBot="1">
       <c r="G51" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H51" s="54"/>
       <c r="I51" s="86"/>
       <c r="J51" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5551,22 +5545,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -5574,7 +5568,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -5582,19 +5576,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="49">
         <v>80</v>
@@ -5603,12 +5597,12 @@
         <v>3</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="49">
         <v>1500</v>
@@ -5617,31 +5611,31 @@
         <v>3</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5652,7 +5646,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
@@ -5660,31 +5654,31 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5693,27 +5687,27 @@
         <v>4</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5724,7 +5718,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -5732,7 +5726,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="49">
         <v>0.17199999999999999</v>
@@ -5741,49 +5735,49 @@
         <v>16</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="97" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="97"/>
       <c r="D21" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="97"/>
       <c r="D22" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="97"/>
       <c r="D23" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5850,8 +5844,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5864,16 +5858,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="38"/>
       <c r="G1" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -5881,7 +5875,7 @@
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
       <c r="A2" s="131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
@@ -5892,7 +5886,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="G3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3"/>
@@ -5906,43 +5900,43 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="G5" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J5" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="G6" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="D7" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -5950,25 +5944,25 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="71"/>
       <c r="G8" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -5976,63 +5970,63 @@
       <c r="C9" s="48"/>
       <c r="D9" s="71"/>
       <c r="G9" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="53">
         <v>25</v>
@@ -6041,29 +6035,29 @@
         <v>13</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G12" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="86"/>
       <c r="J12" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="53">
         <v>15</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G13" s="87"/>
       <c r="H13" s="48"/>
@@ -6072,24 +6066,24 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="86"/>
       <c r="D14" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J14" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6098,10 +6092,10 @@
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="G15" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
@@ -6112,7 +6106,7 @@
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="G16" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="48"/>
@@ -6120,49 +6114,49 @@
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="D17" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="71"/>
       <c r="G18" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48"/>
       <c r="J18" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="50">
         <v>2</v>
@@ -6170,48 +6164,48 @@
       <c r="C19" s="48"/>
       <c r="D19" s="71"/>
       <c r="G19" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="53">
         <v>30</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="86"/>
       <c r="J20" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -6220,42 +6214,42 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H22" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J22" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="54"/>
       <c r="C23" s="86"/>
       <c r="D23" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
@@ -6266,7 +6260,7 @@
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
       <c r="G24" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
@@ -6278,49 +6272,49 @@
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="G25" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="D26" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="71"/>
       <c r="G27" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H27" s="53" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6331,15 +6325,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="50">
-        <v>3</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B28" s="50"/>
       <c r="C28" s="48"/>
       <c r="D28" s="71"/>
       <c r="G28" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H28" s="53">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6350,123 +6342,135 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>331</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B29" s="56"/>
       <c r="C29" s="48"/>
       <c r="D29" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G29" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="53"/>
       <c r="I29" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>203</v>
+        <v>391</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="53">
-        <v>25</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>283</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B31" s="53" t="str">
+        <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
+        <v>octyltrichlorosilane</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="72"/>
       <c r="G31" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H31" s="54"/>
       <c r="I31" s="86"/>
       <c r="J31" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="69" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="B32" s="53">
-        <v>8</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>283</v>
-      </c>
+        <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
+        <v>21354</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="72"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A33" s="85" t="s">
+    <row r="33" spans="1:10" ht="15.75">
+      <c r="A33" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="75" t="s">
-        <v>248</v>
+      <c r="B33" s="53"/>
+      <c r="C33" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>282</v>
       </c>
       <c r="G33" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="67" t="s">
-        <v>89</v>
-      </c>
       <c r="J33" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:10">
+      <c r="A34" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>282</v>
+      </c>
       <c r="G34" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="71"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A35" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="75" t="s">
+        <v>247</v>
+      </c>
       <c r="G35" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H35" s="50"/>
       <c r="I35" s="48"/>
@@ -6474,74 +6478,74 @@
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="53"/>
       <c r="I36" s="48"/>
       <c r="J36" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" s="53"/>
       <c r="I37" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="53"/>
       <c r="I38" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="G39" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H39" s="63"/>
       <c r="I39" s="48"/>
       <c r="J39" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="G40" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40" s="63"/>
       <c r="I40" s="48"/>
       <c r="J40" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="G41" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="86"/>
       <c r="J41" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6552,7 +6556,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{68149A0C-A220-4E64-BFBE-2735CA070B2D}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
@@ -6571,23 +6575,17 @@
           </x14:formula1>
           <xm:sqref>B11 H9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E4977031-504F-408B-9CAC-F7DD8C575A61}">
-          <x14:formula1>
-            <xm:f>'Dropdown Items'!$I$32:$I$36</xm:f>
-          </x14:formula1>
-          <xm:sqref>B30</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{BB212A2E-343E-405B-BB66-03095B3EB57D}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$H$32:$H$38</xm:f>
           </x14:formula1>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H26 B30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{608CDF99-375A-47E3-B685-2E89DEFD2400}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$I$32:$I$38</xm:f>
           </x14:formula1>
-          <xm:sqref>H27</xm:sqref>
+          <xm:sqref>H27 B31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6599,7 +6597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -6617,15 +6615,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="134"/>
       <c r="H1" s="134"/>
@@ -6633,7 +6631,7 @@
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
       <c r="A2" s="131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
@@ -6646,7 +6644,7 @@
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="34"/>
       <c r="F3" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="3"/>
@@ -6654,187 +6652,187 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="F4" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="70" t="s">
         <v>212</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>213</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>213</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="71"/>
       <c r="F7" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="88"/>
       <c r="H7" s="48"/>
       <c r="I7" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="48"/>
       <c r="D8" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="48" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="48"/>
       <c r="D12" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="48"/>
       <c r="I12" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="74"/>
       <c r="D13" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="74"/>
       <c r="I13" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -6845,147 +6843,147 @@
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="F15" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="91" t="s">
         <v>41</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="71"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="48"/>
       <c r="I17" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="48"/>
       <c r="I19" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="48"/>
       <c r="I20" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="93" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I23" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
       <c r="I24" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
       <c r="I26" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
       <c r="F27" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="74"/>
       <c r="I27" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
@@ -6996,46 +6994,46 @@
     </row>
     <row r="29" spans="6:10" ht="15.75">
       <c r="F29" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="67"/>
       <c r="H29" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="6:10">
       <c r="F30" s="69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="71"/>
     </row>
     <row r="31" spans="6:10">
       <c r="F31" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="88"/>
       <c r="H31" s="48"/>
       <c r="I31" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
       <c r="F32" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="54"/>
       <c r="H32" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
@@ -7046,22 +7044,22 @@
     </row>
     <row r="34" spans="6:10" ht="15.75">
       <c r="F34" s="90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G34" s="91"/>
       <c r="H34" s="91" t="s">
         <v>41</v>
       </c>
       <c r="I34" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G35" s="56"/>
       <c r="H35" s="48"/>
@@ -7069,111 +7067,111 @@
     </row>
     <row r="36" spans="6:10">
       <c r="F36" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="56"/>
       <c r="H36" s="48"/>
       <c r="I36" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="6:10">
       <c r="F38" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="48" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
       <c r="I39" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="6:10">
       <c r="F40" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="48"/>
       <c r="I40" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="6:10">
       <c r="F41" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="6:10">
       <c r="F42" s="69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G42" s="63"/>
       <c r="H42" s="48"/>
       <c r="I42" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="6:10">
       <c r="F43" s="69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="48"/>
       <c r="I43" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="6:10">
       <c r="F44" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G44" s="63"/>
       <c r="H44" s="48"/>
       <c r="I44" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
       <c r="F45" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G45" s="54"/>
       <c r="H45" s="74"/>
       <c r="I45" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7230,16 +7228,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="38"/>
       <c r="G1" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -7247,7 +7245,7 @@
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
       <c r="A2" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
@@ -7258,7 +7256,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="G3" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="3"/>
@@ -7266,7 +7264,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -7279,16 +7277,16 @@
       <c r="C5" s="27"/>
       <c r="D5" s="41"/>
       <c r="G5" s="83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7296,10 +7294,10 @@
       <c r="B6" s="40"/>
       <c r="D6" s="42"/>
       <c r="G6" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
@@ -7309,7 +7307,7 @@
       <c r="B7" s="50"/>
       <c r="D7" s="42"/>
       <c r="G7" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="48"/>
@@ -7320,12 +7318,12 @@
       <c r="B8" s="56"/>
       <c r="D8" s="43"/>
       <c r="G8" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7333,14 +7331,14 @@
       <c r="B9" s="12"/>
       <c r="D9" s="43"/>
       <c r="G9" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7348,14 +7346,14 @@
       <c r="B10" s="12"/>
       <c r="D10" s="43"/>
       <c r="G10" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -7364,12 +7362,12 @@
       <c r="C11" s="31"/>
       <c r="D11" s="44"/>
       <c r="G11" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="54"/>
       <c r="I11" s="86"/>
       <c r="J11" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -7380,31 +7378,31 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="G14" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="48"/>
@@ -7412,56 +7410,56 @@
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="48"/>
       <c r="J16" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" s="69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" s="53"/>
       <c r="I19" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="86"/>
       <c r="J20" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
@@ -7472,31 +7470,31 @@
     </row>
     <row r="22" spans="7:10" ht="15.75">
       <c r="G22" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I22" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H24" s="50"/>
       <c r="I24" s="48"/>
@@ -7504,62 +7502,62 @@
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H26" s="53"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" s="53"/>
       <c r="I27" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="16.5" thickBot="1">
       <c r="G29" s="85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H29" s="54"/>
       <c r="I29" s="86"/>
       <c r="J29" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7593,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7610,24 +7608,24 @@
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1"/>
       <c r="H1" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="134"/>
       <c r="J1" s="134"/>
@@ -7635,7 +7633,7 @@
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="13"/>
       <c r="F2" s="3"/>
@@ -7649,7 +7647,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
@@ -7657,7 +7655,7 @@
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2"/>
       <c r="F4" s="33"/>
@@ -7668,43 +7666,43 @@
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="H5" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I5" s="77"/>
       <c r="J5" s="77" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="L5" s="77" t="s">
-        <v>244</v>
-      </c>
       <c r="M5" s="78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="77" t="s">
-        <v>244</v>
-      </c>
       <c r="F6" s="78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
@@ -7714,7 +7712,7 @@
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -7723,10 +7721,10 @@
       <c r="F7" s="72"/>
       <c r="G7" s="3"/>
       <c r="H7" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J7" s="48"/>
       <c r="K7" s="80"/>
@@ -7735,10 +7733,10 @@
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A8" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="80"/>
@@ -7746,103 +7744,103 @@
       <c r="F8" s="71"/>
       <c r="G8" s="3"/>
       <c r="H8" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
       <c r="L8" s="80"/>
       <c r="M8" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I9" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
       <c r="M9" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A10" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="49">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
       <c r="L10" s="80"/>
       <c r="M10" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A11" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
       <c r="E11" s="80"/>
       <c r="F11" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
       <c r="L11" s="50"/>
       <c r="M11" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A12" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="53">
         <v>-10</v>
@@ -7852,37 +7850,37 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="48"/>
       <c r="K12" s="49"/>
       <c r="L12" s="50"/>
       <c r="M12" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A13" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
       <c r="E13" s="50"/>
       <c r="F13" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="48" t="s">
@@ -7891,12 +7889,12 @@
       <c r="K13" s="49"/>
       <c r="L13" s="50"/>
       <c r="M13" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="48" t="s">
@@ -7905,7 +7903,7 @@
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
       <c r="F14" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="48"/>
@@ -7922,7 +7920,7 @@
       <c r="E15" s="48"/>
       <c r="F15" s="72"/>
       <c r="H15" s="79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
@@ -7932,7 +7930,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -7941,34 +7939,34 @@
       <c r="F16" s="72"/>
       <c r="G16" s="3"/>
       <c r="H16" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="53"/>
       <c r="J17" s="48" t="s">
@@ -7977,12 +7975,12 @@
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
       <c r="M17" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
@@ -7991,10 +7989,10 @@
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
       <c r="F18" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I18" s="53">
         <v>-3</v>
@@ -8005,12 +8003,12 @@
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="53">
         <v>-3</v>
@@ -8021,11 +8019,11 @@
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="48" t="s">
@@ -8034,12 +8032,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A20" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="48" t="s">
@@ -8048,148 +8046,150 @@
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20"/>
+        <v>247</v>
+      </c>
+      <c r="G20" t="s">
+        <v>407</v>
+      </c>
       <c r="H20" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I22" s="53"/>
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
       <c r="M22" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I23" s="63"/>
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
       <c r="M23" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I24" s="63"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
       <c r="M24" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H25" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" s="54"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
       <c r="M25" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
       <c r="F26" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -8218,20 +8218,20 @@
     <row r="29" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G29" s="3"/>
       <c r="H29" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I29" s="77"/>
       <c r="J29" s="77" t="s">
         <v>41</v>
       </c>
       <c r="K29" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="L29" s="77" t="s">
-        <v>244</v>
-      </c>
       <c r="M29" s="78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8243,7 +8243,7 @@
       <c r="F30"/>
       <c r="G30" s="3"/>
       <c r="H30" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -8254,10 +8254,10 @@
     <row r="31" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="F31" s="33"/>
       <c r="H31" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I31" s="70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J31" s="48"/>
       <c r="K31" s="80"/>
@@ -8273,40 +8273,40 @@
       <c r="F32"/>
       <c r="G32" s="3"/>
       <c r="H32" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
       <c r="M32" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G33" s="3"/>
       <c r="H33" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I33" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="50"/>
       <c r="M33" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G34" s="3"/>
       <c r="H34" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I34" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
@@ -8315,26 +8315,26 @@
     </row>
     <row r="35" spans="1:13">
       <c r="H35" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="48"/>
       <c r="K35" s="49"/>
       <c r="L35" s="50"/>
       <c r="M35" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="H36" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="48"/>
       <c r="K36" s="49"/>
       <c r="L36" s="50"/>
       <c r="M36" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8346,7 +8346,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
       <c r="H37" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="48" t="s">
@@ -8355,7 +8355,7 @@
       <c r="K37" s="49"/>
       <c r="L37" s="50"/>
       <c r="M37" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -8381,7 +8381,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
@@ -8392,16 +8392,16 @@
     <row r="40" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G40"/>
       <c r="H40" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
       <c r="M40" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -8412,7 +8412,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I41" s="53"/>
       <c r="J41" s="48" t="s">
@@ -8421,7 +8421,7 @@
       <c r="K41" s="48"/>
       <c r="L41" s="48"/>
       <c r="M41" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8432,7 +8432,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I42" s="53">
         <v>-3</v>
@@ -8443,13 +8443,13 @@
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
       <c r="M42" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G43" s="3"/>
       <c r="H43" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I43" s="53"/>
       <c r="J43" s="48" t="s">
@@ -8458,7 +8458,7 @@
       <c r="K43" s="48"/>
       <c r="L43" s="48"/>
       <c r="M43" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8470,16 +8470,16 @@
       <c r="F44"/>
       <c r="G44" s="3"/>
       <c r="H44" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I44" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
       <c r="M44" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8491,14 +8491,14 @@
       <c r="F45"/>
       <c r="G45" s="3"/>
       <c r="H45" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I45" s="53"/>
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
       <c r="M45" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8509,14 +8509,14 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I46" s="53"/>
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
       <c r="M46" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8527,14 +8527,14 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I47" s="63"/>
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
       <c r="L47" s="48"/>
       <c r="M47" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -8544,14 +8544,14 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="H48" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I48" s="63"/>
       <c r="J48" s="48"/>
       <c r="K48" s="48"/>
       <c r="L48" s="48"/>
       <c r="M48" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -8561,14 +8561,14 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="H49" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I49" s="54"/>
       <c r="J49" s="74"/>
       <c r="K49" s="74"/>
       <c r="L49" s="74"/>
       <c r="M49" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8582,10 +8582,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -8689,23 +8689,23 @@
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H1" s="133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="134"/>
       <c r="J1" s="134"/>
@@ -8726,14 +8726,14 @@
     </row>
     <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
@@ -8752,41 +8752,41 @@
     </row>
     <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A5" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="F5" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="M5" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R5"/>
       <c r="Z5"/>
@@ -10837,20 +10837,20 @@
     </row>
     <row r="6" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A6" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
       <c r="F6" s="71"/>
       <c r="H6" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
@@ -10859,31 +10859,31 @@
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A7" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A8" s="69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="49">
         <v>0.54</v>
@@ -10892,111 +10892,111 @@
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
       <c r="F8" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="48"/>
       <c r="K8" s="49"/>
       <c r="L8" s="50"/>
       <c r="M8" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A9" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="49">
         <v>50</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="50"/>
       <c r="F9" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
       <c r="M9" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A10" s="69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="48"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50"/>
       <c r="F10" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="49"/>
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
       <c r="L10" s="50"/>
       <c r="M10" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A11" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I11" s="49"/>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="48"/>
       <c r="M11" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A12" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
       <c r="E12" s="74"/>
       <c r="F12" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
@@ -11015,22 +11015,22 @@
     </row>
     <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="16.5" thickBot="1">
       <c r="A14" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="F14" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
@@ -11041,50 +11041,50 @@
     </row>
     <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A15" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="71"/>
       <c r="H15" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J15" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="M15" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A16" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H16" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -11093,55 +11093,55 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="50"/>
       <c r="F17" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
       <c r="M17" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
       <c r="E18" s="50"/>
       <c r="F18" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="48"/>
       <c r="K18" s="49"/>
       <c r="L18" s="50"/>
       <c r="M18" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11150,77 +11150,77 @@
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
       <c r="F19" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19" s="49"/>
       <c r="J19" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K19" s="49"/>
       <c r="L19" s="50"/>
       <c r="M19" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
       <c r="E20" s="50"/>
       <c r="F20" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
       <c r="F21" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H21" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
       <c r="L21" s="74"/>
       <c r="M21" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
       <c r="E22" s="50"/>
       <c r="F22" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
@@ -11231,7 +11231,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11240,7 +11240,7 @@
       <c r="D23" s="49"/>
       <c r="E23" s="50"/>
       <c r="F23" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
@@ -11251,37 +11251,37 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="50"/>
       <c r="F24" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J24" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="L24" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="M24" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="48" t="s">
@@ -11290,13 +11290,13 @@
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I25" s="70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
@@ -11305,39 +11305,39 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49"/>
       <c r="E26" s="50"/>
       <c r="F26" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I26" s="49"/>
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
       <c r="M26" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I27" s="49"/>
       <c r="J27" s="48" t="s">
@@ -11346,34 +11346,34 @@
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
       <c r="M27" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="64"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
       <c r="F28" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I28" s="49"/>
       <c r="J28" s="48"/>
       <c r="K28" s="49"/>
       <c r="L28" s="50"/>
       <c r="M28" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="H29" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I29" s="49"/>
       <c r="J29" s="48" t="s">
@@ -11382,12 +11382,12 @@
       <c r="K29" s="49"/>
       <c r="L29" s="50"/>
       <c r="M29" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="H30" s="69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="48" t="s">
@@ -11396,45 +11396,45 @@
       <c r="K30" s="49"/>
       <c r="L30" s="50"/>
       <c r="M30" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="50"/>
       <c r="M31" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="H32" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
       <c r="M32" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="8:13" ht="15.75" thickBot="1">
       <c r="H33" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I33" s="64"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
       <c r="M33" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="8:13">
@@ -11455,30 +11455,30 @@
     </row>
     <row r="36" spans="8:13" ht="15.75">
       <c r="H36" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J36" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="L36" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="M36" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I37" s="70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
@@ -11487,45 +11487,45 @@
     </row>
     <row r="38" spans="8:13">
       <c r="H38" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I38" s="49"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
       <c r="M38" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" s="69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K39" s="49"/>
       <c r="L39" s="50"/>
       <c r="M39" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
       <c r="K40" s="49"/>
       <c r="L40" s="50"/>
       <c r="M40" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="48" t="s">
@@ -11534,50 +11534,50 @@
       <c r="K41" s="49"/>
       <c r="L41" s="50"/>
       <c r="M41" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="48"/>
       <c r="K42" s="49"/>
       <c r="L42" s="50"/>
       <c r="M42" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K43" s="49"/>
       <c r="L43" s="50"/>
       <c r="M43" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
       <c r="K44" s="49"/>
       <c r="L44" s="50"/>
       <c r="M44" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="48" t="s">
@@ -11586,24 +11586,24 @@
       <c r="K45" s="49"/>
       <c r="L45" s="50"/>
       <c r="M45" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="48"/>
       <c r="K46" s="49"/>
       <c r="L46" s="50"/>
       <c r="M46" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" s="69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I47" s="49"/>
       <c r="J47" s="48" t="s">
@@ -11612,43 +11612,43 @@
       <c r="K47" s="49"/>
       <c r="L47" s="50"/>
       <c r="M47" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" s="69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I48" s="49"/>
       <c r="J48" s="48"/>
       <c r="K48" s="49"/>
       <c r="L48" s="50"/>
       <c r="M48" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="H49" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
       <c r="M49" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="H50" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I50" s="64"/>
       <c r="J50" s="74"/>
       <c r="K50" s="74"/>
       <c r="L50" s="74"/>
       <c r="M50" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
@@ -11661,30 +11661,30 @@
     </row>
     <row r="52" spans="1:13" ht="15.75">
       <c r="H52" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J52" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="L52" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="L52" s="67" t="s">
-        <v>244</v>
-      </c>
       <c r="M52" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="H53" s="69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I53" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
@@ -11693,19 +11693,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="H54" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I54" s="49"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" s="48"/>
       <c r="M54" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="H55" s="69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I55" s="49"/>
       <c r="J55" s="48" t="s">
@@ -11714,31 +11714,31 @@
       <c r="K55" s="49"/>
       <c r="L55" s="50"/>
       <c r="M55" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="H56" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
       <c r="L56" s="48"/>
       <c r="M56" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="H57" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I57" s="64"/>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -11787,10 +11787,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A43E2-D49D-412E-B51A-DE5D744A1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584AADF0-0DB4-4DCA-9042-5CF76FA20C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dropdown Items" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$15:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="405">
   <si>
     <t>UNIT</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>YOUR NAME (Data Contributor)</t>
   </si>
   <si>
-    <t>Entela T20</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -1330,12 +1327,6 @@
   </si>
   <si>
     <t>PubChemID</t>
-  </si>
-  <si>
-    <t>boiling_point</t>
-  </si>
-  <si>
-    <t>°C</t>
   </si>
   <si>
     <t>common_name</t>
@@ -2082,7 +2073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2405,9 +2396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2744,7 +2732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2754,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2783,10 +2771,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="130"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2862,7 +2850,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="88" t="s">
         <v>166</v>
@@ -2896,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B14" s="104"/>
       <c r="C14" s="110"/>
@@ -2909,7 +2897,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="120" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="110"/>
@@ -2917,12 +2905,12 @@
         <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16" s="104"/>
       <c r="C16" s="110"/>
@@ -2930,7 +2918,7 @@
         <v>247</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3312,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScale="114" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3375,19 +3363,19 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
@@ -3472,7 +3460,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3481,10 +3469,10 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3501,10 +3489,10 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3512,7 +3500,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3524,7 +3512,7 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3552,7 +3540,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3572,7 +3560,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3624,12 +3612,12 @@
         <v>45</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
@@ -3638,21 +3626,21 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -3661,22 +3649,22 @@
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3690,16 +3678,16 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I33" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3713,13 +3701,13 @@
         <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3734,10 +3722,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3752,10 +3740,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3766,14 +3754,14 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3788,10 +3776,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -3855,10 +3843,10 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E50" t="s">
         <v>122</v>
@@ -3867,10 +3855,10 @@
         <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3881,10 +3869,10 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3893,10 +3881,10 @@
         <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3904,10 +3892,10 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
+        <v>330</v>
+      </c>
+      <c r="D52" t="s">
         <v>331</v>
-      </c>
-      <c r="D52" t="s">
-        <v>332</v>
       </c>
       <c r="E52" t="s">
         <v>123</v>
@@ -3921,10 +3909,10 @@
         <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3957,10 +3945,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C59" t="s">
         <v>137</v>
@@ -3980,10 +3968,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C60" t="s">
         <v>138</v>
@@ -4003,10 +3991,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C61" t="s">
         <v>139</v>
@@ -4017,7 +4005,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E62" t="s">
         <v>238</v>
@@ -4031,10 +4019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4062,35 +4050,35 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="128" t="s">
         <v>308</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>309</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="128" t="s">
-        <v>307</v>
+        <v>288</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>306</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
@@ -4119,7 +4107,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -4127,7 +4115,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="124" t="s">
         <v>87</v>
@@ -4141,21 +4129,19 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="125" t="s">
-        <v>81</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B12" s="125"/>
       <c r="C12" s="45"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
@@ -4164,12 +4150,9 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="51">
-        <f>_xlfn.XLOOKUP(B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$B$16:$B$25)</f>
-        <v>1140</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B13" s="51"/>
       <c r="C13" s="45"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
@@ -4178,149 +4161,144 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="B14" s="51">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$C$16:$C$25)</f>
-        <v>110.6</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>371</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="43"/>
+      <c r="E14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A15" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A17" s="123" t="s">
+        <v>302</v>
+      </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="123" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="83"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="83"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="69"/>
-      <c r="B20" s="84"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="71"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="69"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="48"/>
       <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="69"/>
       <c r="B22" s="53"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="72"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="69"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="93"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="72"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="72"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="75"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A24" s="85"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="75"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="119"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4" ht="16.5" thickBot="1">
       <c r="A27" s="115" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="B27" s="119"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A28" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="83" t="s">
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>183</v>
-      </c>
+      <c r="B29" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>290</v>
+        <v>369</v>
+      </c>
+      <c r="B30" s="125" t="s">
+        <v>78</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="B31" s="125" t="s">
-        <v>78</v>
+        <v>352</v>
+      </c>
+      <c r="B31" s="51" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B30,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="42"/>
@@ -4329,12 +4307,11 @@
       <c r="A32" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="B32" s="51" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="69" t="s">
@@ -4342,49 +4319,49 @@
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="45" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="69" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="B34" s="51"/>
-      <c r="C34" s="45" t="s">
-        <v>373</v>
-      </c>
+      <c r="C34" s="45"/>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="45"/>
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="B36" s="51"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="45"/>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="69"/>
+      <c r="A37" s="100" t="s">
+        <v>291</v>
+      </c>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="43" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="69" t="s">
@@ -4407,7 +4384,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="101" t="s">
         <v>295</v>
       </c>
       <c r="B41" s="51"/>
@@ -4426,55 +4403,51 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="101" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A43" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A44" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="44" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="48"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A45" s="115" t="s">
+        <v>305</v>
+      </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
     </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A46" s="115" t="s">
-        <v>306</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="83"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="41"/>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="83"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="41"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="69"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="69"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="45"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="69"/>
-      <c r="B49" s="125"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="45"/>
       <c r="D49" s="42"/>
     </row>
@@ -4482,7 +4455,7 @@
       <c r="A50" s="69"/>
       <c r="B50" s="51"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="69"/>
@@ -4504,19 +4477,19 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="69"/>
-      <c r="B54" s="51"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="45"/>
       <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="69"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="100"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
@@ -4533,7 +4506,7 @@
       <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="69"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="51"/>
       <c r="C59" s="45"/>
       <c r="D59" s="43"/>
@@ -4544,23 +4517,17 @@
       <c r="C60" s="45"/>
       <c r="D60" s="43"/>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="101"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="43"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="102"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="96" spans="1:2" ht="26.25">
-      <c r="A96" s="62" t="s">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A61" s="102"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="44"/>
+    </row>
+    <row r="95" spans="1:2" ht="26.25">
+      <c r="A95" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B95" s="62" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4580,13 +4547,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B21</xm:sqref>
+          <xm:sqref>B12 B20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B31 B49</xm:sqref>
+          <xm:sqref>B30 B48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4598,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4626,19 +4593,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4739,7 +4706,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4777,7 +4744,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
       <c r="G9" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H9" s="125"/>
       <c r="I9" s="48"/>
@@ -4799,7 +4766,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="48"/>
@@ -4819,7 +4786,7 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48"/>
@@ -4929,7 +4896,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
@@ -4969,7 +4936,7 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J20" s="72" t="s">
         <v>282</v>
@@ -5147,7 +5114,7 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
@@ -5579,7 +5546,7 @@
         <v>184</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
@@ -5619,7 +5586,7 @@
         <v>188</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="48" t="s">
@@ -5631,7 +5598,7 @@
         <v>189</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
@@ -5657,7 +5624,7 @@
         <v>185</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
@@ -5666,7 +5633,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>58</v>
@@ -5678,7 +5645,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5692,7 +5659,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
@@ -5702,7 +5669,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
@@ -5726,7 +5693,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19" s="49">
         <v>0.17199999999999999</v>
@@ -5740,7 +5707,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="97" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="97" t="s">
@@ -5845,7 +5812,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5866,19 +5833,19 @@
         <v>183</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5912,7 +5879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10">
       <c r="G6" s="69" t="s">
         <v>167</v>
       </c>
@@ -5922,19 +5889,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>183</v>
-      </c>
+    <row r="7" spans="1:10">
       <c r="G7" s="69" t="s">
         <v>175</v>
       </c>
@@ -5943,14 +5898,6 @@
       <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="71"/>
       <c r="G8" s="69" t="s">
         <v>174</v>
       </c>
@@ -5961,16 +5908,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="50">
-        <v>1</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="71"/>
       <c r="G9" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>229</v>
@@ -5981,16 +5920,6 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="72" t="s">
-        <v>282</v>
-      </c>
       <c r="G10" s="69" t="s">
         <v>177</v>
       </c>
@@ -6003,16 +5932,6 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="72" t="s">
-        <v>282</v>
-      </c>
       <c r="G11" s="69" t="s">
         <v>178</v>
       </c>
@@ -6025,18 +5944,6 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A12" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="53">
-        <v>25</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>282</v>
-      </c>
       <c r="G12" s="85" t="s">
         <v>176</v>
       </c>
@@ -6047,32 +5954,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A13" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="53">
-        <v>15</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>282</v>
-      </c>
       <c r="G13" s="87"/>
       <c r="H13" s="48"/>
       <c r="I13" s="61"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A14" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="75" t="s">
-        <v>247</v>
-      </c>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="G14" s="83" t="s">
         <v>198</v>
       </c>
@@ -6087,10 +5974,6 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
       <c r="G15" s="69" t="s">
         <v>167</v>
       </c>
@@ -6100,11 +5983,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+    <row r="16" spans="1:10">
       <c r="G16" s="69" t="s">
         <v>175</v>
       </c>
@@ -6112,19 +5991,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="71"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>183</v>
-      </c>
+    <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
         <v>178</v>
       </c>
@@ -6136,15 +6003,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="71"/>
+    <row r="18" spans="7:10">
       <c r="G18" s="69" t="s">
         <v>200</v>
       </c>
@@ -6154,15 +6013,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="50">
-        <v>2</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="71"/>
+    <row r="19" spans="7:10">
       <c r="G19" s="69" t="s">
         <v>173</v>
       </c>
@@ -6174,19 +6025,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="53">
-        <v>30</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>282</v>
-      </c>
+    <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="85" t="s">
         <v>176</v>
       </c>
@@ -6196,33 +6035,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="72" t="s">
-        <v>247</v>
-      </c>
+    <row r="21" spans="7:10" ht="15.75" thickBot="1">
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>247</v>
-      </c>
+    <row r="22" spans="7:10" ht="15.75">
       <c r="G22" s="83" t="s">
         <v>201</v>
       </c>
@@ -6236,15 +6055,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="75" t="s">
-        <v>247</v>
-      </c>
+    <row r="23" spans="7:10">
       <c r="G23" s="69" t="s">
         <v>167</v>
       </c>
@@ -6254,11 +6065,7 @@
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+    <row r="24" spans="7:10">
       <c r="G24" s="69" t="s">
         <v>175</v>
       </c>
@@ -6266,11 +6073,7 @@
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+    <row r="25" spans="7:10">
       <c r="G25" s="69" t="s">
         <v>174</v>
       </c>
@@ -6280,41 +6083,21 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>183</v>
-      </c>
+    <row r="26" spans="7:10">
       <c r="G26" s="69" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="71"/>
+    <row r="27" spans="7:10">
       <c r="G27" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H27" s="53" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6323,15 +6106,9 @@
       <c r="I27" s="48"/>
       <c r="J27" s="72"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="71"/>
+    <row r="28" spans="7:10">
       <c r="G28" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H28" s="53">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6340,15 +6117,7 @@
       <c r="I28" s="48"/>
       <c r="J28" s="72"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="72" t="s">
-        <v>282</v>
-      </c>
+    <row r="29" spans="7:10">
       <c r="G29" s="69" t="s">
         <v>177</v>
       </c>
@@ -6360,38 +6129,19 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="72" t="s">
-        <v>282</v>
-      </c>
+    <row r="30" spans="7:10">
       <c r="G30" s="69" t="s">
         <v>178</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J30" s="72" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A31" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="B31" s="53" t="str">
-        <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
-        <v>octyltrichlorosilane</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="72"/>
+    <row r="31" spans="7:10" ht="16.5" thickBot="1">
       <c r="G31" s="85" t="s">
         <v>176</v>
       </c>
@@ -6401,32 +6151,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="B32" s="53">
-        <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
-        <v>21354</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="72"/>
+    <row r="32" spans="7:10" ht="15.75" thickBot="1">
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>282</v>
-      </c>
       <c r="G33" s="83" t="s">
         <v>104</v>
       </c>
@@ -6441,16 +6172,6 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>282</v>
-      </c>
       <c r="G34" s="69" t="s">
         <v>167</v>
       </c>
@@ -6460,15 +6181,7 @@
       <c r="I34" s="48"/>
       <c r="J34" s="71"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A35" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="75" t="s">
-        <v>247</v>
-      </c>
+    <row r="35" spans="1:10">
       <c r="G35" s="69" t="s">
         <v>175</v>
       </c>
@@ -6545,7 +6258,7 @@
         <v>231</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6561,31 +6274,31 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>B10 H8 H25 B29</xm:sqref>
+          <xm:sqref>H25 H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9D07125F-6B5F-4608-BF58-E5496A9289C9}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$G$16:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B9 H16 H24 H35 H7 B19 B28</xm:sqref>
+          <xm:sqref>H7 H16 H24 H35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C92B0664-7E77-4AD9-9D78-A9912FEAF99B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B11 H9</xm:sqref>
+          <xm:sqref>H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{BB212A2E-343E-405B-BB66-03095B3EB57D}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$H$32:$H$38</xm:f>
           </x14:formula1>
-          <xm:sqref>H26 B30</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{608CDF99-375A-47E3-B685-2E89DEFD2400}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$I$32:$I$38</xm:f>
           </x14:formula1>
-          <xm:sqref>H27 B31</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6597,8 +6310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6622,19 +6335,19 @@
       <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6879,7 +6592,7 @@
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I18" s="71" t="s">
         <v>282</v>
@@ -6946,7 +6659,7 @@
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
@@ -6968,7 +6681,7 @@
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
@@ -7081,7 +6794,7 @@
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I37" s="71" t="s">
         <v>282</v>
@@ -7101,7 +6814,7 @@
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
@@ -7236,19 +6949,19 @@
         <v>183</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7280,7 +6993,7 @@
         <v>209</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I5" s="67" t="s">
         <v>88</v>
@@ -7350,7 +7063,7 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>282</v>
@@ -7381,7 +7094,7 @@
         <v>196</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I13" s="67" t="s">
         <v>88</v>
@@ -7420,7 +7133,7 @@
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
@@ -7473,7 +7186,7 @@
         <v>104</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>88</v>
@@ -7591,8 +7304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7624,12 +7337,12 @@
         <v>183</v>
       </c>
       <c r="G1"/>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="135"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -7687,7 +7400,7 @@
         <v>245</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>41</v>
@@ -7724,7 +7437,7 @@
         <v>233</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J7" s="48"/>
       <c r="K7" s="80"/>
@@ -7736,7 +7449,7 @@
         <v>233</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="80"/>
@@ -7795,7 +7508,7 @@
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>244</v>
@@ -7850,7 +7563,7 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>244</v>
@@ -7942,7 +7655,7 @@
         <v>174</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -7956,7 +7669,7 @@
         <v>174</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -8049,7 +7762,7 @@
         <v>247</v>
       </c>
       <c r="G20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H20" s="69" t="s">
         <v>267</v>
@@ -8148,7 +7861,7 @@
         <v>265</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I24" s="63"/>
       <c r="J24" s="48"/>
@@ -8160,7 +7873,7 @@
     </row>
     <row r="25" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
@@ -8257,7 +7970,7 @@
         <v>233</v>
       </c>
       <c r="I31" s="70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J31" s="48"/>
       <c r="K31" s="80"/>
@@ -8395,7 +8108,7 @@
         <v>174</v>
       </c>
       <c r="I40" s="56" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
@@ -8544,7 +8257,7 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="H48" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I48" s="63"/>
       <c r="J48" s="48"/>
@@ -8666,7 +8379,7 @@
   <dimension ref="A1:XEX120"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -8704,19 +8417,19 @@
       <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="135"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="H2" s="3"/>
@@ -8755,7 +8468,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>41</v>
@@ -8774,7 +8487,7 @@
         <v>113</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>41</v>
@@ -10840,7 +10553,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -10850,7 +10563,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
@@ -10957,7 +10670,7 @@
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A11" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
@@ -10967,7 +10680,7 @@
         <v>247</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I11" s="49"/>
       <c r="J11" s="48"/>
@@ -11018,7 +10731,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>41</v>
@@ -11054,7 +10767,7 @@
         <v>114</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J15" s="67" t="s">
         <v>41</v>
@@ -11084,7 +10797,7 @@
         <v>233</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -11093,7 +10806,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11119,7 +10832,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -11129,7 +10842,7 @@
         <v>244</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="48"/>
@@ -11141,7 +10854,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11167,7 +10880,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="69" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -11177,7 +10890,7 @@
         <v>244</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="48"/>
@@ -11189,7 +10902,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11213,7 +10926,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="69" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -11231,7 +10944,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11251,7 +10964,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -11264,7 +10977,7 @@
         <v>115</v>
       </c>
       <c r="I24" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J24" s="67" t="s">
         <v>41</v>
@@ -11327,7 +11040,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -11415,7 +11128,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="H32" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="48"/>
@@ -11458,7 +11171,7 @@
         <v>117</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J36" s="67" t="s">
         <v>41</v>
@@ -11499,7 +11212,7 @@
     </row>
     <row r="39" spans="8:13">
       <c r="H39" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="48" t="s">
@@ -11513,7 +11226,7 @@
     </row>
     <row r="40" spans="8:13">
       <c r="H40" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
@@ -11525,7 +11238,7 @@
     </row>
     <row r="41" spans="8:13">
       <c r="H41" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="48" t="s">
@@ -11539,7 +11252,7 @@
     </row>
     <row r="42" spans="8:13">
       <c r="H42" s="69" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="48"/>
@@ -11551,7 +11264,7 @@
     </row>
     <row r="43" spans="8:13">
       <c r="H43" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="48" t="s">
@@ -11565,7 +11278,7 @@
     </row>
     <row r="44" spans="8:13">
       <c r="H44" s="69" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
@@ -11577,7 +11290,7 @@
     </row>
     <row r="45" spans="8:13">
       <c r="H45" s="69" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="48" t="s">
@@ -11591,7 +11304,7 @@
     </row>
     <row r="46" spans="8:13">
       <c r="H46" s="69" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="48"/>
@@ -11629,7 +11342,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="H49" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="48"/>
@@ -11664,7 +11377,7 @@
         <v>119</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J52" s="67" t="s">
         <v>41</v>
@@ -11719,7 +11432,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="H56" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="48"/>

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A43E2-D49D-412E-B51A-DE5D744A1F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB61A4F-8808-423F-865E-81F24413F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="406">
   <si>
     <t>UNIT</t>
   </si>
@@ -920,9 +920,6 @@
     <t>mobility</t>
   </si>
   <si>
-    <t>hole_transfer_curve</t>
-  </si>
-  <si>
     <t>cm2/V-s</t>
   </si>
   <si>
@@ -969,12 +966,6 @@
   </si>
   <si>
     <t>Other Transfer Curve Information</t>
-  </si>
-  <si>
-    <t>Electron Transfer Curve #</t>
-  </si>
-  <si>
-    <t>electron_transfer_curve</t>
   </si>
   <si>
     <t>Transfer Curve Type</t>
@@ -1272,9 +1263,6 @@
     <t>hole_transfer</t>
   </si>
   <si>
-    <t>electron_transfer</t>
-  </si>
-  <si>
     <t>uv_vis_film</t>
   </si>
   <si>
@@ -1444,6 +1432,12 @@
   </si>
   <si>
     <t>&lt;- e.g., [-80, 80]</t>
+  </si>
+  <si>
+    <t>transfer_curve</t>
+  </si>
+  <si>
+    <t>Transfer Curve #</t>
   </si>
 </sst>
 </file>
@@ -2275,9 +2269,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2418,6 +2409,9 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2755,7 +2749,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2799,85 +2793,85 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="115" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="A4" s="114" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="104" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="105" t="s">
         <v>146</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="116"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="116" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="115" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="116"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="116" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="80"/>
@@ -2886,7 +2880,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="117" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="80"/>
@@ -2895,53 +2889,53 @@
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="119" t="s">
-        <v>321</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="119" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="120" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="120"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="116" t="s">
         <v>164</v>
       </c>
       <c r="B18" s="61"/>
@@ -2950,7 +2944,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="114" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="80"/>
@@ -2958,28 +2952,28 @@
       <c r="D19" s="80"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109" t="s">
-        <v>247</v>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108" t="s">
+        <v>246</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="121"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
       <c r="D21" s="80"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="114" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="80"/>
@@ -2987,57 +2981,57 @@
       <c r="D22" s="80"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>25</v>
@@ -3047,90 +3041,90 @@
       <c r="A29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="104"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="104"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>35</v>
@@ -3140,10 +3134,10 @@
       <c r="A38" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -3312,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScale="114" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="E40" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3375,19 +3369,19 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
@@ -3472,7 +3466,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3481,10 +3475,10 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3501,10 +3495,10 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" t="s">
         <v>363</v>
-      </c>
-      <c r="E21" t="s">
-        <v>367</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3512,7 +3506,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3524,7 +3518,7 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3552,7 +3546,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3572,7 +3566,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3624,12 +3618,12 @@
         <v>45</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
@@ -3638,21 +3632,21 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -3661,22 +3655,22 @@
         <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3690,16 +3684,16 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I33" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3713,13 +3707,13 @@
         <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3734,10 +3728,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3752,10 +3746,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3766,14 +3760,14 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3788,10 +3782,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -3855,10 +3849,10 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E50" t="s">
         <v>122</v>
@@ -3867,10 +3861,10 @@
         <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H50" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3881,10 +3875,10 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3893,10 +3887,10 @@
         <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3904,10 +3898,10 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E52" t="s">
         <v>123</v>
@@ -3921,10 +3915,10 @@
         <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3937,7 +3931,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s">
         <v>136</v>
@@ -3949,18 +3943,18 @@
         <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C59" t="s">
         <v>137</v>
@@ -3972,18 +3966,18 @@
         <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C60" t="s">
         <v>138</v>
@@ -3995,18 +3989,18 @@
         <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s">
         <v>139</v>
@@ -4017,7 +4011,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E62" t="s">
         <v>238</v>
@@ -4033,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4069,36 +4063,36 @@
       <c r="C2" s="132"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>309</v>
+      <c r="A4" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>306</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="128" t="s">
-        <v>307</v>
+        <v>286</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>304</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="97" t="s">
-        <v>326</v>
+      <c r="A6" s="96" t="s">
+        <v>323</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="97"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="23" t="s">
         <v>85</v>
       </c>
@@ -4110,7 +4104,7 @@
       <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="114" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="48"/>
@@ -4118,21 +4112,21 @@
       <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A9" s="115" t="s">
-        <v>302</v>
+      <c r="A9" s="114" t="s">
+        <v>299</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="124" t="s">
+      <c r="A10" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="123" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -4141,19 +4135,19 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="69" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="124" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="45"/>
@@ -4164,7 +4158,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B13" s="51">
         <f>_xlfn.XLOOKUP(B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$B$16:$B$25)</f>
@@ -4178,39 +4172,39 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="69" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B14" s="51">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B12,'Dropdown Items'!$A$16:$A$25,'Dropdown Items'!$C$16:$C$25)</f>
         <v>110.6</v>
       </c>
-      <c r="C14" s="126" t="s">
-        <v>371</v>
+      <c r="C14" s="125" t="s">
+        <v>367</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="69" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="45"/>
       <c r="D15" s="43"/>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="84" t="s">
         <v>176</v>
       </c>
       <c r="B16" s="55"/>
-      <c r="C16" s="127"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4220,22 +4214,22 @@
       <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="123" t="s">
-        <v>303</v>
+      <c r="A18" s="122" t="s">
+        <v>300</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="83"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
       <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="69"/>
-      <c r="B20" s="84"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="48"/>
       <c r="D20" s="71"/>
     </row>
@@ -4254,7 +4248,7 @@
     <row r="23" spans="1:4">
       <c r="A23" s="69"/>
       <c r="B23" s="53"/>
-      <c r="C23" s="93"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:4">
@@ -4264,9 +4258,9 @@
       <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A25" s="85"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="86"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="75"/>
     </row>
     <row r="26" spans="1:4">
@@ -4276,29 +4270,29 @@
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="119"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A28" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="B28" s="119"/>
+      <c r="A28" s="114" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="118"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="124" t="s">
+      <c r="A29" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="123" t="s">
         <v>88</v>
       </c>
       <c r="D29" s="41" t="s">
@@ -4307,19 +4301,19 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="69" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="B31" s="125" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31" s="124" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="45"/>
@@ -4327,7 +4321,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B32" s="51" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4338,27 +4332,27 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="69" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="45" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="69" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="45" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="45"/>
@@ -4366,7 +4360,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="69" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="45"/>
@@ -4379,8 +4373,8 @@
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="100" t="s">
-        <v>292</v>
+      <c r="A38" s="99" t="s">
+        <v>289</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -4388,62 +4382,62 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="69" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="45"/>
       <c r="D39" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="69" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="45"/>
       <c r="D40" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="69" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="45"/>
       <c r="D41" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="101" t="s">
-        <v>296</v>
+      <c r="A42" s="100" t="s">
+        <v>293</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="45"/>
       <c r="D42" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="101" t="s">
-        <v>297</v>
+      <c r="A43" s="100" t="s">
+        <v>294</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="45"/>
       <c r="D43" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A44" s="102" t="s">
-        <v>298</v>
+      <c r="A44" s="101" t="s">
+        <v>295</v>
       </c>
       <c r="B44" s="55"/>
-      <c r="C44" s="127"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4453,17 +4447,17 @@
       <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A46" s="115" t="s">
-        <v>306</v>
+      <c r="A46" s="114" t="s">
+        <v>303</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
     </row>
     <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="83"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4">
@@ -4474,7 +4468,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="69"/>
-      <c r="B49" s="125"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="45"/>
       <c r="D49" s="42"/>
     </row>
@@ -4515,7 +4509,7 @@
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="100"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
@@ -4539,21 +4533,21 @@
       <c r="D59" s="43"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="101"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="51"/>
       <c r="C60" s="45"/>
       <c r="D60" s="43"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="101"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="51"/>
       <c r="C61" s="45"/>
       <c r="D61" s="43"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="102"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="55"/>
-      <c r="C62" s="127"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="44"/>
     </row>
     <row r="96" spans="1:2" ht="26.25">
@@ -4598,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4658,7 +4652,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="82" t="s">
         <v>182</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -4670,10 +4664,10 @@
       <c r="D4" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="95"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
     </row>
@@ -4681,14 +4675,14 @@
       <c r="A5" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>181</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="71"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="82" t="s">
         <v>92</v>
       </c>
       <c r="H5" s="67" t="s">
@@ -4705,7 +4699,9 @@
       <c r="A6" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
       <c r="C6" s="48"/>
       <c r="D6" s="72"/>
       <c r="E6" s="48"/>
@@ -4713,7 +4709,7 @@
       <c r="G6" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="83" t="s">
         <v>169</v>
       </c>
       <c r="I6" s="48"/>
@@ -4726,7 +4722,7 @@
       <c r="B7" s="56"/>
       <c r="C7" s="48"/>
       <c r="D7" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -4739,7 +4735,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4748,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -4758,7 +4754,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4772,14 +4768,14 @@
         <v>13</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
       <c r="G9" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="H9" s="125"/>
+        <v>349</v>
+      </c>
+      <c r="H9" s="124"/>
       <c r="I9" s="48"/>
       <c r="J9" s="72"/>
     </row>
@@ -4794,37 +4790,37 @@
         <v>97</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="48"/>
       <c r="J10" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="54"/>
-      <c r="C11" s="86"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="69" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48"/>
       <c r="J11" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -4834,35 +4830,47 @@
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H12" s="54"/>
-      <c r="I12" s="86"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>183</v>
+      </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="87"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="48"/>
       <c r="I13" s="61"/>
       <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>169</v>
+      </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="82" t="s">
         <v>182</v>
       </c>
       <c r="H14" s="67" t="s">
@@ -4876,26 +4884,34 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="50">
+        <v>2</v>
+      </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="83" t="s">
         <v>181</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="56"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="72" t="s">
+        <v>279</v>
+      </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="69" t="s">
@@ -4906,10 +4922,12 @@
       <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="124"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="69" t="s">
@@ -4918,32 +4936,40 @@
       <c r="H17" s="56"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="72" t="s">
+        <v>279</v>
+      </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="69" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="53"/>
       <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="72" t="s">
+        <v>279</v>
+      </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
@@ -4954,14 +4980,18 @@
         <v>13</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A20" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="75" t="s">
+        <v>246</v>
+      </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="69" t="s">
@@ -4969,10 +4999,10 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J20" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1">
@@ -4982,13 +5012,13 @@
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H21" s="54"/>
-      <c r="I21" s="86"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
@@ -5010,7 +5040,7 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="82" t="s">
         <v>93</v>
       </c>
       <c r="H23" s="67" t="s">
@@ -5033,7 +5063,7 @@
       <c r="G24" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="83" t="s">
         <v>168</v>
       </c>
       <c r="I24" s="48"/>
@@ -5066,7 +5096,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5084,7 +5114,7 @@
         <v>126</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5100,7 +5130,7 @@
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5118,7 +5148,7 @@
         <v>99</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5136,7 +5166,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5147,14 +5177,14 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="69" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5172,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
@@ -5182,13 +5212,13 @@
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H33" s="54"/>
-      <c r="I33" s="86"/>
+      <c r="I33" s="85"/>
       <c r="J33" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" thickBot="1">
@@ -5198,7 +5228,7 @@
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
-      <c r="G34" s="94"/>
+      <c r="G34" s="93"/>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
       <c r="J34" s="61"/>
@@ -5210,7 +5240,7 @@
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="82" t="s">
         <v>94</v>
       </c>
       <c r="H35" s="67" t="s">
@@ -5266,7 +5296,7 @@
       <c r="H38" s="56"/>
       <c r="I38" s="48"/>
       <c r="J38" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5284,7 +5314,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5302,7 +5332,7 @@
         <v>97</v>
       </c>
       <c r="J40" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
@@ -5312,13 +5342,13 @@
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
-      <c r="G41" s="85" t="s">
+      <c r="G41" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H41" s="54"/>
-      <c r="I41" s="86"/>
+      <c r="I41" s="85"/>
       <c r="J41" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
@@ -5329,9 +5359,9 @@
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
       <c r="G42" s="61"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="48"/>
@@ -5340,7 +5370,7 @@
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="82" t="s">
         <v>95</v>
       </c>
       <c r="H43" s="67" t="s">
@@ -5363,7 +5393,7 @@
       <c r="G44" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="84" t="s">
+      <c r="H44" s="83" t="s">
         <v>171</v>
       </c>
       <c r="I44" s="48"/>
@@ -5396,7 +5426,7 @@
       <c r="H46" s="56"/>
       <c r="I46" s="48"/>
       <c r="J46" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5414,7 +5444,7 @@
         <v>126</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -5430,7 +5460,7 @@
       <c r="H48" s="53"/>
       <c r="I48" s="48"/>
       <c r="J48" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5448,7 +5478,7 @@
         <v>98</v>
       </c>
       <c r="J49" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5466,17 +5496,17 @@
         <v>99</v>
       </c>
       <c r="J50" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H51" s="54"/>
-      <c r="I51" s="86"/>
+      <c r="I51" s="85"/>
       <c r="J51" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5507,19 +5537,19 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$G$16:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 H7 H16 H25 H37 H45</xm:sqref>
+          <xm:sqref>B6 H7 H16 H25 H37 H45 B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{31C19637-AA6D-4C23-B08C-C857FAD81443}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>B7 H17 H26 H38 H46 H8</xm:sqref>
+          <xm:sqref>B7 H17 H26 H38 H46 H8 B16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{FEC24CB8-9E2B-476F-B3B5-F5AF60A2C8E5}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H9</xm:sqref>
+          <xm:sqref>H9 B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5567,7 +5597,7 @@
       <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="48"/>
@@ -5575,67 +5605,67 @@
       <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>184</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>186</v>
       </c>
       <c r="B6" s="49">
         <v>80</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="92" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="96" t="s">
         <v>187</v>
       </c>
       <c r="B7" s="49">
         <v>1500</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="92" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="96" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="93"/>
+        <v>339</v>
+      </c>
+      <c r="C8" s="92"/>
       <c r="D8" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="96" t="s">
         <v>189</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5645,7 +5675,7 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="95" t="s">
         <v>191</v>
       </c>
       <c r="B11" s="47"/>
@@ -5653,32 +5683,32 @@
       <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="97" t="s">
-        <v>314</v>
+      <c r="A13" s="96" t="s">
+        <v>311</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="97" t="s">
-        <v>315</v>
+      <c r="A14" s="96" t="s">
+        <v>312</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5687,27 +5717,27 @@
         <v>4</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="97" t="s">
-        <v>316</v>
+      <c r="A15" s="96" t="s">
+        <v>313</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="97" t="s">
-        <v>317</v>
+      <c r="A16" s="96" t="s">
+        <v>314</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5717,7 +5747,7 @@
       <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="97" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="49"/>
@@ -5725,29 +5755,29 @@
       <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="97" t="s">
-        <v>319</v>
+      <c r="A19" s="96" t="s">
+        <v>316</v>
       </c>
       <c r="B19" s="49">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="96" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="97" t="s">
-        <v>318</v>
+      <c r="A20" s="96" t="s">
+        <v>315</v>
       </c>
       <c r="B20" s="49"/>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="96" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5755,9 +5785,9 @@
         <v>192</v>
       </c>
       <c r="B21" s="49"/>
-      <c r="C21" s="97"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5765,9 +5795,9 @@
         <v>193</v>
       </c>
       <c r="B22" s="49"/>
-      <c r="C22" s="97"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5775,9 +5805,9 @@
         <v>194</v>
       </c>
       <c r="B23" s="49"/>
-      <c r="C23" s="97"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5841,11 +5871,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5899,7 +5929,7 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="82" t="s">
         <v>196</v>
       </c>
       <c r="H5" s="67" t="s">
@@ -5916,14 +5946,14 @@
       <c r="G6" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="83" t="s">
         <v>197</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="67" t="s">
@@ -5946,7 +5976,7 @@
       <c r="A8" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>197</v>
       </c>
       <c r="C8" s="48"/>
@@ -5957,7 +5987,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5970,14 +6000,14 @@
       <c r="C9" s="48"/>
       <c r="D9" s="71"/>
       <c r="G9" s="69" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>229</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5985,11 +6015,11 @@
         <v>174</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G10" s="69" t="s">
         <v>177</v>
@@ -5999,19 +6029,19 @@
         <v>13</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>229</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G11" s="69" t="s">
         <v>178</v>
@@ -6021,7 +6051,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
@@ -6035,15 +6065,15 @@
         <v>13</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H12" s="54"/>
-      <c r="I12" s="86"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
@@ -6057,23 +6087,23 @@
         <v>126</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="87"/>
+        <v>279</v>
+      </c>
+      <c r="G13" s="86"/>
       <c r="H13" s="48"/>
       <c r="I13" s="61"/>
       <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="84" t="s">
         <v>176</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="86"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="82" t="s">
         <v>198</v>
       </c>
       <c r="H14" s="67" t="s">
@@ -6094,7 +6124,7 @@
       <c r="G15" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="83" t="s">
         <v>199</v>
       </c>
       <c r="I15" s="48"/>
@@ -6113,7 +6143,7 @@
       <c r="J16" s="71"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B17" s="67" t="s">
@@ -6133,14 +6163,14 @@
         <v>126</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>199</v>
       </c>
       <c r="C18" s="48"/>
@@ -6151,7 +6181,7 @@
       <c r="H18" s="53"/>
       <c r="I18" s="48"/>
       <c r="J18" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6171,7 +6201,7 @@
         <v>99</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
@@ -6185,15 +6215,15 @@
         <v>126</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G20" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H20" s="54"/>
-      <c r="I20" s="86"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
@@ -6201,11 +6231,11 @@
         <v>200</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -6221,9 +6251,9 @@
         <v>99</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="82" t="s">
         <v>201</v>
       </c>
       <c r="H22" s="67" t="s">
@@ -6237,18 +6267,18 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="84" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="C23" s="86"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G23" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="83" t="s">
         <v>202</v>
       </c>
       <c r="I23" s="48"/>
@@ -6277,11 +6307,11 @@
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>201</v>
       </c>
       <c r="B26" s="67" t="s">
@@ -6294,27 +6324,27 @@
         <v>183</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="83" t="s">
         <v>202</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="71"/>
       <c r="G27" s="69" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H27" s="53" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6331,7 +6361,7 @@
       <c r="C28" s="48"/>
       <c r="D28" s="71"/>
       <c r="G28" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H28" s="53">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6347,7 +6377,7 @@
       <c r="B29" s="56"/>
       <c r="C29" s="48"/>
       <c r="D29" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G29" s="69" t="s">
         <v>177</v>
@@ -6357,34 +6387,34 @@
         <v>13</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G30" s="69" t="s">
         <v>178</v>
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J30" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="69" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B31" s="53" t="str">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6392,18 +6422,18 @@
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="72"/>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H31" s="54"/>
-      <c r="I31" s="86"/>
+      <c r="I31" s="85"/>
       <c r="J31" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B32" s="53">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$J$32:$J$39)</f>
@@ -6425,9 +6455,9 @@
         <v>13</v>
       </c>
       <c r="D33" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" s="82" t="s">
         <v>104</v>
       </c>
       <c r="H33" s="67" t="s">
@@ -6446,10 +6476,10 @@
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G34" s="69" t="s">
         <v>167</v>
@@ -6461,13 +6491,13 @@
       <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="84" t="s">
         <v>176</v>
       </c>
       <c r="B35" s="54"/>
-      <c r="C35" s="86"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G35" s="69" t="s">
         <v>175</v>
@@ -6483,7 +6513,7 @@
       <c r="H36" s="53"/>
       <c r="I36" s="48"/>
       <c r="J36" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6495,7 +6525,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6507,7 +6537,7 @@
         <v>97</v>
       </c>
       <c r="J38" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6517,7 +6547,7 @@
       <c r="H39" s="63"/>
       <c r="I39" s="48"/>
       <c r="J39" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6527,25 +6557,25 @@
       <c r="H40" s="63"/>
       <c r="I40" s="48"/>
       <c r="J40" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G41" s="85" t="s">
+      <c r="G41" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H41" s="54"/>
-      <c r="I41" s="86"/>
+      <c r="I41" s="85"/>
       <c r="J41" s="75" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>374</v>
+      <c r="B68" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -6703,20 +6733,20 @@
       <c r="F7" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="88"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="48"/>
       <c r="I7" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="48"/>
       <c r="D8" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F8" s="69" t="s">
         <v>215</v>
@@ -6726,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6738,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F9" s="69" t="s">
         <v>216</v>
@@ -6748,7 +6778,7 @@
         <v>125</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6760,7 +6790,7 @@
         <v>125</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F10" s="69" t="s">
         <v>222</v>
@@ -6770,7 +6800,7 @@
         <v>223</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -6783,7 +6813,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F11" s="69" t="s">
         <v>177</v>
@@ -6793,7 +6823,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>106</v>
@@ -6806,7 +6836,7 @@
       <c r="B12" s="53"/>
       <c r="C12" s="48"/>
       <c r="D12" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F12" s="69" t="s">
         <v>217</v>
@@ -6814,7 +6844,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="48"/>
       <c r="I12" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
@@ -6823,16 +6853,16 @@
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="74"/>
-      <c r="D13" s="89" t="s">
-        <v>247</v>
+      <c r="D13" s="88" t="s">
+        <v>246</v>
       </c>
       <c r="F13" s="73" t="s">
         <v>176</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="74"/>
-      <c r="I13" s="89" t="s">
-        <v>247</v>
+      <c r="I13" s="88" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
@@ -6842,14 +6872,14 @@
       <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="90"/>
+      <c r="H15" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="91" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6870,7 +6900,7 @@
       <c r="G17" s="56"/>
       <c r="H17" s="48"/>
       <c r="I17" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="6:10">
@@ -6879,10 +6909,10 @@
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="6:10">
@@ -6892,7 +6922,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="48"/>
       <c r="I19" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="6:10">
@@ -6902,7 +6932,7 @@
       <c r="G20" s="53"/>
       <c r="H20" s="48"/>
       <c r="I20" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>135</v>
@@ -6913,11 +6943,11 @@
         <v>221</v>
       </c>
       <c r="G21" s="53"/>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="92" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="6:10">
@@ -6929,7 +6959,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="6:10">
@@ -6941,17 +6971,17 @@
         <v>107</v>
       </c>
       <c r="I23" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="69" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
       <c r="I24" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="6:10">
@@ -6963,17 +6993,17 @@
         <v>223</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="69" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
       <c r="I26" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="15.75" thickBot="1">
@@ -6982,12 +7012,12 @@
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="74"/>
-      <c r="I27" s="89" t="s">
-        <v>247</v>
+      <c r="I27" s="88" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="16.5" thickBot="1">
-      <c r="F28" s="94"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="61"/>
@@ -7018,10 +7048,10 @@
       <c r="F31" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="88"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="48"/>
       <c r="I31" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="15.75" thickBot="1">
@@ -7032,25 +7062,25 @@
       <c r="H32" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="I32" s="89" t="s">
-        <v>282</v>
+      <c r="I32" s="88" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="15.75" thickBot="1">
       <c r="F33" s="61"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="6:10" ht="15.75">
-      <c r="F34" s="90" t="s">
+      <c r="F34" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91" t="s">
+      <c r="G34" s="90"/>
+      <c r="H34" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="92" t="s">
+      <c r="I34" s="91" t="s">
         <v>183</v>
       </c>
       <c r="J34" t="s">
@@ -7072,7 +7102,7 @@
       <c r="G36" s="56"/>
       <c r="H36" s="48"/>
       <c r="I36" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="6:10">
@@ -7081,10 +7111,10 @@
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I37" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="6:10">
@@ -7096,17 +7126,17 @@
         <v>13</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="69" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
       <c r="I39" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="6:10">
@@ -7116,7 +7146,7 @@
       <c r="G40" s="53"/>
       <c r="H40" s="48"/>
       <c r="I40" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="6:10">
@@ -7128,7 +7158,7 @@
         <v>223</v>
       </c>
       <c r="I41" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J41" t="s">
         <v>227</v>
@@ -7136,22 +7166,22 @@
     </row>
     <row r="42" spans="6:10">
       <c r="F42" s="69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G42" s="63"/>
       <c r="H42" s="48"/>
       <c r="I42" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="6:10">
       <c r="F43" s="69" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="48"/>
       <c r="I43" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="6:10">
@@ -7161,7 +7191,7 @@
       <c r="G44" s="63"/>
       <c r="H44" s="48"/>
       <c r="I44" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="15.75" thickBot="1">
@@ -7170,8 +7200,8 @@
       </c>
       <c r="G45" s="54"/>
       <c r="H45" s="74"/>
-      <c r="I45" s="89" t="s">
-        <v>247</v>
+      <c r="I45" s="88" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7264,7 +7294,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -7276,11 +7306,11 @@
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="41"/>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="82" t="s">
         <v>209</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I5" s="67" t="s">
         <v>88</v>
@@ -7296,7 +7326,7 @@
       <c r="G6" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="83" t="s">
         <v>210</v>
       </c>
       <c r="I6" s="48"/>
@@ -7323,7 +7353,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="48"/>
       <c r="J8" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7338,7 +7368,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7350,10 +7380,10 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J10" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
@@ -7361,27 +7391,27 @@
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="44"/>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="86"/>
+      <c r="I11" s="85"/>
       <c r="J11" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G12" s="87"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="48"/>
       <c r="I12" s="61"/>
       <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="82" t="s">
         <v>196</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I13" s="67" t="s">
         <v>88</v>
@@ -7394,7 +7424,7 @@
       <c r="G14" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="83" t="s">
         <v>197</v>
       </c>
       <c r="I14" s="48"/>
@@ -7415,17 +7445,17 @@
       <c r="H16" s="56"/>
       <c r="I16" s="48"/>
       <c r="J16" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
       <c r="J17" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="7:10">
@@ -7437,7 +7467,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="7:10">
@@ -7449,17 +7479,17 @@
         <v>126</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H20" s="54"/>
-      <c r="I20" s="86"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1">
@@ -7469,11 +7499,11 @@
       <c r="J21" s="48"/>
     </row>
     <row r="22" spans="7:10" ht="15.75">
-      <c r="G22" s="83" t="s">
+      <c r="G22" s="82" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>88</v>
@@ -7507,7 +7537,7 @@
       <c r="H25" s="56"/>
       <c r="I25" s="48"/>
       <c r="J25" s="71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="7:10">
@@ -7517,7 +7547,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="7:10">
@@ -7529,7 +7559,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="7:10">
@@ -7539,17 +7569,17 @@
       <c r="H28" s="53"/>
       <c r="I28" s="48"/>
       <c r="J28" s="72" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="7:10" ht="16.5" thickBot="1">
-      <c r="G29" s="85" t="s">
+      <c r="G29" s="84" t="s">
         <v>176</v>
       </c>
       <c r="H29" s="54"/>
-      <c r="I29" s="86"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7591,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7615,10 +7645,10 @@
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="F1" t="s">
         <v>183</v>
@@ -7633,7 +7663,7 @@
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" s="13"/>
       <c r="F2" s="3"/>
@@ -7647,7 +7677,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
@@ -7655,7 +7685,7 @@
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B4" s="2"/>
       <c r="F4" s="33"/>
@@ -7666,17 +7696,17 @@
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="H5" s="76" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="I5" s="77"/>
       <c r="J5" s="77" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="77" t="s">
         <v>242</v>
-      </c>
-      <c r="L5" s="77" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="78" t="s">
         <v>183</v>
@@ -7684,25 +7714,25 @@
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>242</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>243</v>
       </c>
       <c r="F6" s="78" t="s">
         <v>183</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
@@ -7712,7 +7742,7 @@
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -7724,7 +7754,7 @@
         <v>233</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="J7" s="48"/>
       <c r="K7" s="80"/>
@@ -7736,7 +7766,7 @@
         <v>233</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="80"/>
@@ -7744,41 +7774,41 @@
       <c r="F8" s="71"/>
       <c r="G8" s="3"/>
       <c r="H8" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
       <c r="L8" s="80"/>
       <c r="M8" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A9" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="69" t="s">
-        <v>239</v>
+      <c r="H9" s="129" t="s">
+        <v>234</v>
       </c>
       <c r="I9" s="53">
         <v>2.02E-4</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
       <c r="M9" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7789,19 +7819,19 @@
         <v>2.02E-4</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="49">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I10" s="50" t="s">
         <v>142</v>
@@ -7810,12 +7840,12 @@
       <c r="K10" s="80"/>
       <c r="L10" s="80"/>
       <c r="M10" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A11" s="81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>142</v>
@@ -7824,7 +7854,7 @@
       <c r="D11" s="80"/>
       <c r="E11" s="80"/>
       <c r="F11" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="69" t="s">
@@ -7835,7 +7865,7 @@
       <c r="K11" s="49"/>
       <c r="L11" s="50"/>
       <c r="M11" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7850,10 +7880,10 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="69" t="s">
@@ -7864,7 +7894,7 @@
       <c r="K12" s="49"/>
       <c r="L12" s="50"/>
       <c r="M12" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -7876,11 +7906,11 @@
       <c r="D13" s="49"/>
       <c r="E13" s="50"/>
       <c r="F13" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="48" t="s">
@@ -7889,12 +7919,12 @@
       <c r="K13" s="49"/>
       <c r="L13" s="50"/>
       <c r="M13" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="48" t="s">
@@ -7903,7 +7933,7 @@
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
       <c r="F14" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="48"/>
@@ -7920,7 +7950,7 @@
       <c r="E15" s="48"/>
       <c r="F15" s="72"/>
       <c r="H15" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
@@ -7930,7 +7960,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -7942,13 +7972,13 @@
         <v>174</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7956,13 +7986,13 @@
         <v>174</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="69" t="s">
@@ -7975,7 +8005,7 @@
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
       <c r="M17" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7989,10 +8019,10 @@
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
       <c r="F18" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="53">
         <v>-3</v>
@@ -8003,12 +8033,12 @@
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A19" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="53">
         <v>-3</v>
@@ -8019,11 +8049,11 @@
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="48" t="s">
@@ -8032,12 +8062,12 @@
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A20" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="48" t="s">
@@ -8046,13 +8076,13 @@
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>143</v>
@@ -8061,12 +8091,12 @@
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>143</v>
@@ -8075,7 +8105,7 @@
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="69" t="s">
@@ -8086,7 +8116,7 @@
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -8098,7 +8128,7 @@
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="69" t="s">
         <v>193</v>
@@ -8108,7 +8138,7 @@
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
       <c r="M22" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8120,7 +8150,7 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" s="69" t="s">
         <v>194</v>
@@ -8130,7 +8160,7 @@
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
       <c r="M23" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8142,32 +8172,32 @@
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I24" s="63"/>
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
       <c r="M24" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25" s="73" t="s">
         <v>176</v>
@@ -8177,7 +8207,7 @@
       <c r="K25" s="74"/>
       <c r="L25" s="74"/>
       <c r="M25" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
@@ -8189,7 +8219,7 @@
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
       <c r="F26" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -8206,7 +8236,7 @@
       <c r="L27" s="80"/>
       <c r="M27" s="80"/>
     </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G28" s="3"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
@@ -8217,22 +8247,12 @@
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G29" s="3"/>
-      <c r="H29" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="M29" s="78" t="s">
-        <v>183</v>
-      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A30"/>
@@ -8242,27 +8262,21 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="72"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
     </row>
     <row r="31" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="F31" s="33"/>
-      <c r="H31" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="71"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A32"/>
@@ -8272,70 +8286,30 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="71" t="s">
-        <v>247</v>
-      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G33" s="3"/>
-      <c r="H33" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="I33" s="53">
-        <v>2.02E-4</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="71" t="s">
-        <v>244</v>
-      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G34" s="3"/>
-      <c r="H34" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="82"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="H35" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="H36" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="I36" s="53"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="71" t="s">
-        <v>244</v>
-      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8"/>
@@ -8345,18 +8319,6 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="71" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8"/>
@@ -8366,43 +8328,23 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="72"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="H39" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="72"/>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G40"/>
-      <c r="H40" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="71" t="s">
-        <v>247</v>
-      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="8"/>
@@ -8411,18 +8353,6 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="H41" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="71" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="8"/>
@@ -8431,35 +8361,15 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="H42" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="I42" s="53">
-        <v>-3</v>
-      </c>
-      <c r="J42" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="72" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="G43" s="3"/>
-      <c r="H43" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="72" t="s">
-        <v>247</v>
-      </c>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
     </row>
     <row r="44" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A44"/>
@@ -8469,18 +8379,12 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="72" t="s">
-        <v>247</v>
-      </c>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A45"/>
@@ -8490,16 +8394,12 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="I45" s="53"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="72" t="s">
-        <v>247</v>
-      </c>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
     </row>
     <row r="46" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B46"/>
@@ -8508,16 +8408,12 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="53"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="72" t="s">
-        <v>247</v>
-      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B47"/>
@@ -8526,16 +8422,12 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
-      <c r="H47" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="63"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="72" t="s">
-        <v>247</v>
-      </c>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
     </row>
     <row r="48" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B48"/>
@@ -8543,42 +8435,28 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="H48" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="I48" s="63"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="72" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="H49" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="75" t="s">
-        <v>247</v>
-      </c>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
@@ -8630,30 +8508,36 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{F576FF07-91DD-47FB-9E5A-B5DCBCB1E130}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$49:$C$53</xm:f>
           </x14:formula1>
-          <xm:sqref>I16 B17 I40</xm:sqref>
+          <xm:sqref>I16 B17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{89B7A02C-BE58-4A66-81DB-7BDF4306733C}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$B$59:$B$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L11:L13 L16:L17 E17:E18 E12:E14 L40:L41 L35:L37 L32:L33 L9 E9:E10</xm:sqref>
+          <xm:sqref>L11:L13 L16:L17 E17:E18 E12:E14 E9:E10 L9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A804F1F-40D3-43ED-AAA3-2475022AB8DB}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$59:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>I10 B11 I34</xm:sqref>
+          <xm:sqref>I10 B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03251C20-1E88-4597-A192-EB40D28D1150}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$F$59:$F$60</xm:f>
           </x14:formula1>
-          <xm:sqref>I8 B9 I32</xm:sqref>
+          <xm:sqref>I8 B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F5A48AD-536B-41BB-AAFD-6565E821F5B2}">
+          <x14:formula1>
+            <xm:f>'Dropdown Items'!$G$59:$G$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>H9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8689,17 +8573,17 @@
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="F1" t="s">
         <v>183</v>
@@ -8726,14 +8610,14 @@
     </row>
     <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="3"/>
@@ -8755,16 +8639,16 @@
         <v>113</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>183</v>
@@ -8774,16 +8658,16 @@
         <v>113</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="L5" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="68" t="s">
         <v>183</v>
@@ -10840,7 +10724,7 @@
         <v>233</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -10850,7 +10734,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
@@ -10859,31 +10743,31 @@
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A7" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A8" s="69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="49">
         <v>0.54</v>
@@ -10892,22 +10776,22 @@
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
       <c r="F8" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I8" s="49"/>
       <c r="J8" s="48"/>
       <c r="K8" s="49"/>
       <c r="L8" s="50"/>
       <c r="M8" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A9" s="69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B9" s="49">
         <v>50</v>
@@ -10918,10 +10802,10 @@
       <c r="D9" s="49"/>
       <c r="E9" s="50"/>
       <c r="F9" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="48" t="s">
@@ -10930,73 +10814,73 @@
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
       <c r="M9" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A10" s="69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="48"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50"/>
       <c r="F10" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I10" s="49"/>
       <c r="J10" s="48"/>
       <c r="K10" s="49"/>
       <c r="L10" s="50"/>
       <c r="M10" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A11" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I11" s="49"/>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="48"/>
       <c r="M11" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A12" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
       <c r="E12" s="74"/>
       <c r="F12" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
@@ -11018,16 +10902,16 @@
         <v>117</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="F14" s="68" t="s">
         <v>183</v>
@@ -11044,7 +10928,7 @@
         <v>233</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -11054,16 +10938,16 @@
         <v>114</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J15" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="L15" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="M15" s="68" t="s">
         <v>183</v>
@@ -11071,20 +10955,20 @@
     </row>
     <row r="16" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A16" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>233</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -11093,7 +10977,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="69" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11104,44 +10988,44 @@
       <c r="D17" s="49"/>
       <c r="E17" s="50"/>
       <c r="F17" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
       <c r="M17" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="69" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
       <c r="E18" s="50"/>
       <c r="F18" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="48"/>
       <c r="K18" s="49"/>
       <c r="L18" s="50"/>
       <c r="M18" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="69" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11150,10 +11034,10 @@
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
       <c r="F19" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I19" s="49"/>
       <c r="J19" s="48" t="s">
@@ -11162,34 +11046,34 @@
       <c r="K19" s="49"/>
       <c r="L19" s="50"/>
       <c r="M19" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="69" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
       <c r="E20" s="50"/>
       <c r="F20" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="48"/>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11198,29 +11082,29 @@
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
       <c r="F21" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H21" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
       <c r="L21" s="74"/>
       <c r="M21" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="69" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
       <c r="D22" s="49"/>
       <c r="E22" s="50"/>
       <c r="F22" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
@@ -11231,7 +11115,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11240,7 +11124,7 @@
       <c r="D23" s="49"/>
       <c r="E23" s="50"/>
       <c r="F23" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
@@ -11251,29 +11135,29 @@
     </row>
     <row r="24" spans="1:13" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="50"/>
       <c r="F24" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>115</v>
       </c>
       <c r="I24" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J24" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="M24" s="68" t="s">
         <v>183</v>
@@ -11281,7 +11165,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="48" t="s">
@@ -11290,13 +11174,13 @@
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H25" s="69" t="s">
         <v>233</v>
       </c>
       <c r="I25" s="70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
@@ -11305,39 +11189,39 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49"/>
       <c r="E26" s="50"/>
       <c r="F26" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I26" s="49"/>
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
       <c r="M26" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I27" s="49"/>
       <c r="J27" s="48" t="s">
@@ -11346,34 +11230,34 @@
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
       <c r="M27" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B28" s="64"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
       <c r="F28" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I28" s="49"/>
       <c r="J28" s="48"/>
       <c r="K28" s="49"/>
       <c r="L28" s="50"/>
       <c r="M28" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="H29" s="69" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I29" s="49"/>
       <c r="J29" s="48" t="s">
@@ -11382,12 +11266,12 @@
       <c r="K29" s="49"/>
       <c r="L29" s="50"/>
       <c r="M29" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="H30" s="69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="48" t="s">
@@ -11396,12 +11280,12 @@
       <c r="K30" s="49"/>
       <c r="L30" s="50"/>
       <c r="M30" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I31" s="65"/>
       <c r="J31" s="48" t="s">
@@ -11410,31 +11294,31 @@
       <c r="K31" s="49"/>
       <c r="L31" s="50"/>
       <c r="M31" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="H32" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
       <c r="M32" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="8:13" ht="15.75" thickBot="1">
       <c r="H33" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I33" s="64"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
       <c r="M33" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="8:13">
@@ -11458,16 +11342,16 @@
         <v>117</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J36" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="L36" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="M36" s="68" t="s">
         <v>183</v>
@@ -11478,7 +11362,7 @@
         <v>233</v>
       </c>
       <c r="I37" s="70" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
@@ -11487,19 +11371,19 @@
     </row>
     <row r="38" spans="8:13">
       <c r="H38" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I38" s="49"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
       <c r="M38" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" s="69" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="48" t="s">
@@ -11508,24 +11392,24 @@
       <c r="K39" s="49"/>
       <c r="L39" s="50"/>
       <c r="M39" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" s="69" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="48"/>
       <c r="K40" s="49"/>
       <c r="L40" s="50"/>
       <c r="M40" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" s="69" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="48" t="s">
@@ -11534,24 +11418,24 @@
       <c r="K41" s="49"/>
       <c r="L41" s="50"/>
       <c r="M41" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" s="69" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="48"/>
       <c r="K42" s="49"/>
       <c r="L42" s="50"/>
       <c r="M42" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" s="69" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="48" t="s">
@@ -11560,24 +11444,24 @@
       <c r="K43" s="49"/>
       <c r="L43" s="50"/>
       <c r="M43" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" s="69" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="48"/>
       <c r="K44" s="49"/>
       <c r="L44" s="50"/>
       <c r="M44" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" s="69" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="48" t="s">
@@ -11586,24 +11470,24 @@
       <c r="K45" s="49"/>
       <c r="L45" s="50"/>
       <c r="M45" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" s="69" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="48"/>
       <c r="K46" s="49"/>
       <c r="L46" s="50"/>
       <c r="M46" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" s="69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I47" s="49"/>
       <c r="J47" s="48" t="s">
@@ -11612,43 +11496,43 @@
       <c r="K47" s="49"/>
       <c r="L47" s="50"/>
       <c r="M47" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" s="69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I48" s="49"/>
       <c r="J48" s="48"/>
       <c r="K48" s="49"/>
       <c r="L48" s="50"/>
       <c r="M48" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="H49" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
       <c r="M49" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="H50" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I50" s="64"/>
       <c r="J50" s="74"/>
       <c r="K50" s="74"/>
       <c r="L50" s="74"/>
       <c r="M50" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1">
@@ -11664,16 +11548,16 @@
         <v>119</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J52" s="67" t="s">
         <v>41</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="L52" s="67" t="s">
         <v>242</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>243</v>
       </c>
       <c r="M52" s="68" t="s">
         <v>183</v>
@@ -11684,7 +11568,7 @@
         <v>233</v>
       </c>
       <c r="I53" s="70" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
@@ -11693,19 +11577,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="H54" s="69" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I54" s="49"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" s="48"/>
       <c r="M54" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="H55" s="69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I55" s="49"/>
       <c r="J55" s="48" t="s">
@@ -11714,31 +11598,31 @@
       <c r="K55" s="49"/>
       <c r="L55" s="50"/>
       <c r="M55" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="H56" s="69" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
       <c r="L56" s="48"/>
       <c r="M56" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="H57" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I57" s="64"/>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:13">

--- a/db_feed/new_template_v5.xlsx
+++ b/db_feed/new_template_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF895D2-DFCD-474D-9404-80A43B29A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28002AD7-4B5F-47B2-A779-CCD62ECD29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dropdown Items" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$15:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="411">
   <si>
     <t>UNIT</t>
   </si>
@@ -1089,9 +1089,6 @@
     <t>Solvent 2: Copy and paste another solvent box here if a second solvent was used</t>
   </si>
   <si>
-    <t>0 to 100. If only one solvent, type 100</t>
-  </si>
-  <si>
     <t>Polymer 1: Usually the polymer semiconductor</t>
   </si>
   <si>
@@ -1279,12 +1276,6 @@
   </si>
   <si>
     <t>PubChemID</t>
-  </si>
-  <si>
-    <t>boiling_point</t>
-  </si>
-  <si>
-    <t>°C</t>
   </si>
   <si>
     <t>common_name</t>
@@ -1454,6 +1445,12 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>0 to 1. If only one solvent, type 1</t>
+  </si>
+  <si>
+    <t>0 to 1. If only one polymer, type 1</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2411,9 +2408,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2443,6 +2437,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2751,7 +2754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2762,7 +2765,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2790,10 +2793,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="7"/>
@@ -2869,7 +2872,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="86" t="s">
         <v>164</v>
@@ -2903,7 +2906,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="108"/>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="108"/>
@@ -2924,12 +2927,12 @@
         <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="108"/>
@@ -2937,7 +2940,7 @@
         <v>242</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2966,7 +2969,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="114" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>145</v>
@@ -3382,19 +3385,19 @@
     </row>
     <row r="15" spans="1:7" s="16" customFormat="1">
       <c r="A15" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>17</v>
@@ -3479,7 +3482,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3488,10 +3491,10 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -3508,10 +3511,10 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3531,7 +3534,7 @@
         <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3579,7 +3582,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3636,7 +3639,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -3645,21 +3648,21 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -3668,22 +3671,22 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J32">
         <v>7372</v>
@@ -3697,16 +3700,16 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H33" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J33">
         <v>76261</v>
@@ -3720,13 +3723,13 @@
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J34">
         <v>6399</v>
@@ -3741,10 +3744,10 @@
       </c>
       <c r="G35" s="18"/>
       <c r="H35" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J35">
         <v>8157</v>
@@ -3759,10 +3762,10 @@
       </c>
       <c r="G36" s="18"/>
       <c r="H36" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J36">
         <v>21354</v>
@@ -3773,14 +3776,14 @@
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J37">
         <v>74057</v>
@@ -3795,10 +3798,10 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I38" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J38">
         <v>21932446</v>
@@ -3862,10 +3865,10 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -3874,10 +3877,10 @@
         <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3888,10 +3891,10 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3900,10 +3903,10 @@
         <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3911,10 +3914,10 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" t="s">
         <v>324</v>
-      </c>
-      <c r="D52" t="s">
-        <v>325</v>
       </c>
       <c r="E52" t="s">
         <v>121</v>
@@ -3928,10 +3931,10 @@
         <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3962,15 +3965,15 @@
         <v>252</v>
       </c>
       <c r="H57" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
         <v>135</v>
@@ -3988,15 +3991,15 @@
         <v>232</v>
       </c>
       <c r="H59" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
@@ -4014,15 +4017,15 @@
         <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B61" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C61" t="s">
         <v>137</v>
@@ -4033,7 +4036,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
         <v>236</v>
@@ -4047,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4078,18 +4081,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="126" t="s">
         <v>301</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>302</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -4098,15 +4101,15 @@
       <c r="A5" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="126" t="s">
-        <v>300</v>
+      <c r="B5" s="125" t="s">
+        <v>299</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="51">
         <v>4</v>
@@ -4159,20 +4162,20 @@
       <c r="A11" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="134" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B12" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="43"/>
       <c r="E12" t="s">
         <v>82</v>
@@ -4183,222 +4186,210 @@
         <v>294</v>
       </c>
       <c r="B13" s="51"/>
-      <c r="C13" s="45"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="43"/>
       <c r="E13" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="124" t="s">
-        <v>362</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="35"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A14" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="44"/>
+      <c r="E14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" t="s">
-        <v>297</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A18" s="121" t="s">
+      <c r="A16" s="121" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="81"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="81"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="69"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="69"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="71"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="69"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="72"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="72"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="69"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="72"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="69"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="72"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="75"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
+      <c r="D24" s="48"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="117"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A26" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="117"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A28" s="113" t="s">
-        <v>298</v>
-      </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="81" t="s">
+      <c r="A27" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B27" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C27" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D27" s="41" t="s">
         <v>181</v>
       </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>283</v>
+        <v>343</v>
+      </c>
+      <c r="B30" s="51" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B29,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="42"/>
+        <v>344</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="B32" s="51" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="42"/>
-    </row>
-    <row r="33" spans="1:4">
+        <v>345</v>
+      </c>
+      <c r="B32" s="51"/>
+      <c r="C32" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="43"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="69" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="B33" s="51"/>
-      <c r="C33" s="45" t="s">
-        <v>364</v>
-      </c>
+      <c r="C33" s="45"/>
       <c r="D33" s="43"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="69" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="B34" s="51"/>
-      <c r="C34" s="45" t="s">
-        <v>364</v>
-      </c>
+      <c r="C34" s="45"/>
       <c r="D34" s="43"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35" s="51"/>
+      <c r="E34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="69"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="45"/>
       <c r="D35" s="43"/>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="B36" s="51"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="45"/>
       <c r="C36" s="45"/>
       <c r="D36" s="43"/>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="69"/>
-      <c r="B37" s="45"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="51"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="43"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="B38" s="45"/>
+      <c r="D37" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="51"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="69" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="45"/>
@@ -4406,9 +4397,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="69" t="s">
-        <v>287</v>
+    <row r="40" spans="1:5">
+      <c r="A40" s="99" t="s">
+        <v>289</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="45"/>
@@ -4416,9 +4407,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="69" t="s">
-        <v>288</v>
+    <row r="41" spans="1:5">
+      <c r="A41" s="99" t="s">
+        <v>290</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="45"/>
@@ -4426,73 +4417,65 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="43" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A42" s="100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="44" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="99" t="s">
-        <v>290</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A44" s="100" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A46" s="113" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="81"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="41"/>
-    </row>
-    <row r="48" spans="1:4">
+    <row r="43" spans="1:5">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A44" s="113" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="81"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="69"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="42"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="69"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="42"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="69"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="45"/>
       <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="69"/>
-      <c r="B49" s="123"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="45"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="69"/>
       <c r="B50" s="51"/>
       <c r="C50" s="45"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="43"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="69"/>
@@ -4508,25 +4491,25 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="69"/>
-      <c r="B53" s="51"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="45"/>
       <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="69"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="45"/>
       <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="69"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="45"/>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="98"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="45"/>
       <c r="D56" s="43"/>
     </row>
@@ -4537,40 +4520,28 @@
       <c r="D57" s="43"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="69"/>
+      <c r="A58" s="99"/>
       <c r="B58" s="51"/>
       <c r="C58" s="45"/>
       <c r="D58" s="43"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="69"/>
+      <c r="A59" s="99"/>
       <c r="B59" s="51"/>
       <c r="C59" s="45"/>
       <c r="D59" s="43"/>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="99"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="43"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="99"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="43"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A62" s="100"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="44"/>
-    </row>
-    <row r="96" spans="1:2" ht="26.25">
-      <c r="A96" s="62" t="s">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="100"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="44"/>
+    </row>
+    <row r="94" spans="1:2" ht="26.25">
+      <c r="A94" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B94" s="62" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4590,13 +4561,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B21</xm:sqref>
+          <xm:sqref>B12 B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B31 B49</xm:sqref>
+          <xm:sqref>B29 B47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4636,19 +4607,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4751,7 +4722,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="53">
         <v>250</v>
@@ -4789,7 +4760,7 @@
       <c r="E9" s="61"/>
       <c r="F9" s="48"/>
       <c r="G9" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="123"/>
       <c r="I9" s="48"/>
@@ -4833,7 +4804,7 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="48"/>
@@ -4926,7 +4897,7 @@
         <v>172</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="72" t="s">
@@ -4943,10 +4914,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="72" t="s">
@@ -4977,7 +4948,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H18" s="53"/>
       <c r="I18" s="48" t="s">
@@ -4989,7 +4960,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B19" s="53">
         <v>0.05</v>
@@ -5027,7 +4998,7 @@
       </c>
       <c r="H20" s="53"/>
       <c r="I20" s="48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J20" s="72" t="s">
         <v>275</v>
@@ -5205,7 +5176,7 @@
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="48" t="s">
@@ -5637,7 +5608,7 @@
         <v>182</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
@@ -5677,7 +5648,7 @@
         <v>186</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="48" t="s">
@@ -5689,7 +5660,7 @@
         <v>187</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
@@ -5715,7 +5686,7 @@
         <v>183</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
@@ -5724,7 +5695,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>56</v>
@@ -5736,7 +5707,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="49">
         <v>350</v>
@@ -5750,7 +5721,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
@@ -5760,7 +5731,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="49"/>
       <c r="C16" s="48"/>
@@ -5784,7 +5755,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="95" t="s">
@@ -5796,7 +5767,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="95" t="s">
@@ -5922,19 +5893,19 @@
         <v>181</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6026,7 +5997,7 @@
       <c r="C9" s="48"/>
       <c r="D9" s="71"/>
       <c r="G9" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="50" t="s">
         <v>227</v>
@@ -6041,7 +6012,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="72" t="s">
@@ -6060,7 +6031,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>227</v>
@@ -6350,10 +6321,10 @@
         <v>181</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="72" t="s">
@@ -6370,7 +6341,7 @@
       <c r="C27" s="48"/>
       <c r="D27" s="71"/>
       <c r="G27" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="53" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6422,10 +6393,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="72" t="s">
@@ -6436,7 +6407,7 @@
       </c>
       <c r="H30" s="53"/>
       <c r="I30" s="48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J30" s="72" t="s">
         <v>275</v>
@@ -6444,7 +6415,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B31" s="53" t="str">
         <f>_xlfn.XLOOKUP(B30,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6510,7 +6481,7 @@
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D34" s="72" t="s">
         <v>275</v>
@@ -6609,7 +6580,7 @@
         <v>229</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6686,19 +6657,19 @@
       <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="52"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6943,7 +6914,7 @@
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I18" s="71" t="s">
         <v>275</v>
@@ -7010,7 +6981,7 @@
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="48"/>
@@ -7032,7 +7003,7 @@
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G26" s="50"/>
       <c r="H26" s="48"/>
@@ -7145,7 +7116,7 @@
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I37" s="71" t="s">
         <v>275</v>
@@ -7165,7 +7136,7 @@
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G39" s="50"/>
       <c r="H39" s="48"/>
@@ -7300,19 +7271,19 @@
         <v>181</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7414,7 +7385,7 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="48" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>275</v>
@@ -7484,7 +7455,7 @@
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="48"/>
@@ -7655,7 +7626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7676,27 +7647,27 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="G1" s="77" t="s">
         <v>181</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="57" t="s">
@@ -7733,22 +7704,22 @@
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="I5" s="76" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="L5" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="O5" s="77" t="s">
         <v>181</v>
@@ -7756,22 +7727,22 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="76" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C6" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="G6" s="77" t="s">
         <v>181</v>
@@ -7801,7 +7772,7 @@
         <v>231</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -7814,7 +7785,7 @@
         <v>231</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
@@ -7847,7 +7818,7 @@
         <v>242</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="128" t="s">
+      <c r="I9" s="127" t="s">
         <v>232</v>
       </c>
       <c r="J9" s="53">
@@ -7864,7 +7835,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="127" t="s">
         <v>232</v>
       </c>
       <c r="B10" s="53">
@@ -7908,8 +7879,8 @@
         <v>242</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="128" t="s">
-        <v>403</v>
+      <c r="I11" s="127" t="s">
+        <v>400</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="48"/>
@@ -7921,8 +7892,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A12" s="128" t="s">
-        <v>403</v>
+      <c r="A12" s="127" t="s">
+        <v>400</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="48" t="s">
@@ -8029,7 +8000,7 @@
         <v>172</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -8044,7 +8015,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -8144,7 +8115,7 @@
         <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I20" s="69" t="s">
         <v>260</v>
@@ -8251,7 +8222,7 @@
         <v>258</v>
       </c>
       <c r="I24" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="48"/>
@@ -8264,7 +8235,7 @@
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="48"/>
@@ -8681,7 +8652,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>238</v>
@@ -8692,20 +8663,20 @@
       <c r="G1" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="129" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="A2" s="128" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -8750,19 +8721,19 @@
         <v>111</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C5" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>181</v>
@@ -8772,19 +8743,19 @@
         <v>111</v>
       </c>
       <c r="J5" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K5" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="L5" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="O5" s="68" t="s">
         <v>181</v>
@@ -10841,7 +10812,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -10852,7 +10823,7 @@
         <v>231</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -10968,7 +10939,7 @@
     </row>
     <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A11" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="48"/>
@@ -10979,7 +10950,7 @@
         <v>242</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="48"/>
@@ -11035,19 +11006,19 @@
         <v>115</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C14" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="E14" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="G14" s="68" t="s">
         <v>181</v>
@@ -11076,19 +11047,19 @@
         <v>112</v>
       </c>
       <c r="J15" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K15" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="N15" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="L15" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="O15" s="68" t="s">
         <v>181</v>
@@ -11110,7 +11081,7 @@
         <v>231</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -11120,7 +11091,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B17" s="49">
         <v>27</v>
@@ -11148,7 +11119,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="69" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="48"/>
@@ -11159,7 +11130,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="48"/>
@@ -11172,7 +11143,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="69" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="48" t="s">
@@ -11200,7 +11171,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="48"/>
@@ -11211,7 +11182,7 @@
         <v>240</v>
       </c>
       <c r="I20" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="48"/>
@@ -11224,7 +11195,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="69" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="48" t="s">
@@ -11250,7 +11221,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="69" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="48"/>
@@ -11270,7 +11241,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B23" s="49"/>
       <c r="C23" s="48" t="s">
@@ -11292,7 +11263,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="48"/>
@@ -11306,19 +11277,19 @@
         <v>113</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K24" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="N24" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="O24" s="68" t="s">
         <v>181</v>
@@ -11376,7 +11347,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
@@ -11471,7 +11442,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="I32" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="48"/>
@@ -11518,19 +11489,19 @@
         <v>115</v>
       </c>
       <c r="J36" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K36" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L36" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M36" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="N36" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="L36" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="M36" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N36" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="O36" s="68" t="s">
         <v>181</v>
@@ -11564,7 +11535,7 @@
     </row>
     <row r="39" spans="9:15">
       <c r="I39" s="69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J39" s="49"/>
       <c r="K39" s="48" t="s">
@@ -11579,7 +11550,7 @@
     </row>
     <row r="40" spans="9:15">
       <c r="I40" s="69" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="48"/>
@@ -11592,7 +11563,7 @@
     </row>
     <row r="41" spans="9:15">
       <c r="I41" s="69" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="48" t="s">
@@ -11607,7 +11578,7 @@
     </row>
     <row r="42" spans="9:15">
       <c r="I42" s="69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="48"/>
@@ -11620,7 +11591,7 @@
     </row>
     <row r="43" spans="9:15">
       <c r="I43" s="69" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J43" s="49"/>
       <c r="K43" s="48" t="s">
@@ -11635,7 +11606,7 @@
     </row>
     <row r="44" spans="9:15">
       <c r="I44" s="69" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="48"/>
@@ -11648,7 +11619,7 @@
     </row>
     <row r="45" spans="9:15">
       <c r="I45" s="69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="48" t="s">
@@ -11663,7 +11634,7 @@
     </row>
     <row r="46" spans="9:15">
       <c r="I46" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="48"/>
@@ -11704,7 +11675,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="I49" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J49" s="49"/>
       <c r="K49" s="48"/>
@@ -11742,19 +11713,19 @@
         <v>117</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K52" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M52" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="N52" s="67" t="s">
         <v>407</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="M52" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N52" s="67" t="s">
-        <v>410</v>
       </c>
       <c r="O52" s="68" t="s">
         <v>181</v>
@@ -11803,7 +11774,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="I56" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="48"/>
